--- a/BackTest/2020-01-25 BackTest OGO.xlsx
+++ b/BackTest/2020-01-25 BackTest OGO.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M157"/>
+  <dimension ref="A1:M158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="D2" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="E2" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="F2" t="n">
-        <v>8000</v>
+        <v>8017.3125</v>
       </c>
       <c r="G2" t="n">
-        <v>11.06716666666665</v>
+        <v>11.06416666666665</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>11.2</v>
       </c>
       <c r="C3" t="n">
-        <v>11.28</v>
+        <v>11.2</v>
       </c>
       <c r="D3" t="n">
-        <v>11.28</v>
+        <v>11.2</v>
       </c>
       <c r="E3" t="n">
         <v>11.2</v>
       </c>
       <c r="F3" t="n">
-        <v>12007</v>
+        <v>8000</v>
       </c>
       <c r="G3" t="n">
-        <v>11.07166666666665</v>
+        <v>11.06716666666665</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,7 +503,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11.28</v>
+        <v>11.2</v>
       </c>
       <c r="C4" t="n">
         <v>11.28</v>
@@ -512,13 +512,13 @@
         <v>11.28</v>
       </c>
       <c r="E4" t="n">
-        <v>11.28</v>
+        <v>11.2</v>
       </c>
       <c r="F4" t="n">
-        <v>60820.638</v>
+        <v>12007</v>
       </c>
       <c r="G4" t="n">
-        <v>11.07616666666665</v>
+        <v>11.07166666666665</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -541,19 +541,19 @@
         <v>11.28</v>
       </c>
       <c r="C5" t="n">
-        <v>11.29</v>
+        <v>11.28</v>
       </c>
       <c r="D5" t="n">
-        <v>11.29</v>
+        <v>11.28</v>
       </c>
       <c r="E5" t="n">
         <v>11.28</v>
       </c>
       <c r="F5" t="n">
-        <v>18754.203</v>
+        <v>60820.638</v>
       </c>
       <c r="G5" t="n">
-        <v>11.08349999999999</v>
+        <v>11.07616666666665</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>11.29</v>
+        <v>11.28</v>
       </c>
       <c r="C6" t="n">
         <v>11.29</v>
@@ -582,13 +582,13 @@
         <v>11.29</v>
       </c>
       <c r="E6" t="n">
-        <v>11.29</v>
+        <v>11.28</v>
       </c>
       <c r="F6" t="n">
-        <v>57059.2922</v>
+        <v>18754.203</v>
       </c>
       <c r="G6" t="n">
-        <v>11.08816666666665</v>
+        <v>11.08349999999999</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>11.29</v>
       </c>
       <c r="F7" t="n">
-        <v>106089.0452</v>
+        <v>57059.2922</v>
       </c>
       <c r="G7" t="n">
-        <v>11.09266666666665</v>
+        <v>11.08816666666665</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>11.21</v>
+        <v>11.29</v>
       </c>
       <c r="C8" t="n">
-        <v>11.17</v>
+        <v>11.29</v>
       </c>
       <c r="D8" t="n">
-        <v>11.21</v>
+        <v>11.29</v>
       </c>
       <c r="E8" t="n">
-        <v>11.17</v>
+        <v>11.29</v>
       </c>
       <c r="F8" t="n">
-        <v>194766.9751</v>
+        <v>106089.0452</v>
       </c>
       <c r="G8" t="n">
-        <v>11.09866666666665</v>
+        <v>11.09266666666665</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>11.18</v>
+        <v>11.21</v>
       </c>
       <c r="C9" t="n">
-        <v>11</v>
+        <v>11.17</v>
       </c>
       <c r="D9" t="n">
-        <v>11.18</v>
+        <v>11.21</v>
       </c>
       <c r="E9" t="n">
-        <v>11</v>
+        <v>11.17</v>
       </c>
       <c r="F9" t="n">
-        <v>155660.0561</v>
+        <v>194766.9751</v>
       </c>
       <c r="G9" t="n">
-        <v>11.09833333333332</v>
+        <v>11.09866666666665</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>11.15</v>
+        <v>11.18</v>
       </c>
       <c r="C10" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="D10" t="n">
-        <v>11.15</v>
+        <v>11.18</v>
       </c>
       <c r="E10" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="F10" t="n">
-        <v>7636.22</v>
+        <v>155660.0561</v>
       </c>
       <c r="G10" t="n">
-        <v>11.09966666666665</v>
+        <v>11.09833333333332</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>11.04</v>
+        <v>11.15</v>
       </c>
       <c r="C11" t="n">
-        <v>11.03</v>
+        <v>11.1</v>
       </c>
       <c r="D11" t="n">
-        <v>11.04</v>
+        <v>11.15</v>
       </c>
       <c r="E11" t="n">
-        <v>11.03</v>
+        <v>11.1</v>
       </c>
       <c r="F11" t="n">
-        <v>25589.9997</v>
+        <v>7636.22</v>
       </c>
       <c r="G11" t="n">
-        <v>11.10333333333332</v>
+        <v>11.09966666666665</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>11</v>
+        <v>11.04</v>
       </c>
       <c r="C12" t="n">
-        <v>11</v>
+        <v>11.03</v>
       </c>
       <c r="D12" t="n">
-        <v>11</v>
+        <v>11.04</v>
       </c>
       <c r="E12" t="n">
-        <v>11</v>
+        <v>11.03</v>
       </c>
       <c r="F12" t="n">
-        <v>100.1571</v>
+        <v>25589.9997</v>
       </c>
       <c r="G12" t="n">
-        <v>11.10666666666665</v>
+        <v>11.10333333333332</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>10.88</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>10.88</v>
+        <v>11</v>
       </c>
       <c r="D13" t="n">
-        <v>10.88</v>
+        <v>11</v>
       </c>
       <c r="E13" t="n">
-        <v>10.88</v>
+        <v>11</v>
       </c>
       <c r="F13" t="n">
-        <v>13500</v>
+        <v>100.1571</v>
       </c>
       <c r="G13" t="n">
-        <v>11.10649999999999</v>
+        <v>11.10666666666665</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>10.88</v>
       </c>
       <c r="F14" t="n">
-        <v>4475.0844</v>
+        <v>13500</v>
       </c>
       <c r="G14" t="n">
-        <v>11.10616666666666</v>
+        <v>11.10649999999999</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>10.99</v>
+        <v>10.88</v>
       </c>
       <c r="C15" t="n">
-        <v>11</v>
+        <v>10.88</v>
       </c>
       <c r="D15" t="n">
-        <v>11</v>
+        <v>10.88</v>
       </c>
       <c r="E15" t="n">
-        <v>10.99</v>
+        <v>10.88</v>
       </c>
       <c r="F15" t="n">
-        <v>40000</v>
+        <v>4475.0844</v>
       </c>
       <c r="G15" t="n">
-        <v>11.10783333333332</v>
+        <v>11.10616666666666</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>11</v>
+        <v>10.99</v>
       </c>
       <c r="C16" t="n">
         <v>11</v>
@@ -932,10 +932,10 @@
         <v>11</v>
       </c>
       <c r="E16" t="n">
-        <v>11</v>
+        <v>10.99</v>
       </c>
       <c r="F16" t="n">
-        <v>134952.2936</v>
+        <v>40000</v>
       </c>
       <c r="G16" t="n">
         <v>11.10783333333332</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>11.12</v>
+        <v>11</v>
       </c>
       <c r="C17" t="n">
-        <v>11.12</v>
+        <v>11</v>
       </c>
       <c r="D17" t="n">
-        <v>11.12</v>
+        <v>11</v>
       </c>
       <c r="E17" t="n">
-        <v>11.12</v>
+        <v>11</v>
       </c>
       <c r="F17" t="n">
-        <v>46</v>
+        <v>134952.2936</v>
       </c>
       <c r="G17" t="n">
-        <v>11.10949999999999</v>
+        <v>11.10783333333332</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>11.12</v>
       </c>
       <c r="F18" t="n">
-        <v>10608.681</v>
+        <v>46</v>
       </c>
       <c r="G18" t="n">
-        <v>11.11116666666666</v>
+        <v>11.10949999999999</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>11</v>
+        <v>11.12</v>
       </c>
       <c r="C19" t="n">
-        <v>11</v>
+        <v>11.12</v>
       </c>
       <c r="D19" t="n">
-        <v>11</v>
+        <v>11.12</v>
       </c>
       <c r="E19" t="n">
-        <v>11</v>
+        <v>11.12</v>
       </c>
       <c r="F19" t="n">
-        <v>5040.14</v>
+        <v>10608.681</v>
       </c>
       <c r="G19" t="n">
-        <v>11.11083333333332</v>
+        <v>11.11116666666666</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1066,19 +1066,19 @@
         <v>11</v>
       </c>
       <c r="C20" t="n">
-        <v>10.99</v>
+        <v>11</v>
       </c>
       <c r="D20" t="n">
         <v>11</v>
       </c>
       <c r="E20" t="n">
-        <v>10.99</v>
+        <v>11</v>
       </c>
       <c r="F20" t="n">
-        <v>73287.92999999999</v>
+        <v>5040.14</v>
       </c>
       <c r="G20" t="n">
-        <v>11.11033333333332</v>
+        <v>11.11083333333332</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>10.99</v>
+        <v>11</v>
       </c>
       <c r="C21" t="n">
         <v>10.99</v>
       </c>
       <c r="D21" t="n">
-        <v>10.99</v>
+        <v>11</v>
       </c>
       <c r="E21" t="n">
         <v>10.99</v>
       </c>
       <c r="F21" t="n">
-        <v>115024.7461</v>
+        <v>73287.92999999999</v>
       </c>
       <c r="G21" t="n">
-        <v>11.10983333333332</v>
+        <v>11.11033333333332</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>10.93</v>
+        <v>10.99</v>
       </c>
       <c r="C22" t="n">
-        <v>10.79</v>
+        <v>10.99</v>
       </c>
       <c r="D22" t="n">
-        <v>10.93</v>
+        <v>10.99</v>
       </c>
       <c r="E22" t="n">
-        <v>10.79</v>
+        <v>10.99</v>
       </c>
       <c r="F22" t="n">
-        <v>290432.231</v>
+        <v>115024.7461</v>
       </c>
       <c r="G22" t="n">
-        <v>11.10599999999999</v>
+        <v>11.10983333333332</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>10.77</v>
+        <v>10.93</v>
       </c>
       <c r="C23" t="n">
-        <v>10.67</v>
+        <v>10.79</v>
       </c>
       <c r="D23" t="n">
-        <v>10.77</v>
+        <v>10.93</v>
       </c>
       <c r="E23" t="n">
-        <v>10.67</v>
+        <v>10.79</v>
       </c>
       <c r="F23" t="n">
-        <v>311960.0297</v>
+        <v>290432.231</v>
       </c>
       <c r="G23" t="n">
-        <v>11.09849999999999</v>
+        <v>11.10599999999999</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>10.85</v>
+        <v>10.77</v>
       </c>
       <c r="C24" t="n">
-        <v>10.85</v>
+        <v>10.67</v>
       </c>
       <c r="D24" t="n">
-        <v>10.85</v>
+        <v>10.77</v>
       </c>
       <c r="E24" t="n">
-        <v>10.85</v>
+        <v>10.67</v>
       </c>
       <c r="F24" t="n">
-        <v>4000</v>
+        <v>311960.0297</v>
       </c>
       <c r="G24" t="n">
-        <v>11.09383333333332</v>
+        <v>11.09849999999999</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>10.7</v>
+        <v>10.85</v>
       </c>
       <c r="C25" t="n">
-        <v>10.7</v>
+        <v>10.85</v>
       </c>
       <c r="D25" t="n">
-        <v>10.7</v>
+        <v>10.85</v>
       </c>
       <c r="E25" t="n">
-        <v>10.7</v>
+        <v>10.85</v>
       </c>
       <c r="F25" t="n">
-        <v>20370.728</v>
+        <v>4000</v>
       </c>
       <c r="G25" t="n">
-        <v>11.08666666666666</v>
+        <v>11.09383333333332</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>10.7</v>
       </c>
       <c r="F26" t="n">
-        <v>1219</v>
+        <v>20370.728</v>
       </c>
       <c r="G26" t="n">
-        <v>11.07933333333333</v>
+        <v>11.08666666666666</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1320,10 +1320,10 @@
         <v>10.7</v>
       </c>
       <c r="F27" t="n">
-        <v>1652</v>
+        <v>1219</v>
       </c>
       <c r="G27" t="n">
-        <v>11.07199999999999</v>
+        <v>11.07933333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1355,10 +1355,10 @@
         <v>10.7</v>
       </c>
       <c r="F28" t="n">
-        <v>221</v>
+        <v>1652</v>
       </c>
       <c r="G28" t="n">
-        <v>11.06433333333333</v>
+        <v>11.07199999999999</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>10.69</v>
+        <v>10.7</v>
       </c>
       <c r="C29" t="n">
-        <v>10.77</v>
+        <v>10.7</v>
       </c>
       <c r="D29" t="n">
-        <v>10.77</v>
+        <v>10.7</v>
       </c>
       <c r="E29" t="n">
-        <v>10.69</v>
+        <v>10.7</v>
       </c>
       <c r="F29" t="n">
-        <v>23608.1981</v>
+        <v>221</v>
       </c>
       <c r="G29" t="n">
-        <v>11.05616666666666</v>
+        <v>11.06433333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1416,19 +1416,19 @@
         <v>10.69</v>
       </c>
       <c r="C30" t="n">
-        <v>10.69</v>
+        <v>10.77</v>
       </c>
       <c r="D30" t="n">
-        <v>10.69</v>
+        <v>10.77</v>
       </c>
       <c r="E30" t="n">
         <v>10.69</v>
       </c>
       <c r="F30" t="n">
-        <v>4567.6889</v>
+        <v>23608.1981</v>
       </c>
       <c r="G30" t="n">
-        <v>11.0465</v>
+        <v>11.05616666666666</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>10.68</v>
+        <v>10.69</v>
       </c>
       <c r="C31" t="n">
-        <v>10.68</v>
+        <v>10.69</v>
       </c>
       <c r="D31" t="n">
-        <v>10.68</v>
+        <v>10.69</v>
       </c>
       <c r="E31" t="n">
-        <v>10.68</v>
+        <v>10.69</v>
       </c>
       <c r="F31" t="n">
-        <v>12795</v>
+        <v>4567.6889</v>
       </c>
       <c r="G31" t="n">
-        <v>11.03683333333333</v>
+        <v>11.0465</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,35 +1483,31 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>10.69</v>
+        <v>10.68</v>
       </c>
       <c r="C32" t="n">
-        <v>10.69</v>
+        <v>10.68</v>
       </c>
       <c r="D32" t="n">
-        <v>10.69</v>
+        <v>10.68</v>
       </c>
       <c r="E32" t="n">
-        <v>10.69</v>
+        <v>10.68</v>
       </c>
       <c r="F32" t="n">
-        <v>36000</v>
+        <v>12795</v>
       </c>
       <c r="G32" t="n">
-        <v>11.02733333333333</v>
+        <v>11.03683333333333</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="K32" t="n">
-        <v>10.68</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
@@ -1522,40 +1518,32 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>10.68</v>
+        <v>10.69</v>
       </c>
       <c r="C33" t="n">
-        <v>10.68</v>
+        <v>10.69</v>
       </c>
       <c r="D33" t="n">
-        <v>10.68</v>
+        <v>10.69</v>
       </c>
       <c r="E33" t="n">
-        <v>10.68</v>
+        <v>10.69</v>
       </c>
       <c r="F33" t="n">
-        <v>275</v>
+        <v>36000</v>
       </c>
       <c r="G33" t="n">
-        <v>11.01766666666666</v>
+        <v>11.02733333333333</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>10.69</v>
-      </c>
-      <c r="K33" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1568,37 +1556,29 @@
         <v>10.68</v>
       </c>
       <c r="C34" t="n">
-        <v>10.67</v>
+        <v>10.68</v>
       </c>
       <c r="D34" t="n">
         <v>10.68</v>
       </c>
       <c r="E34" t="n">
-        <v>10.67</v>
+        <v>10.68</v>
       </c>
       <c r="F34" t="n">
-        <v>19184.1709</v>
+        <v>275</v>
       </c>
       <c r="G34" t="n">
-        <v>11.00783333333333</v>
+        <v>11.01766666666666</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="K34" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1608,40 +1588,32 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>10.69</v>
+        <v>10.68</v>
       </c>
       <c r="C35" t="n">
-        <v>10.69</v>
+        <v>10.67</v>
       </c>
       <c r="D35" t="n">
-        <v>10.69</v>
+        <v>10.68</v>
       </c>
       <c r="E35" t="n">
-        <v>10.69</v>
+        <v>10.67</v>
       </c>
       <c r="F35" t="n">
-        <v>260000</v>
+        <v>19184.1709</v>
       </c>
       <c r="G35" t="n">
-        <v>11</v>
+        <v>11.00783333333333</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="K35" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1663,28 +1635,20 @@
         <v>10.69</v>
       </c>
       <c r="F36" t="n">
-        <v>120</v>
+        <v>260000</v>
       </c>
       <c r="G36" t="n">
-        <v>10.9905</v>
+        <v>11</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>10.69</v>
-      </c>
-      <c r="K36" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1694,40 +1658,32 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>10.76</v>
+        <v>10.69</v>
       </c>
       <c r="C37" t="n">
-        <v>10.8</v>
+        <v>10.69</v>
       </c>
       <c r="D37" t="n">
-        <v>10.8</v>
+        <v>10.69</v>
       </c>
       <c r="E37" t="n">
-        <v>10.76</v>
+        <v>10.69</v>
       </c>
       <c r="F37" t="n">
-        <v>260000</v>
+        <v>120</v>
       </c>
       <c r="G37" t="n">
-        <v>10.98283333333333</v>
+        <v>10.9905</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>10.69</v>
-      </c>
-      <c r="K37" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1737,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>10.9</v>
+        <v>10.76</v>
       </c>
       <c r="C38" t="n">
         <v>10.8</v>
       </c>
       <c r="D38" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="E38" t="n">
-        <v>10.8</v>
+        <v>10.76</v>
       </c>
       <c r="F38" t="n">
-        <v>12737</v>
+        <v>260000</v>
       </c>
       <c r="G38" t="n">
-        <v>10.97516666666666</v>
+        <v>10.98283333333333</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1761,14 +1717,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1778,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>10.7</v>
+        <v>10.9</v>
       </c>
       <c r="C39" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="D39" t="n">
-        <v>10.7</v>
+        <v>10.9</v>
       </c>
       <c r="E39" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="F39" t="n">
-        <v>1856.2332</v>
+        <v>12737</v>
       </c>
       <c r="G39" t="n">
-        <v>10.96583333333333</v>
+        <v>10.97516666666666</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1802,14 +1752,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1819,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>10.66</v>
+        <v>10.7</v>
       </c>
       <c r="C40" t="n">
-        <v>10.66</v>
+        <v>10.7</v>
       </c>
       <c r="D40" t="n">
-        <v>10.66</v>
+        <v>10.7</v>
       </c>
       <c r="E40" t="n">
-        <v>10.66</v>
+        <v>10.7</v>
       </c>
       <c r="F40" t="n">
-        <v>143.7668</v>
+        <v>1856.2332</v>
       </c>
       <c r="G40" t="n">
-        <v>10.95583333333333</v>
+        <v>10.96583333333333</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1843,14 +1787,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1860,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>10.7</v>
+        <v>10.66</v>
       </c>
       <c r="C41" t="n">
         <v>10.66</v>
       </c>
       <c r="D41" t="n">
-        <v>10.7</v>
+        <v>10.66</v>
       </c>
       <c r="E41" t="n">
         <v>10.66</v>
       </c>
       <c r="F41" t="n">
-        <v>39919.4331</v>
+        <v>143.7668</v>
       </c>
       <c r="G41" t="n">
-        <v>10.9495</v>
+        <v>10.95583333333333</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1884,14 +1822,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1901,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>10.66</v>
+        <v>10.7</v>
       </c>
       <c r="C42" t="n">
         <v>10.66</v>
       </c>
       <c r="D42" t="n">
-        <v>10.66</v>
+        <v>10.7</v>
       </c>
       <c r="E42" t="n">
         <v>10.66</v>
       </c>
       <c r="F42" t="n">
-        <v>10000</v>
+        <v>39919.4331</v>
       </c>
       <c r="G42" t="n">
-        <v>10.94049999999999</v>
+        <v>10.9495</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1925,14 +1857,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1945,19 +1871,19 @@
         <v>10.66</v>
       </c>
       <c r="C43" t="n">
-        <v>10.65</v>
+        <v>10.66</v>
       </c>
       <c r="D43" t="n">
         <v>10.66</v>
       </c>
       <c r="E43" t="n">
-        <v>10.65</v>
+        <v>10.66</v>
       </c>
       <c r="F43" t="n">
-        <v>86933.1428</v>
+        <v>10000</v>
       </c>
       <c r="G43" t="n">
-        <v>10.93133333333333</v>
+        <v>10.94049999999999</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1966,14 +1892,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1983,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>10.7</v>
+        <v>10.66</v>
       </c>
       <c r="C44" t="n">
-        <v>10.7</v>
+        <v>10.65</v>
       </c>
       <c r="D44" t="n">
-        <v>10.7</v>
+        <v>10.66</v>
       </c>
       <c r="E44" t="n">
-        <v>10.7</v>
+        <v>10.65</v>
       </c>
       <c r="F44" t="n">
-        <v>47</v>
+        <v>86933.1428</v>
       </c>
       <c r="G44" t="n">
-        <v>10.92599999999999</v>
+        <v>10.93133333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2007,14 +1927,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2024,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>10.76</v>
+        <v>10.7</v>
       </c>
       <c r="C45" t="n">
-        <v>10.76</v>
+        <v>10.7</v>
       </c>
       <c r="D45" t="n">
-        <v>10.76</v>
+        <v>10.7</v>
       </c>
       <c r="E45" t="n">
-        <v>10.76</v>
+        <v>10.7</v>
       </c>
       <c r="F45" t="n">
         <v>47</v>
       </c>
       <c r="G45" t="n">
-        <v>10.91883333333333</v>
+        <v>10.92599999999999</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2048,14 +1962,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2077,10 +1985,10 @@
         <v>10.76</v>
       </c>
       <c r="F46" t="n">
-        <v>2311.391</v>
+        <v>47</v>
       </c>
       <c r="G46" t="n">
-        <v>10.91466666666666</v>
+        <v>10.91883333333333</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2089,14 +1997,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2118,10 +2020,10 @@
         <v>10.76</v>
       </c>
       <c r="F47" t="n">
-        <v>4988.3744</v>
+        <v>2311.391</v>
       </c>
       <c r="G47" t="n">
-        <v>10.91049999999999</v>
+        <v>10.91466666666666</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2130,14 +2032,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2147,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>10.67</v>
+        <v>10.76</v>
       </c>
       <c r="C48" t="n">
-        <v>10.67</v>
+        <v>10.76</v>
       </c>
       <c r="D48" t="n">
-        <v>10.67</v>
+        <v>10.76</v>
       </c>
       <c r="E48" t="n">
-        <v>10.67</v>
+        <v>10.76</v>
       </c>
       <c r="F48" t="n">
-        <v>5741.326</v>
+        <v>4988.3744</v>
       </c>
       <c r="G48" t="n">
-        <v>10.90499999999999</v>
+        <v>10.91049999999999</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2171,14 +2067,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2188,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>10.77</v>
+        <v>10.67</v>
       </c>
       <c r="C49" t="n">
-        <v>10.77</v>
+        <v>10.67</v>
       </c>
       <c r="D49" t="n">
-        <v>10.77</v>
+        <v>10.67</v>
       </c>
       <c r="E49" t="n">
-        <v>10.77</v>
+        <v>10.67</v>
       </c>
       <c r="F49" t="n">
-        <v>21349.8107</v>
+        <v>5741.326</v>
       </c>
       <c r="G49" t="n">
-        <v>10.90216666666666</v>
+        <v>10.90499999999999</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2212,14 +2102,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2232,19 +2116,19 @@
         <v>10.77</v>
       </c>
       <c r="C50" t="n">
-        <v>10.67</v>
+        <v>10.77</v>
       </c>
       <c r="D50" t="n">
         <v>10.77</v>
       </c>
       <c r="E50" t="n">
-        <v>10.67</v>
+        <v>10.77</v>
       </c>
       <c r="F50" t="n">
-        <v>48203.6755</v>
+        <v>21349.8107</v>
       </c>
       <c r="G50" t="n">
-        <v>10.89783333333333</v>
+        <v>10.90216666666666</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2253,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2270,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>10.79</v>
+        <v>10.77</v>
       </c>
       <c r="C51" t="n">
-        <v>10.79</v>
+        <v>10.67</v>
       </c>
       <c r="D51" t="n">
-        <v>10.79</v>
+        <v>10.77</v>
       </c>
       <c r="E51" t="n">
-        <v>10.79</v>
+        <v>10.67</v>
       </c>
       <c r="F51" t="n">
-        <v>47</v>
+        <v>48203.6755</v>
       </c>
       <c r="G51" t="n">
-        <v>10.89549999999999</v>
+        <v>10.89783333333333</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2294,14 +2172,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2314,19 +2186,19 @@
         <v>10.79</v>
       </c>
       <c r="C52" t="n">
-        <v>11.13</v>
+        <v>10.79</v>
       </c>
       <c r="D52" t="n">
-        <v>11.13</v>
+        <v>10.79</v>
       </c>
       <c r="E52" t="n">
         <v>10.79</v>
       </c>
       <c r="F52" t="n">
-        <v>10000</v>
+        <v>47</v>
       </c>
       <c r="G52" t="n">
-        <v>10.89716666666666</v>
+        <v>10.89549999999999</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2335,14 +2207,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2352,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>11.05</v>
+        <v>10.79</v>
       </c>
       <c r="C53" t="n">
-        <v>11.05</v>
+        <v>11.13</v>
       </c>
       <c r="D53" t="n">
-        <v>11.05</v>
+        <v>11.13</v>
       </c>
       <c r="E53" t="n">
-        <v>11.05</v>
+        <v>10.79</v>
       </c>
       <c r="F53" t="n">
-        <v>1692.4656</v>
+        <v>10000</v>
       </c>
       <c r="G53" t="n">
-        <v>10.89966666666666</v>
+        <v>10.89716666666666</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2376,14 +2242,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2393,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>11.06</v>
+        <v>11.05</v>
       </c>
       <c r="C54" t="n">
-        <v>11.14</v>
+        <v>11.05</v>
       </c>
       <c r="D54" t="n">
-        <v>11.14</v>
+        <v>11.05</v>
       </c>
       <c r="E54" t="n">
-        <v>11.06</v>
+        <v>11.05</v>
       </c>
       <c r="F54" t="n">
-        <v>1593</v>
+        <v>1692.4656</v>
       </c>
       <c r="G54" t="n">
-        <v>10.90133333333333</v>
+        <v>10.89966666666666</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2417,14 +2277,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2434,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>10.97</v>
+        <v>11.06</v>
       </c>
       <c r="C55" t="n">
-        <v>10.97</v>
+        <v>11.14</v>
       </c>
       <c r="D55" t="n">
-        <v>10.97</v>
+        <v>11.14</v>
       </c>
       <c r="E55" t="n">
-        <v>10.97</v>
+        <v>11.06</v>
       </c>
       <c r="F55" t="n">
-        <v>16000</v>
+        <v>1593</v>
       </c>
       <c r="G55" t="n">
-        <v>10.89833333333333</v>
+        <v>10.90133333333333</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2458,14 +2312,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2487,10 +2335,10 @@
         <v>10.97</v>
       </c>
       <c r="F56" t="n">
-        <v>4000</v>
+        <v>16000</v>
       </c>
       <c r="G56" t="n">
-        <v>10.89733333333333</v>
+        <v>10.89833333333333</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2499,14 +2347,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2516,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>11.14</v>
+        <v>10.97</v>
       </c>
       <c r="C57" t="n">
-        <v>11.26</v>
+        <v>10.97</v>
       </c>
       <c r="D57" t="n">
-        <v>11.26</v>
+        <v>10.97</v>
       </c>
       <c r="E57" t="n">
-        <v>11.14</v>
+        <v>10.97</v>
       </c>
       <c r="F57" t="n">
-        <v>43867.18779182948</v>
+        <v>4000</v>
       </c>
       <c r="G57" t="n">
-        <v>10.90183333333333</v>
+        <v>10.89733333333333</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2540,14 +2382,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2557,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>11.1</v>
+        <v>11.14</v>
       </c>
       <c r="C58" t="n">
-        <v>11.01</v>
+        <v>11.26</v>
       </c>
       <c r="D58" t="n">
-        <v>11.1</v>
+        <v>11.26</v>
       </c>
       <c r="E58" t="n">
-        <v>11.01</v>
+        <v>11.14</v>
       </c>
       <c r="F58" t="n">
-        <v>20000</v>
+        <v>43867.18779182948</v>
       </c>
       <c r="G58" t="n">
-        <v>10.90199999999999</v>
+        <v>10.90183333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2581,14 +2417,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2598,40 +2428,34 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>10.97</v>
+        <v>11.1</v>
       </c>
       <c r="C59" t="n">
-        <v>11.19</v>
+        <v>11.01</v>
       </c>
       <c r="D59" t="n">
-        <v>11.19</v>
+        <v>11.1</v>
       </c>
       <c r="E59" t="n">
-        <v>10.95</v>
+        <v>11.01</v>
       </c>
       <c r="F59" t="n">
-        <v>282000</v>
+        <v>20000</v>
       </c>
       <c r="G59" t="n">
-        <v>10.90516666666666</v>
+        <v>10.90199999999999</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>1.042752808988764</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2639,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>11</v>
+        <v>10.97</v>
       </c>
       <c r="C60" t="n">
-        <v>10.99</v>
+        <v>11.19</v>
       </c>
       <c r="D60" t="n">
-        <v>11</v>
+        <v>11.19</v>
       </c>
       <c r="E60" t="n">
-        <v>10.99</v>
+        <v>10.95</v>
       </c>
       <c r="F60" t="n">
-        <v>23368.6656</v>
+        <v>282000</v>
       </c>
       <c r="G60" t="n">
-        <v>10.90333333333333</v>
+        <v>10.90516666666666</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2674,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>10.93</v>
+        <v>11</v>
       </c>
       <c r="C61" t="n">
-        <v>10.93</v>
+        <v>10.99</v>
       </c>
       <c r="D61" t="n">
-        <v>10.93</v>
+        <v>11</v>
       </c>
       <c r="E61" t="n">
-        <v>10.93</v>
+        <v>10.99</v>
       </c>
       <c r="F61" t="n">
-        <v>870.3495</v>
+        <v>23368.6656</v>
       </c>
       <c r="G61" t="n">
-        <v>10.90049999999999</v>
+        <v>10.90333333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2709,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>10.99</v>
+        <v>10.93</v>
       </c>
       <c r="C62" t="n">
-        <v>10.99</v>
+        <v>10.93</v>
       </c>
       <c r="D62" t="n">
-        <v>11</v>
+        <v>10.93</v>
       </c>
       <c r="E62" t="n">
-        <v>10.99</v>
+        <v>10.93</v>
       </c>
       <c r="F62" t="n">
-        <v>2495</v>
+        <v>870.3495</v>
       </c>
       <c r="G62" t="n">
-        <v>10.89699999999999</v>
+        <v>10.90049999999999</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2744,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>10.93</v>
+        <v>10.99</v>
       </c>
       <c r="C63" t="n">
-        <v>10.93</v>
+        <v>10.99</v>
       </c>
       <c r="D63" t="n">
-        <v>10.93</v>
+        <v>11</v>
       </c>
       <c r="E63" t="n">
-        <v>10.93</v>
+        <v>10.99</v>
       </c>
       <c r="F63" t="n">
-        <v>8008</v>
+        <v>2495</v>
       </c>
       <c r="G63" t="n">
-        <v>10.89116666666666</v>
+        <v>10.89699999999999</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2782,19 +2606,19 @@
         <v>10.93</v>
       </c>
       <c r="C64" t="n">
-        <v>11</v>
+        <v>10.93</v>
       </c>
       <c r="D64" t="n">
-        <v>11</v>
+        <v>10.93</v>
       </c>
       <c r="E64" t="n">
         <v>10.93</v>
       </c>
       <c r="F64" t="n">
-        <v>1406</v>
+        <v>8008</v>
       </c>
       <c r="G64" t="n">
-        <v>10.88649999999999</v>
+        <v>10.89116666666666</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2814,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="C65" t="n">
         <v>11</v>
       </c>
-      <c r="C65" t="n">
-        <v>11.09</v>
-      </c>
       <c r="D65" t="n">
-        <v>11.09</v>
+        <v>11</v>
       </c>
       <c r="E65" t="n">
-        <v>11</v>
+        <v>10.93</v>
       </c>
       <c r="F65" t="n">
-        <v>312733.8491</v>
+        <v>1406</v>
       </c>
       <c r="G65" t="n">
-        <v>10.88316666666666</v>
+        <v>10.88649999999999</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2849,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>11.17</v>
+        <v>11</v>
       </c>
       <c r="C66" t="n">
-        <v>11.17</v>
+        <v>11.09</v>
       </c>
       <c r="D66" t="n">
-        <v>11.17</v>
+        <v>11.09</v>
       </c>
       <c r="E66" t="n">
-        <v>11.17</v>
+        <v>11</v>
       </c>
       <c r="F66" t="n">
-        <v>34247</v>
+        <v>312733.8491</v>
       </c>
       <c r="G66" t="n">
-        <v>10.88116666666666</v>
+        <v>10.88316666666666</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2896,10 +2720,10 @@
         <v>11.17</v>
       </c>
       <c r="F67" t="n">
-        <v>50558.4231</v>
+        <v>34247</v>
       </c>
       <c r="G67" t="n">
-        <v>10.87916666666666</v>
+        <v>10.88116666666666</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2931,7 +2755,7 @@
         <v>11.17</v>
       </c>
       <c r="F68" t="n">
-        <v>10044.3191</v>
+        <v>50558.4231</v>
       </c>
       <c r="G68" t="n">
         <v>10.87916666666666</v>
@@ -2954,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>11.11</v>
+        <v>11.17</v>
       </c>
       <c r="C69" t="n">
-        <v>11.1</v>
+        <v>11.17</v>
       </c>
       <c r="D69" t="n">
-        <v>11.11</v>
+        <v>11.17</v>
       </c>
       <c r="E69" t="n">
-        <v>11.1</v>
+        <v>11.17</v>
       </c>
       <c r="F69" t="n">
-        <v>30952.5304</v>
+        <v>10044.3191</v>
       </c>
       <c r="G69" t="n">
-        <v>10.88083333333333</v>
+        <v>10.87916666666666</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2989,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="C70" t="n">
         <v>11.1</v>
       </c>
-      <c r="C70" t="n">
-        <v>11.09</v>
-      </c>
       <c r="D70" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="E70" t="n">
         <v>11.1</v>
       </c>
-      <c r="E70" t="n">
-        <v>11.09</v>
-      </c>
       <c r="F70" t="n">
-        <v>126957.3893</v>
+        <v>30952.5304</v>
       </c>
       <c r="G70" t="n">
-        <v>10.88066666666666</v>
+        <v>10.88083333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3024,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>11.08</v>
+        <v>11.1</v>
       </c>
       <c r="C71" t="n">
-        <v>11.08</v>
+        <v>11.09</v>
       </c>
       <c r="D71" t="n">
-        <v>11.08</v>
+        <v>11.1</v>
       </c>
       <c r="E71" t="n">
-        <v>11.08</v>
+        <v>11.09</v>
       </c>
       <c r="F71" t="n">
-        <v>4000</v>
+        <v>126957.3893</v>
       </c>
       <c r="G71" t="n">
-        <v>10.8815</v>
+        <v>10.88066666666666</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3074,7 +2898,7 @@
         <v>4000</v>
       </c>
       <c r="G72" t="n">
-        <v>10.88283333333333</v>
+        <v>10.8815</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3097,19 +2921,19 @@
         <v>11.08</v>
       </c>
       <c r="C73" t="n">
-        <v>11.11</v>
+        <v>11.08</v>
       </c>
       <c r="D73" t="n">
-        <v>11.11</v>
+        <v>11.08</v>
       </c>
       <c r="E73" t="n">
         <v>11.08</v>
       </c>
       <c r="F73" t="n">
-        <v>9496</v>
+        <v>4000</v>
       </c>
       <c r="G73" t="n">
-        <v>10.88666666666666</v>
+        <v>10.88283333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3129,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
+        <v>11.08</v>
+      </c>
+      <c r="C74" t="n">
         <v>11.11</v>
       </c>
-      <c r="C74" t="n">
-        <v>11.29</v>
-      </c>
       <c r="D74" t="n">
-        <v>11.29</v>
+        <v>11.11</v>
       </c>
       <c r="E74" t="n">
-        <v>11.11</v>
+        <v>11.08</v>
       </c>
       <c r="F74" t="n">
-        <v>11353</v>
+        <v>9496</v>
       </c>
       <c r="G74" t="n">
-        <v>10.8935</v>
+        <v>10.88666666666666</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3164,7 +2988,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>11.29</v>
+        <v>11.11</v>
       </c>
       <c r="C75" t="n">
         <v>11.29</v>
@@ -3173,13 +2997,13 @@
         <v>11.29</v>
       </c>
       <c r="E75" t="n">
-        <v>11.29</v>
+        <v>11.11</v>
       </c>
       <c r="F75" t="n">
-        <v>45867.6726</v>
+        <v>11353</v>
       </c>
       <c r="G75" t="n">
-        <v>10.89833333333333</v>
+        <v>10.8935</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3199,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>11.3</v>
+        <v>11.29</v>
       </c>
       <c r="C76" t="n">
-        <v>11.3</v>
+        <v>11.29</v>
       </c>
       <c r="D76" t="n">
-        <v>11.3</v>
+        <v>11.29</v>
       </c>
       <c r="E76" t="n">
-        <v>11.3</v>
+        <v>11.29</v>
       </c>
       <c r="F76" t="n">
-        <v>5756.8565</v>
+        <v>45867.6726</v>
       </c>
       <c r="G76" t="n">
-        <v>10.90333333333333</v>
+        <v>10.89833333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3237,19 +3061,19 @@
         <v>11.3</v>
       </c>
       <c r="C77" t="n">
-        <v>11.34</v>
+        <v>11.3</v>
       </c>
       <c r="D77" t="n">
-        <v>11.34</v>
+        <v>11.3</v>
       </c>
       <c r="E77" t="n">
         <v>11.3</v>
       </c>
       <c r="F77" t="n">
-        <v>216626.2995733686</v>
+        <v>5756.8565</v>
       </c>
       <c r="G77" t="n">
-        <v>10.90699999999999</v>
+        <v>10.90333333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3269,7 +3093,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>11.34</v>
+        <v>11.3</v>
       </c>
       <c r="C78" t="n">
         <v>11.34</v>
@@ -3278,13 +3102,13 @@
         <v>11.34</v>
       </c>
       <c r="E78" t="n">
-        <v>11.34</v>
+        <v>11.3</v>
       </c>
       <c r="F78" t="n">
-        <v>4367.3145</v>
+        <v>216626.2995733686</v>
       </c>
       <c r="G78" t="n">
-        <v>10.91066666666666</v>
+        <v>10.90699999999999</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3316,10 +3140,10 @@
         <v>11.34</v>
       </c>
       <c r="F79" t="n">
-        <v>542.0997</v>
+        <v>4367.3145</v>
       </c>
       <c r="G79" t="n">
-        <v>10.91633333333333</v>
+        <v>10.91066666666666</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3342,19 +3166,19 @@
         <v>11.34</v>
       </c>
       <c r="C80" t="n">
-        <v>11.66</v>
+        <v>11.34</v>
       </c>
       <c r="D80" t="n">
-        <v>11.66</v>
+        <v>11.34</v>
       </c>
       <c r="E80" t="n">
         <v>11.34</v>
       </c>
       <c r="F80" t="n">
-        <v>451593.239209393</v>
+        <v>542.0997</v>
       </c>
       <c r="G80" t="n">
-        <v>10.9275</v>
+        <v>10.91633333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3374,7 +3198,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>11.66</v>
+        <v>11.34</v>
       </c>
       <c r="C81" t="n">
         <v>11.66</v>
@@ -3383,13 +3207,13 @@
         <v>11.66</v>
       </c>
       <c r="E81" t="n">
-        <v>11.66</v>
+        <v>11.34</v>
       </c>
       <c r="F81" t="n">
-        <v>7334.3681</v>
+        <v>451593.239209393</v>
       </c>
       <c r="G81" t="n">
-        <v>10.93866666666666</v>
+        <v>10.9275</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3409,28 +3233,28 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>11.65</v>
+        <v>11.66</v>
       </c>
       <c r="C82" t="n">
-        <v>11.17</v>
+        <v>11.66</v>
       </c>
       <c r="D82" t="n">
-        <v>11.67</v>
+        <v>11.66</v>
       </c>
       <c r="E82" t="n">
-        <v>11.17</v>
+        <v>11.66</v>
       </c>
       <c r="F82" t="n">
-        <v>547546.5474172385</v>
+        <v>7334.3681</v>
       </c>
       <c r="G82" t="n">
-        <v>10.94499999999999</v>
+        <v>10.93866666666666</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3444,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>11.31</v>
+        <v>11.65</v>
       </c>
       <c r="C83" t="n">
-        <v>11.31</v>
+        <v>11.17</v>
       </c>
       <c r="D83" t="n">
-        <v>11.31</v>
+        <v>11.67</v>
       </c>
       <c r="E83" t="n">
-        <v>11.31</v>
+        <v>11.17</v>
       </c>
       <c r="F83" t="n">
-        <v>6773.13</v>
+        <v>547546.5474172385</v>
       </c>
       <c r="G83" t="n">
-        <v>10.95566666666666</v>
+        <v>10.94499999999999</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3479,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>11.33</v>
+        <v>11.31</v>
       </c>
       <c r="C84" t="n">
-        <v>11.33</v>
+        <v>11.31</v>
       </c>
       <c r="D84" t="n">
-        <v>11.33</v>
+        <v>11.31</v>
       </c>
       <c r="E84" t="n">
-        <v>11.33</v>
+        <v>11.31</v>
       </c>
       <c r="F84" t="n">
-        <v>2839.2</v>
+        <v>6773.13</v>
       </c>
       <c r="G84" t="n">
-        <v>10.96366666666666</v>
+        <v>10.95566666666666</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3517,19 +3341,19 @@
         <v>11.33</v>
       </c>
       <c r="C85" t="n">
-        <v>11.3</v>
+        <v>11.33</v>
       </c>
       <c r="D85" t="n">
         <v>11.33</v>
       </c>
       <c r="E85" t="n">
-        <v>11.3</v>
+        <v>11.33</v>
       </c>
       <c r="F85" t="n">
-        <v>125743.8187</v>
+        <v>2839.2</v>
       </c>
       <c r="G85" t="n">
-        <v>10.97366666666666</v>
+        <v>10.96366666666666</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3549,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>11.17</v>
+        <v>11.33</v>
       </c>
       <c r="C86" t="n">
-        <v>11.15</v>
+        <v>11.3</v>
       </c>
       <c r="D86" t="n">
-        <v>11.17</v>
+        <v>11.33</v>
       </c>
       <c r="E86" t="n">
-        <v>11.15</v>
+        <v>11.3</v>
       </c>
       <c r="F86" t="n">
-        <v>39279.4247</v>
+        <v>125743.8187</v>
       </c>
       <c r="G86" t="n">
-        <v>10.98116666666666</v>
+        <v>10.97366666666666</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3584,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>11.2</v>
+        <v>11.17</v>
       </c>
       <c r="C87" t="n">
-        <v>11.2</v>
+        <v>11.15</v>
       </c>
       <c r="D87" t="n">
-        <v>11.2</v>
+        <v>11.17</v>
       </c>
       <c r="E87" t="n">
-        <v>11.2</v>
+        <v>11.15</v>
       </c>
       <c r="F87" t="n">
-        <v>374.845</v>
+        <v>39279.4247</v>
       </c>
       <c r="G87" t="n">
-        <v>10.98949999999999</v>
+        <v>10.98116666666666</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3622,19 +3446,19 @@
         <v>11.2</v>
       </c>
       <c r="C88" t="n">
-        <v>11.05</v>
+        <v>11.2</v>
       </c>
       <c r="D88" t="n">
         <v>11.2</v>
       </c>
       <c r="E88" t="n">
-        <v>11.05</v>
+        <v>11.2</v>
       </c>
       <c r="F88" t="n">
-        <v>451593.2392</v>
+        <v>374.845</v>
       </c>
       <c r="G88" t="n">
-        <v>10.99533333333332</v>
+        <v>10.98949999999999</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3654,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>11.08</v>
+        <v>11.2</v>
       </c>
       <c r="C89" t="n">
-        <v>11.08</v>
+        <v>11.05</v>
       </c>
       <c r="D89" t="n">
-        <v>11.08</v>
+        <v>11.2</v>
       </c>
       <c r="E89" t="n">
-        <v>11.08</v>
+        <v>11.05</v>
       </c>
       <c r="F89" t="n">
-        <v>207.3319</v>
+        <v>451593.2392</v>
       </c>
       <c r="G89" t="n">
-        <v>11.00049999999999</v>
+        <v>10.99533333333332</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3689,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>11.06</v>
+        <v>11.08</v>
       </c>
       <c r="C90" t="n">
-        <v>11.06</v>
+        <v>11.08</v>
       </c>
       <c r="D90" t="n">
-        <v>11.06</v>
+        <v>11.08</v>
       </c>
       <c r="E90" t="n">
-        <v>11.06</v>
+        <v>11.08</v>
       </c>
       <c r="F90" t="n">
-        <v>22231.8861</v>
+        <v>207.3319</v>
       </c>
       <c r="G90" t="n">
-        <v>11.00666666666666</v>
+        <v>11.00049999999999</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3736,10 +3560,10 @@
         <v>11.06</v>
       </c>
       <c r="F91" t="n">
-        <v>22863.2918</v>
+        <v>22231.8861</v>
       </c>
       <c r="G91" t="n">
-        <v>11.01299999999999</v>
+        <v>11.00666666666666</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3759,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>11.05</v>
+        <v>11.06</v>
       </c>
       <c r="C92" t="n">
-        <v>11.05</v>
+        <v>11.06</v>
       </c>
       <c r="D92" t="n">
-        <v>11.05</v>
+        <v>11.06</v>
       </c>
       <c r="E92" t="n">
-        <v>11.05</v>
+        <v>11.06</v>
       </c>
       <c r="F92" t="n">
-        <v>9404.998</v>
+        <v>22863.2918</v>
       </c>
       <c r="G92" t="n">
-        <v>11.01899999999999</v>
+        <v>11.01299999999999</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3794,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>11.03</v>
+        <v>11.05</v>
       </c>
       <c r="C93" t="n">
-        <v>11.02</v>
+        <v>11.05</v>
       </c>
       <c r="D93" t="n">
-        <v>11.07</v>
+        <v>11.05</v>
       </c>
       <c r="E93" t="n">
-        <v>11.02</v>
+        <v>11.05</v>
       </c>
       <c r="F93" t="n">
-        <v>12383.6184</v>
+        <v>9404.998</v>
       </c>
       <c r="G93" t="n">
-        <v>11.02466666666666</v>
+        <v>11.01899999999999</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3829,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>11.07</v>
+        <v>11.03</v>
       </c>
       <c r="C94" t="n">
-        <v>11.1</v>
+        <v>11.02</v>
       </c>
       <c r="D94" t="n">
-        <v>11.1</v>
+        <v>11.07</v>
       </c>
       <c r="E94" t="n">
-        <v>11.07</v>
+        <v>11.02</v>
       </c>
       <c r="F94" t="n">
-        <v>4000</v>
+        <v>12383.6184</v>
       </c>
       <c r="G94" t="n">
-        <v>11.03183333333332</v>
+        <v>11.02466666666666</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3864,7 +3688,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>11.03</v>
+        <v>11.07</v>
       </c>
       <c r="C95" t="n">
         <v>11.1</v>
@@ -3873,13 +3697,13 @@
         <v>11.1</v>
       </c>
       <c r="E95" t="n">
-        <v>11.03</v>
+        <v>11.07</v>
       </c>
       <c r="F95" t="n">
-        <v>6367.3145</v>
+        <v>4000</v>
       </c>
       <c r="G95" t="n">
-        <v>11.03866666666666</v>
+        <v>11.03183333333332</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3899,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>11.02</v>
+        <v>11.03</v>
       </c>
       <c r="C96" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="D96" t="n">
-        <v>11.02</v>
+        <v>11.1</v>
       </c>
       <c r="E96" t="n">
-        <v>11</v>
+        <v>11.03</v>
       </c>
       <c r="F96" t="n">
-        <v>39345.9416</v>
+        <v>6367.3145</v>
       </c>
       <c r="G96" t="n">
-        <v>11.04383333333332</v>
+        <v>11.03866666666666</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3934,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>11</v>
+        <v>11.02</v>
       </c>
       <c r="C97" t="n">
         <v>11</v>
       </c>
       <c r="D97" t="n">
-        <v>11</v>
+        <v>11.02</v>
       </c>
       <c r="E97" t="n">
         <v>11</v>
       </c>
       <c r="F97" t="n">
-        <v>10861.567</v>
+        <v>39345.9416</v>
       </c>
       <c r="G97" t="n">
-        <v>11.04716666666666</v>
+        <v>11.04383333333332</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3969,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>10.98</v>
+        <v>11</v>
       </c>
       <c r="C98" t="n">
-        <v>10.98</v>
+        <v>11</v>
       </c>
       <c r="D98" t="n">
-        <v>10.98</v>
+        <v>11</v>
       </c>
       <c r="E98" t="n">
-        <v>10.98</v>
+        <v>11</v>
       </c>
       <c r="F98" t="n">
-        <v>5756.8565</v>
+        <v>10861.567</v>
       </c>
       <c r="G98" t="n">
-        <v>11.05016666666666</v>
+        <v>11.04716666666666</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4004,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>11</v>
+        <v>10.98</v>
       </c>
       <c r="C99" t="n">
-        <v>11.07</v>
+        <v>10.98</v>
       </c>
       <c r="D99" t="n">
-        <v>11.07</v>
+        <v>10.98</v>
       </c>
       <c r="E99" t="n">
-        <v>11</v>
+        <v>10.98</v>
       </c>
       <c r="F99" t="n">
-        <v>16786</v>
+        <v>5756.8565</v>
       </c>
       <c r="G99" t="n">
-        <v>11.05633333333332</v>
+        <v>11.05016666666666</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4039,7 +3863,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>11.07</v>
+        <v>11</v>
       </c>
       <c r="C100" t="n">
         <v>11.07</v>
@@ -4048,13 +3872,13 @@
         <v>11.07</v>
       </c>
       <c r="E100" t="n">
-        <v>11.07</v>
+        <v>11</v>
       </c>
       <c r="F100" t="n">
-        <v>1201</v>
+        <v>16786</v>
       </c>
       <c r="G100" t="n">
-        <v>11.06316666666666</v>
+        <v>11.05633333333332</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4074,31 +3898,35 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>10.98</v>
+        <v>11.07</v>
       </c>
       <c r="C101" t="n">
-        <v>10.98</v>
+        <v>11.07</v>
       </c>
       <c r="D101" t="n">
-        <v>10.98</v>
+        <v>11.07</v>
       </c>
       <c r="E101" t="n">
-        <v>10.98</v>
+        <v>11.07</v>
       </c>
       <c r="F101" t="n">
-        <v>46</v>
+        <v>1201</v>
       </c>
       <c r="G101" t="n">
-        <v>11.06849999999999</v>
+        <v>11.06316666666666</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="K101" t="n">
+        <v>11.07</v>
+      </c>
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
@@ -4109,32 +3937,40 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>10.99</v>
+        <v>10.98</v>
       </c>
       <c r="C102" t="n">
-        <v>11.07</v>
+        <v>10.98</v>
       </c>
       <c r="D102" t="n">
-        <v>11.07</v>
+        <v>10.98</v>
       </c>
       <c r="E102" t="n">
-        <v>10.99</v>
+        <v>10.98</v>
       </c>
       <c r="F102" t="n">
-        <v>96828.16310000001</v>
+        <v>46</v>
       </c>
       <c r="G102" t="n">
-        <v>11.07533333333333</v>
+        <v>11.06849999999999</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="K102" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4144,32 +3980,40 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="C103" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="D103" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="E103" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="F103" t="n">
+        <v>96828.16310000001</v>
+      </c>
+      <c r="G103" t="n">
+        <v>11.07533333333333</v>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
         <v>10.98</v>
       </c>
-      <c r="C103" t="n">
-        <v>10.98</v>
-      </c>
-      <c r="D103" t="n">
-        <v>10.98</v>
-      </c>
-      <c r="E103" t="n">
-        <v>10.98</v>
-      </c>
-      <c r="F103" t="n">
-        <v>100</v>
-      </c>
-      <c r="G103" t="n">
-        <v>11.08083333333333</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4179,22 +4023,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>10.99</v>
+        <v>10.98</v>
       </c>
       <c r="C104" t="n">
-        <v>10.99</v>
+        <v>10.98</v>
       </c>
       <c r="D104" t="n">
-        <v>10.99</v>
+        <v>10.98</v>
       </c>
       <c r="E104" t="n">
-        <v>10.99</v>
+        <v>10.98</v>
       </c>
       <c r="F104" t="n">
-        <v>1856.2332</v>
+        <v>100</v>
       </c>
       <c r="G104" t="n">
-        <v>11.08566666666666</v>
+        <v>11.08083333333333</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4203,8 +4047,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4214,22 +4064,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>11.07</v>
+        <v>10.99</v>
       </c>
       <c r="C105" t="n">
-        <v>11.07</v>
+        <v>10.99</v>
       </c>
       <c r="D105" t="n">
-        <v>11.07</v>
+        <v>10.99</v>
       </c>
       <c r="E105" t="n">
-        <v>11.07</v>
+        <v>10.99</v>
       </c>
       <c r="F105" t="n">
-        <v>2546</v>
+        <v>1856.2332</v>
       </c>
       <c r="G105" t="n">
-        <v>11.09083333333333</v>
+        <v>11.08566666666666</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4238,8 +4088,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4261,10 +4117,10 @@
         <v>11.07</v>
       </c>
       <c r="F106" t="n">
-        <v>15125.6725</v>
+        <v>2546</v>
       </c>
       <c r="G106" t="n">
-        <v>11.096</v>
+        <v>11.09083333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4273,8 +4129,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4284,22 +4146,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>11.2</v>
+        <v>11.07</v>
       </c>
       <c r="C107" t="n">
-        <v>11.2</v>
+        <v>11.07</v>
       </c>
       <c r="D107" t="n">
-        <v>11.2</v>
+        <v>11.07</v>
       </c>
       <c r="E107" t="n">
-        <v>11.2</v>
+        <v>11.07</v>
       </c>
       <c r="F107" t="n">
-        <v>46190.4524</v>
+        <v>15125.6725</v>
       </c>
       <c r="G107" t="n">
-        <v>11.10333333333333</v>
+        <v>11.096</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4308,8 +4170,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4319,22 +4187,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>11.04</v>
+        <v>11.2</v>
       </c>
       <c r="C108" t="n">
-        <v>11.04</v>
+        <v>11.2</v>
       </c>
       <c r="D108" t="n">
-        <v>11.04</v>
+        <v>11.2</v>
       </c>
       <c r="E108" t="n">
-        <v>11.04</v>
+        <v>11.2</v>
       </c>
       <c r="F108" t="n">
-        <v>542.0997</v>
+        <v>46190.4524</v>
       </c>
       <c r="G108" t="n">
-        <v>11.1095</v>
+        <v>11.10333333333333</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4343,8 +4211,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4357,19 +4231,19 @@
         <v>11.04</v>
       </c>
       <c r="C109" t="n">
-        <v>11.17</v>
+        <v>11.04</v>
       </c>
       <c r="D109" t="n">
-        <v>11.17</v>
+        <v>11.04</v>
       </c>
       <c r="E109" t="n">
         <v>11.04</v>
       </c>
       <c r="F109" t="n">
-        <v>23000</v>
+        <v>542.0997</v>
       </c>
       <c r="G109" t="n">
-        <v>11.11616666666666</v>
+        <v>11.1095</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4378,8 +4252,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4389,22 +4269,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>11.09</v>
+        <v>11.04</v>
       </c>
       <c r="C110" t="n">
-        <v>11.09</v>
+        <v>11.17</v>
       </c>
       <c r="D110" t="n">
-        <v>11.09</v>
+        <v>11.17</v>
       </c>
       <c r="E110" t="n">
-        <v>11.09</v>
+        <v>11.04</v>
       </c>
       <c r="F110" t="n">
-        <v>1039.9672</v>
+        <v>23000</v>
       </c>
       <c r="G110" t="n">
-        <v>11.12316666666666</v>
+        <v>11.11616666666666</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4413,8 +4293,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4424,22 +4310,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>11.19</v>
+        <v>11.09</v>
       </c>
       <c r="C111" t="n">
-        <v>11.19</v>
+        <v>11.09</v>
       </c>
       <c r="D111" t="n">
-        <v>11.19</v>
+        <v>11.09</v>
       </c>
       <c r="E111" t="n">
-        <v>11.19</v>
+        <v>11.09</v>
       </c>
       <c r="F111" t="n">
-        <v>903</v>
+        <v>1039.9672</v>
       </c>
       <c r="G111" t="n">
-        <v>11.12983333333333</v>
+        <v>11.12316666666666</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4448,8 +4334,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4459,22 +4351,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>11</v>
+        <v>11.19</v>
       </c>
       <c r="C112" t="n">
-        <v>11</v>
+        <v>11.19</v>
       </c>
       <c r="D112" t="n">
-        <v>11</v>
+        <v>11.19</v>
       </c>
       <c r="E112" t="n">
-        <v>11</v>
+        <v>11.19</v>
       </c>
       <c r="F112" t="n">
-        <v>20000</v>
+        <v>903</v>
       </c>
       <c r="G112" t="n">
-        <v>11.12766666666667</v>
+        <v>11.12983333333333</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4483,8 +4375,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4494,22 +4392,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>11.09</v>
+        <v>11</v>
       </c>
       <c r="C113" t="n">
-        <v>11.09</v>
+        <v>11</v>
       </c>
       <c r="D113" t="n">
-        <v>11.09</v>
+        <v>11</v>
       </c>
       <c r="E113" t="n">
-        <v>11.09</v>
+        <v>11</v>
       </c>
       <c r="F113" t="n">
-        <v>10025</v>
+        <v>20000</v>
       </c>
       <c r="G113" t="n">
-        <v>11.12833333333333</v>
+        <v>11.12766666666667</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4518,8 +4416,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4529,22 +4433,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>11.01</v>
+        <v>11.09</v>
       </c>
       <c r="C114" t="n">
-        <v>11.01</v>
+        <v>11.09</v>
       </c>
       <c r="D114" t="n">
-        <v>11.01</v>
+        <v>11.09</v>
       </c>
       <c r="E114" t="n">
-        <v>11.01</v>
+        <v>11.09</v>
       </c>
       <c r="F114" t="n">
-        <v>6959.5231</v>
+        <v>10025</v>
       </c>
       <c r="G114" t="n">
-        <v>11.12616666666667</v>
+        <v>11.12833333333333</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4553,8 +4457,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4576,10 +4486,10 @@
         <v>11.01</v>
       </c>
       <c r="F115" t="n">
-        <v>9000</v>
+        <v>6959.5231</v>
       </c>
       <c r="G115" t="n">
-        <v>11.12683333333333</v>
+        <v>11.12616666666667</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4588,8 +4498,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4599,22 +4515,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>11.09</v>
+        <v>11.01</v>
       </c>
       <c r="C116" t="n">
-        <v>11.1</v>
+        <v>11.01</v>
       </c>
       <c r="D116" t="n">
-        <v>11.1</v>
+        <v>11.01</v>
       </c>
       <c r="E116" t="n">
-        <v>11.09</v>
+        <v>11.01</v>
       </c>
       <c r="F116" t="n">
-        <v>57590</v>
+        <v>9000</v>
       </c>
       <c r="G116" t="n">
-        <v>11.129</v>
+        <v>11.12683333333333</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4623,8 +4539,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4634,7 +4556,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>11.1</v>
+        <v>11.09</v>
       </c>
       <c r="C117" t="n">
         <v>11.1</v>
@@ -4643,13 +4565,13 @@
         <v>11.1</v>
       </c>
       <c r="E117" t="n">
-        <v>11.1</v>
+        <v>11.09</v>
       </c>
       <c r="F117" t="n">
-        <v>16475</v>
+        <v>57590</v>
       </c>
       <c r="G117" t="n">
-        <v>11.12633333333333</v>
+        <v>11.129</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4658,8 +4580,14 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4681,10 +4609,10 @@
         <v>11.1</v>
       </c>
       <c r="F118" t="n">
-        <v>6000</v>
+        <v>16475</v>
       </c>
       <c r="G118" t="n">
-        <v>11.12783333333334</v>
+        <v>11.12633333333333</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4693,8 +4621,14 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4707,19 +4641,19 @@
         <v>11.1</v>
       </c>
       <c r="C119" t="n">
-        <v>11.38</v>
+        <v>11.1</v>
       </c>
       <c r="D119" t="n">
-        <v>11.38</v>
+        <v>11.1</v>
       </c>
       <c r="E119" t="n">
         <v>11.1</v>
       </c>
       <c r="F119" t="n">
-        <v>31488</v>
+        <v>6000</v>
       </c>
       <c r="G119" t="n">
-        <v>11.131</v>
+        <v>11.12783333333334</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4728,8 +4662,14 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4739,7 +4679,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>11.38</v>
+        <v>11.1</v>
       </c>
       <c r="C120" t="n">
         <v>11.38</v>
@@ -4748,13 +4688,13 @@
         <v>11.38</v>
       </c>
       <c r="E120" t="n">
-        <v>11.38</v>
+        <v>11.1</v>
       </c>
       <c r="F120" t="n">
-        <v>4211.8824</v>
+        <v>31488</v>
       </c>
       <c r="G120" t="n">
-        <v>11.1375</v>
+        <v>11.131</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4763,8 +4703,14 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4786,10 +4732,10 @@
         <v>11.38</v>
       </c>
       <c r="F121" t="n">
-        <v>193753.19</v>
+        <v>4211.8824</v>
       </c>
       <c r="G121" t="n">
-        <v>11.145</v>
+        <v>11.1375</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4798,8 +4744,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4809,22 +4761,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>11.37</v>
+        <v>11.38</v>
       </c>
       <c r="C122" t="n">
-        <v>11.22</v>
+        <v>11.38</v>
       </c>
       <c r="D122" t="n">
-        <v>11.37</v>
+        <v>11.38</v>
       </c>
       <c r="E122" t="n">
-        <v>11.22</v>
+        <v>11.38</v>
       </c>
       <c r="F122" t="n">
-        <v>22000</v>
+        <v>193753.19</v>
       </c>
       <c r="G122" t="n">
-        <v>11.14883333333333</v>
+        <v>11.145</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4833,8 +4785,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4844,22 +4802,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>11.3</v>
+        <v>11.37</v>
       </c>
       <c r="C123" t="n">
-        <v>11.27</v>
+        <v>11.22</v>
       </c>
       <c r="D123" t="n">
-        <v>11.3</v>
+        <v>11.37</v>
       </c>
       <c r="E123" t="n">
-        <v>11.27</v>
+        <v>11.22</v>
       </c>
       <c r="F123" t="n">
-        <v>58600</v>
+        <v>22000</v>
       </c>
       <c r="G123" t="n">
-        <v>11.1545</v>
+        <v>11.14883333333333</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4868,8 +4826,14 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4879,22 +4843,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C124" t="n">
         <v>11.27</v>
       </c>
-      <c r="C124" t="n">
-        <v>11.21</v>
-      </c>
       <c r="D124" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E124" t="n">
         <v>11.27</v>
       </c>
-      <c r="E124" t="n">
-        <v>11.21</v>
-      </c>
       <c r="F124" t="n">
-        <v>101692.0964</v>
+        <v>58600</v>
       </c>
       <c r="G124" t="n">
-        <v>11.158</v>
+        <v>11.1545</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4903,8 +4867,14 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4914,22 +4884,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>11.16</v>
+        <v>11.27</v>
       </c>
       <c r="C125" t="n">
-        <v>11.14</v>
+        <v>11.21</v>
       </c>
       <c r="D125" t="n">
-        <v>11.16</v>
+        <v>11.27</v>
       </c>
       <c r="E125" t="n">
-        <v>11.14</v>
+        <v>11.21</v>
       </c>
       <c r="F125" t="n">
-        <v>13830.3958</v>
+        <v>101692.0964</v>
       </c>
       <c r="G125" t="n">
-        <v>11.15883333333334</v>
+        <v>11.158</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4938,8 +4908,14 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4949,22 +4925,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>11.14</v>
+        <v>11.16</v>
       </c>
       <c r="C126" t="n">
         <v>11.14</v>
       </c>
       <c r="D126" t="n">
-        <v>11.14</v>
+        <v>11.16</v>
       </c>
       <c r="E126" t="n">
         <v>11.14</v>
       </c>
       <c r="F126" t="n">
-        <v>14519.6042</v>
+        <v>13830.3958</v>
       </c>
       <c r="G126" t="n">
-        <v>11.15833333333333</v>
+        <v>11.15883333333334</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4973,8 +4949,14 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4996,10 +4978,10 @@
         <v>11.14</v>
       </c>
       <c r="F127" t="n">
-        <v>85050</v>
+        <v>14519.6042</v>
       </c>
       <c r="G127" t="n">
-        <v>11.15783333333334</v>
+        <v>11.15833333333333</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5008,8 +4990,14 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5019,22 +5007,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>11.2</v>
+        <v>11.14</v>
       </c>
       <c r="C128" t="n">
-        <v>11.2</v>
+        <v>11.14</v>
       </c>
       <c r="D128" t="n">
-        <v>11.2</v>
+        <v>11.14</v>
       </c>
       <c r="E128" t="n">
-        <v>11.2</v>
+        <v>11.14</v>
       </c>
       <c r="F128" t="n">
-        <v>925</v>
+        <v>85050</v>
       </c>
       <c r="G128" t="n">
-        <v>11.15833333333334</v>
+        <v>11.15783333333334</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5043,8 +5031,14 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5054,22 +5048,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>11.08</v>
+        <v>11.2</v>
       </c>
       <c r="C129" t="n">
-        <v>11.08</v>
+        <v>11.2</v>
       </c>
       <c r="D129" t="n">
-        <v>11.08</v>
+        <v>11.2</v>
       </c>
       <c r="E129" t="n">
-        <v>11.08</v>
+        <v>11.2</v>
       </c>
       <c r="F129" t="n">
-        <v>9556.2017</v>
+        <v>925</v>
       </c>
       <c r="G129" t="n">
-        <v>11.158</v>
+        <v>11.15833333333334</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5078,8 +5072,14 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5089,19 +5089,19 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>11.09</v>
+        <v>11.08</v>
       </c>
       <c r="C130" t="n">
-        <v>11.09</v>
+        <v>11.08</v>
       </c>
       <c r="D130" t="n">
-        <v>11.09</v>
+        <v>11.08</v>
       </c>
       <c r="E130" t="n">
-        <v>11.09</v>
+        <v>11.08</v>
       </c>
       <c r="F130" t="n">
-        <v>5000</v>
+        <v>9556.2017</v>
       </c>
       <c r="G130" t="n">
         <v>11.158</v>
@@ -5113,8 +5113,14 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5124,22 +5130,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>11.07</v>
+        <v>11.09</v>
       </c>
       <c r="C131" t="n">
-        <v>11.06</v>
+        <v>11.09</v>
       </c>
       <c r="D131" t="n">
-        <v>11.07</v>
+        <v>11.09</v>
       </c>
       <c r="E131" t="n">
-        <v>11.06</v>
+        <v>11.09</v>
       </c>
       <c r="F131" t="n">
-        <v>272304.75</v>
+        <v>5000</v>
       </c>
       <c r="G131" t="n">
-        <v>11.15766666666667</v>
+        <v>11.158</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5148,8 +5154,14 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5159,22 +5171,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>11.06</v>
+        <v>11.07</v>
       </c>
       <c r="C132" t="n">
         <v>11.06</v>
       </c>
       <c r="D132" t="n">
-        <v>11.06</v>
+        <v>11.07</v>
       </c>
       <c r="E132" t="n">
         <v>11.06</v>
       </c>
       <c r="F132" t="n">
-        <v>3314</v>
+        <v>272304.75</v>
       </c>
       <c r="G132" t="n">
-        <v>11.15733333333333</v>
+        <v>11.15766666666667</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5183,8 +5195,14 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5206,10 +5224,10 @@
         <v>11.06</v>
       </c>
       <c r="F133" t="n">
-        <v>7605</v>
+        <v>3314</v>
       </c>
       <c r="G133" t="n">
-        <v>11.1565</v>
+        <v>11.15733333333333</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5218,8 +5236,14 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5241,10 +5265,10 @@
         <v>11.06</v>
       </c>
       <c r="F134" t="n">
-        <v>1044</v>
+        <v>7605</v>
       </c>
       <c r="G134" t="n">
-        <v>11.15266666666667</v>
+        <v>11.1565</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5253,8 +5277,14 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5276,10 +5306,10 @@
         <v>11.06</v>
       </c>
       <c r="F135" t="n">
-        <v>146498.3392</v>
+        <v>1044</v>
       </c>
       <c r="G135" t="n">
-        <v>11.14883333333333</v>
+        <v>11.15266666666667</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5288,8 +5318,14 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5299,22 +5335,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>11.18</v>
+        <v>11.06</v>
       </c>
       <c r="C136" t="n">
-        <v>11.18</v>
+        <v>11.06</v>
       </c>
       <c r="D136" t="n">
-        <v>11.18</v>
+        <v>11.06</v>
       </c>
       <c r="E136" t="n">
-        <v>11.18</v>
+        <v>11.06</v>
       </c>
       <c r="F136" t="n">
-        <v>500</v>
+        <v>146498.3392</v>
       </c>
       <c r="G136" t="n">
-        <v>11.14683333333333</v>
+        <v>11.14883333333333</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5323,8 +5359,14 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5346,10 +5388,10 @@
         <v>11.18</v>
       </c>
       <c r="F137" t="n">
-        <v>30000</v>
+        <v>500</v>
       </c>
       <c r="G137" t="n">
-        <v>11.14416666666667</v>
+        <v>11.14683333333333</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5358,8 +5400,14 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5369,22 +5417,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>11.06</v>
+        <v>11.18</v>
       </c>
       <c r="C138" t="n">
-        <v>11.06</v>
+        <v>11.18</v>
       </c>
       <c r="D138" t="n">
-        <v>11.06</v>
+        <v>11.18</v>
       </c>
       <c r="E138" t="n">
-        <v>11.06</v>
+        <v>11.18</v>
       </c>
       <c r="F138" t="n">
-        <v>501.6608</v>
+        <v>30000</v>
       </c>
       <c r="G138" t="n">
-        <v>11.1395</v>
+        <v>11.14416666666667</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5393,8 +5441,14 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5404,22 +5458,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>11.05</v>
+        <v>11.06</v>
       </c>
       <c r="C139" t="n">
-        <v>10.99</v>
+        <v>11.06</v>
       </c>
       <c r="D139" t="n">
-        <v>11.05</v>
+        <v>11.06</v>
       </c>
       <c r="E139" t="n">
-        <v>10.99</v>
+        <v>11.06</v>
       </c>
       <c r="F139" t="n">
-        <v>133404.8036</v>
+        <v>501.6608</v>
       </c>
       <c r="G139" t="n">
-        <v>11.13366666666666</v>
+        <v>11.1395</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5428,8 +5482,14 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5439,22 +5499,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>10.99</v>
+        <v>11.05</v>
       </c>
       <c r="C140" t="n">
         <v>10.99</v>
       </c>
       <c r="D140" t="n">
-        <v>10.99</v>
+        <v>11.05</v>
       </c>
       <c r="E140" t="n">
         <v>10.99</v>
       </c>
       <c r="F140" t="n">
-        <v>541</v>
+        <v>133404.8036</v>
       </c>
       <c r="G140" t="n">
-        <v>11.1225</v>
+        <v>11.13366666666666</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5463,8 +5523,14 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5477,19 +5543,19 @@
         <v>10.99</v>
       </c>
       <c r="C141" t="n">
-        <v>10.98</v>
+        <v>10.99</v>
       </c>
       <c r="D141" t="n">
-        <v>11.16</v>
+        <v>10.99</v>
       </c>
       <c r="E141" t="n">
-        <v>10.98</v>
+        <v>10.99</v>
       </c>
       <c r="F141" t="n">
-        <v>98882.36689999999</v>
+        <v>541</v>
       </c>
       <c r="G141" t="n">
-        <v>11.11116666666666</v>
+        <v>11.1225</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5498,8 +5564,14 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5509,22 +5581,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>10.98</v>
+        <v>10.99</v>
       </c>
       <c r="C142" t="n">
         <v>10.98</v>
       </c>
       <c r="D142" t="n">
-        <v>10.98</v>
+        <v>11.16</v>
       </c>
       <c r="E142" t="n">
         <v>10.98</v>
       </c>
       <c r="F142" t="n">
-        <v>3922</v>
+        <v>98882.36689999999</v>
       </c>
       <c r="G142" t="n">
-        <v>11.108</v>
+        <v>11.11116666666666</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5533,8 +5605,14 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5544,22 +5622,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>10.97</v>
+        <v>10.98</v>
       </c>
       <c r="C143" t="n">
-        <v>10.97</v>
+        <v>10.98</v>
       </c>
       <c r="D143" t="n">
-        <v>10.97</v>
+        <v>10.98</v>
       </c>
       <c r="E143" t="n">
-        <v>10.97</v>
+        <v>10.98</v>
       </c>
       <c r="F143" t="n">
-        <v>965.8089</v>
+        <v>3922</v>
       </c>
       <c r="G143" t="n">
-        <v>11.10233333333333</v>
+        <v>11.108</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5568,8 +5646,14 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5591,10 +5675,10 @@
         <v>10.97</v>
       </c>
       <c r="F144" t="n">
-        <v>33196.7362</v>
+        <v>965.8089</v>
       </c>
       <c r="G144" t="n">
-        <v>11.09633333333333</v>
+        <v>11.10233333333333</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5603,8 +5687,14 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5614,22 +5704,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>10.96</v>
+        <v>10.97</v>
       </c>
       <c r="C145" t="n">
-        <v>10.96</v>
+        <v>10.97</v>
       </c>
       <c r="D145" t="n">
-        <v>10.96</v>
+        <v>10.97</v>
       </c>
       <c r="E145" t="n">
-        <v>10.96</v>
+        <v>10.97</v>
       </c>
       <c r="F145" t="n">
-        <v>21698.8804</v>
+        <v>33196.7362</v>
       </c>
       <c r="G145" t="n">
-        <v>11.09066666666667</v>
+        <v>11.09633333333333</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5638,8 +5728,14 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5661,10 +5757,10 @@
         <v>10.96</v>
       </c>
       <c r="F146" t="n">
-        <v>2000</v>
+        <v>21698.8804</v>
       </c>
       <c r="G146" t="n">
-        <v>11.0875</v>
+        <v>11.09066666666667</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5673,8 +5769,14 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5684,22 +5786,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>10.95</v>
+        <v>10.96</v>
       </c>
       <c r="C147" t="n">
-        <v>10.95</v>
+        <v>10.96</v>
       </c>
       <c r="D147" t="n">
-        <v>10.95</v>
+        <v>10.96</v>
       </c>
       <c r="E147" t="n">
-        <v>10.95</v>
+        <v>10.96</v>
       </c>
       <c r="F147" t="n">
-        <v>21225.1064</v>
+        <v>2000</v>
       </c>
       <c r="G147" t="n">
-        <v>11.08333333333334</v>
+        <v>11.0875</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5708,8 +5810,14 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5719,22 +5827,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>10.94</v>
+        <v>10.95</v>
       </c>
       <c r="C148" t="n">
-        <v>10.93</v>
+        <v>10.95</v>
       </c>
       <c r="D148" t="n">
-        <v>10.94</v>
+        <v>10.95</v>
       </c>
       <c r="E148" t="n">
-        <v>10.93</v>
+        <v>10.95</v>
       </c>
       <c r="F148" t="n">
-        <v>81329.70510000001</v>
+        <v>21225.1064</v>
       </c>
       <c r="G148" t="n">
-        <v>11.08133333333334</v>
+        <v>11.08333333333334</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5743,8 +5851,14 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5754,22 +5868,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>10.93</v>
+        <v>10.94</v>
       </c>
       <c r="C149" t="n">
         <v>10.93</v>
       </c>
       <c r="D149" t="n">
-        <v>10.93</v>
+        <v>10.94</v>
       </c>
       <c r="E149" t="n">
         <v>10.93</v>
       </c>
       <c r="F149" t="n">
-        <v>5595.8438</v>
+        <v>81329.70510000001</v>
       </c>
       <c r="G149" t="n">
-        <v>11.07883333333333</v>
+        <v>11.08133333333334</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5778,8 +5892,14 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5801,10 +5921,10 @@
         <v>10.93</v>
       </c>
       <c r="F150" t="n">
-        <v>10000</v>
+        <v>5595.8438</v>
       </c>
       <c r="G150" t="n">
-        <v>11.07666666666667</v>
+        <v>11.07883333333333</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5813,8 +5933,14 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5836,10 +5962,10 @@
         <v>10.93</v>
       </c>
       <c r="F151" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="G151" t="n">
-        <v>11.0745</v>
+        <v>11.07666666666667</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5848,8 +5974,14 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5859,22 +5991,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>10.97</v>
+        <v>10.93</v>
       </c>
       <c r="C152" t="n">
-        <v>10.97</v>
+        <v>10.93</v>
       </c>
       <c r="D152" t="n">
-        <v>10.97</v>
+        <v>10.93</v>
       </c>
       <c r="E152" t="n">
-        <v>10.97</v>
+        <v>10.93</v>
       </c>
       <c r="F152" t="n">
-        <v>5595.8438</v>
+        <v>20000</v>
       </c>
       <c r="G152" t="n">
-        <v>11.07316666666667</v>
+        <v>11.0745</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5883,8 +6015,14 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5894,22 +6032,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>11</v>
+        <v>10.97</v>
       </c>
       <c r="C153" t="n">
-        <v>11</v>
+        <v>10.97</v>
       </c>
       <c r="D153" t="n">
-        <v>11</v>
+        <v>10.97</v>
       </c>
       <c r="E153" t="n">
-        <v>11</v>
+        <v>10.97</v>
       </c>
       <c r="F153" t="n">
-        <v>4211.8824</v>
+        <v>5595.8438</v>
       </c>
       <c r="G153" t="n">
-        <v>11.07283333333334</v>
+        <v>11.07316666666667</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5918,8 +6056,14 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5929,22 +6073,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>11.18</v>
+        <v>11</v>
       </c>
       <c r="C154" t="n">
-        <v>11.18</v>
+        <v>11</v>
       </c>
       <c r="D154" t="n">
-        <v>11.18</v>
+        <v>11</v>
       </c>
       <c r="E154" t="n">
-        <v>11.18</v>
+        <v>11</v>
       </c>
       <c r="F154" t="n">
-        <v>2000</v>
+        <v>4211.8824</v>
       </c>
       <c r="G154" t="n">
-        <v>11.07416666666667</v>
+        <v>11.07283333333334</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5953,8 +6097,14 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5976,10 +6126,10 @@
         <v>11.18</v>
       </c>
       <c r="F155" t="n">
-        <v>21105.8159</v>
+        <v>2000</v>
       </c>
       <c r="G155" t="n">
-        <v>11.0755</v>
+        <v>11.07416666666667</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5988,8 +6138,14 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5999,22 +6155,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>11.35</v>
+        <v>11.18</v>
       </c>
       <c r="C156" t="n">
-        <v>11.35</v>
+        <v>11.18</v>
       </c>
       <c r="D156" t="n">
-        <v>11.35</v>
+        <v>11.18</v>
       </c>
       <c r="E156" t="n">
-        <v>11.35</v>
+        <v>11.18</v>
       </c>
       <c r="F156" t="n">
-        <v>500</v>
+        <v>21105.8159</v>
       </c>
       <c r="G156" t="n">
-        <v>11.08133333333333</v>
+        <v>11.0755</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6023,8 +6179,14 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6034,33 +6196,80 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="C157" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="D157" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="E157" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="F157" t="n">
+        <v>500</v>
+      </c>
+      <c r="G157" t="n">
+        <v>11.08133333333333</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
         <v>11.31</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C158" t="n">
         <v>11.31</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D158" t="n">
         <v>11.31</v>
       </c>
-      <c r="E157" t="n">
+      <c r="E158" t="n">
         <v>11.31</v>
       </c>
-      <c r="F157" t="n">
+      <c r="F158" t="n">
         <v>884.1732979664014</v>
       </c>
-      <c r="G157" t="n">
+      <c r="G158" t="n">
         <v>11.0865</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-25 BackTest OGO.xlsx
+++ b/BackTest/2020-01-25 BackTest OGO.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M158"/>
+  <dimension ref="A1:N168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>8017.3125</v>
       </c>
       <c r="G2" t="n">
+        <v>11.00999999999999</v>
+      </c>
+      <c r="H2" t="n">
         <v>11.06416666666665</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>8000</v>
       </c>
       <c r="G3" t="n">
+        <v>11.02266666666666</v>
+      </c>
+      <c r="H3" t="n">
         <v>11.06716666666665</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>12007</v>
       </c>
       <c r="G4" t="n">
+        <v>11.04133333333333</v>
+      </c>
+      <c r="H4" t="n">
         <v>11.07166666666665</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>60820.638</v>
       </c>
       <c r="G5" t="n">
+        <v>11.06399999999999</v>
+      </c>
+      <c r="H5" t="n">
         <v>11.07616666666665</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>18754.203</v>
       </c>
       <c r="G6" t="n">
+        <v>11.08799999999999</v>
+      </c>
+      <c r="H6" t="n">
         <v>11.08349999999999</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>57059.2922</v>
       </c>
       <c r="G7" t="n">
+        <v>11.11199999999999</v>
+      </c>
+      <c r="H7" t="n">
         <v>11.08816666666665</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>106089.0452</v>
       </c>
       <c r="G8" t="n">
+        <v>11.12933333333332</v>
+      </c>
+      <c r="H8" t="n">
         <v>11.09266666666665</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>194766.9751</v>
       </c>
       <c r="G9" t="n">
+        <v>11.14733333333332</v>
+      </c>
+      <c r="H9" t="n">
         <v>11.09866666666665</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>155660.0561</v>
       </c>
       <c r="G10" t="n">
+        <v>11.14466666666666</v>
+      </c>
+      <c r="H10" t="n">
         <v>11.09833333333332</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>7636.22</v>
       </c>
       <c r="G11" t="n">
+        <v>11.14133333333332</v>
+      </c>
+      <c r="H11" t="n">
         <v>11.09966666666665</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>25589.9997</v>
       </c>
       <c r="G12" t="n">
+        <v>11.14133333333332</v>
+      </c>
+      <c r="H12" t="n">
         <v>11.10333333333332</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>100.1571</v>
       </c>
       <c r="G13" t="n">
+        <v>11.14199999999999</v>
+      </c>
+      <c r="H13" t="n">
         <v>11.10666666666665</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>13500</v>
       </c>
       <c r="G14" t="n">
+        <v>11.13399999999999</v>
+      </c>
+      <c r="H14" t="n">
         <v>11.10649999999999</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>4475.0844</v>
       </c>
       <c r="G15" t="n">
+        <v>11.12599999999999</v>
+      </c>
+      <c r="H15" t="n">
         <v>11.10616666666666</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>40000</v>
       </c>
       <c r="G16" t="n">
+        <v>11.11933333333332</v>
+      </c>
+      <c r="H16" t="n">
         <v>11.10783333333332</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>134952.2936</v>
       </c>
       <c r="G17" t="n">
+        <v>11.11266666666666</v>
+      </c>
+      <c r="H17" t="n">
         <v>11.10783333333332</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>46</v>
       </c>
       <c r="G18" t="n">
+        <v>11.10733333333332</v>
+      </c>
+      <c r="H18" t="n">
         <v>11.10949999999999</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>10608.681</v>
       </c>
       <c r="G19" t="n">
+        <v>11.09666666666666</v>
+      </c>
+      <c r="H19" t="n">
         <v>11.11116666666666</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>5040.14</v>
       </c>
       <c r="G20" t="n">
+        <v>11.07799999999999</v>
+      </c>
+      <c r="H20" t="n">
         <v>11.11083333333332</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>73287.92999999999</v>
       </c>
       <c r="G21" t="n">
+        <v>11.05799999999999</v>
+      </c>
+      <c r="H21" t="n">
         <v>11.11033333333332</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>115024.7461</v>
       </c>
       <c r="G22" t="n">
+        <v>11.03799999999999</v>
+      </c>
+      <c r="H22" t="n">
         <v>11.10983333333332</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>290432.231</v>
       </c>
       <c r="G23" t="n">
+        <v>11.00466666666666</v>
+      </c>
+      <c r="H23" t="n">
         <v>11.10599999999999</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>311960.0297</v>
       </c>
       <c r="G24" t="n">
+        <v>10.97133333333332</v>
+      </c>
+      <c r="H24" t="n">
         <v>11.09849999999999</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>4000</v>
       </c>
       <c r="G25" t="n">
+        <v>10.96133333333333</v>
+      </c>
+      <c r="H25" t="n">
         <v>11.09383333333332</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>20370.728</v>
       </c>
       <c r="G26" t="n">
+        <v>10.93466666666666</v>
+      </c>
+      <c r="H26" t="n">
         <v>11.08666666666666</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>1219</v>
       </c>
       <c r="G27" t="n">
+        <v>10.91266666666666</v>
+      </c>
+      <c r="H27" t="n">
         <v>11.07933333333333</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>1652</v>
       </c>
       <c r="G28" t="n">
+        <v>10.89266666666666</v>
+      </c>
+      <c r="H28" t="n">
         <v>11.07199999999999</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>221</v>
       </c>
       <c r="G29" t="n">
+        <v>10.88066666666666</v>
+      </c>
+      <c r="H29" t="n">
         <v>11.06433333333333</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>23608.1981</v>
       </c>
       <c r="G30" t="n">
+        <v>10.87333333333332</v>
+      </c>
+      <c r="H30" t="n">
         <v>11.05616666666666</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>4567.6889</v>
       </c>
       <c r="G31" t="n">
+        <v>10.85266666666666</v>
+      </c>
+      <c r="H31" t="n">
         <v>11.0465</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>12795</v>
       </c>
       <c r="G32" t="n">
+        <v>10.83133333333332</v>
+      </c>
+      <c r="H32" t="n">
         <v>11.03683333333333</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>36000</v>
       </c>
       <c r="G33" t="n">
+        <v>10.80266666666666</v>
+      </c>
+      <c r="H33" t="n">
         <v>11.02733333333333</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,25 @@
         <v>275</v>
       </c>
       <c r="G34" t="n">
+        <v>10.77333333333332</v>
+      </c>
+      <c r="H34" t="n">
         <v>11.01766666666666</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="L34" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1711,29 @@
         <v>19184.1709</v>
       </c>
       <c r="G35" t="n">
+        <v>10.75133333333332</v>
+      </c>
+      <c r="H35" t="n">
         <v>11.00783333333333</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="L35" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1757,29 @@
         <v>260000</v>
       </c>
       <c r="G36" t="n">
+        <v>10.73133333333332</v>
+      </c>
+      <c r="H36" t="n">
         <v>11</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>10.67</v>
+      </c>
+      <c r="L36" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1803,27 @@
         <v>120</v>
       </c>
       <c r="G37" t="n">
+        <v>10.71133333333332</v>
+      </c>
+      <c r="H37" t="n">
         <v>10.9905</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="L37" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1847,29 @@
         <v>260000</v>
       </c>
       <c r="G38" t="n">
+        <v>10.71199999999999</v>
+      </c>
+      <c r="H38" t="n">
         <v>10.98283333333333</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="L38" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1893,27 @@
         <v>12737</v>
       </c>
       <c r="G39" t="n">
+        <v>10.72066666666666</v>
+      </c>
+      <c r="H39" t="n">
         <v>10.97516666666666</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="L39" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1937,27 @@
         <v>1856.2332</v>
       </c>
       <c r="G40" t="n">
+        <v>10.71066666666666</v>
+      </c>
+      <c r="H40" t="n">
         <v>10.96583333333333</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="L40" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1981,27 @@
         <v>143.7668</v>
       </c>
       <c r="G41" t="n">
+        <v>10.70799999999999</v>
+      </c>
+      <c r="H41" t="n">
         <v>10.95583333333333</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="L41" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2025,27 @@
         <v>39919.4331</v>
       </c>
       <c r="G42" t="n">
+        <v>10.70533333333332</v>
+      </c>
+      <c r="H42" t="n">
         <v>10.9495</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="L42" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2069,27 @@
         <v>10000</v>
       </c>
       <c r="G43" t="n">
+        <v>10.70266666666666</v>
+      </c>
+      <c r="H43" t="n">
         <v>10.94049999999999</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="L43" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2113,29 @@
         <v>86933.1428</v>
       </c>
       <c r="G44" t="n">
+        <v>10.69933333333333</v>
+      </c>
+      <c r="H44" t="n">
         <v>10.93133333333333</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>10.66</v>
+      </c>
+      <c r="L44" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2159,29 @@
         <v>47</v>
       </c>
       <c r="G45" t="n">
+        <v>10.69466666666666</v>
+      </c>
+      <c r="H45" t="n">
         <v>10.92599999999999</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="L45" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2205,29 @@
         <v>47</v>
       </c>
       <c r="G46" t="n">
+        <v>10.69933333333332</v>
+      </c>
+      <c r="H46" t="n">
         <v>10.91883333333333</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L46" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2251,29 @@
         <v>2311.391</v>
       </c>
       <c r="G47" t="n">
+        <v>10.70466666666666</v>
+      </c>
+      <c r="H47" t="n">
         <v>10.91466666666666</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="L47" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2297,29 @@
         <v>4988.3744</v>
       </c>
       <c r="G48" t="n">
+        <v>10.70933333333332</v>
+      </c>
+      <c r="H48" t="n">
         <v>10.91049999999999</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="L48" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2343,29 @@
         <v>5741.326</v>
       </c>
       <c r="G49" t="n">
+        <v>10.70866666666666</v>
+      </c>
+      <c r="H49" t="n">
         <v>10.90499999999999</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="L49" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2389,29 @@
         <v>21349.8107</v>
       </c>
       <c r="G50" t="n">
+        <v>10.71533333333332</v>
+      </c>
+      <c r="H50" t="n">
         <v>10.90216666666666</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>10.67</v>
+      </c>
+      <c r="L50" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2435,29 @@
         <v>48203.6755</v>
       </c>
       <c r="G51" t="n">
+        <v>10.71399999999999</v>
+      </c>
+      <c r="H51" t="n">
         <v>10.89783333333333</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>10.77</v>
+      </c>
+      <c r="L51" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2481,29 @@
         <v>47</v>
       </c>
       <c r="G52" t="n">
+        <v>10.72066666666666</v>
+      </c>
+      <c r="H52" t="n">
         <v>10.89549999999999</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>10.67</v>
+      </c>
+      <c r="L52" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2527,27 @@
         <v>10000</v>
       </c>
       <c r="G53" t="n">
+        <v>10.74266666666665</v>
+      </c>
+      <c r="H53" t="n">
         <v>10.89716666666666</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="L53" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2571,27 @@
         <v>1692.4656</v>
       </c>
       <c r="G54" t="n">
+        <v>10.75933333333332</v>
+      </c>
+      <c r="H54" t="n">
         <v>10.89966666666666</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="L54" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2615,27 @@
         <v>1593</v>
       </c>
       <c r="G55" t="n">
+        <v>10.78866666666665</v>
+      </c>
+      <c r="H55" t="n">
         <v>10.90133333333333</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2659,27 @@
         <v>16000</v>
       </c>
       <c r="G56" t="n">
+        <v>10.80933333333332</v>
+      </c>
+      <c r="H56" t="n">
         <v>10.89833333333333</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="L56" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2703,27 @@
         <v>4000</v>
       </c>
       <c r="G57" t="n">
+        <v>10.82999999999999</v>
+      </c>
+      <c r="H57" t="n">
         <v>10.89733333333333</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="L57" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2747,27 @@
         <v>43867.18779182948</v>
       </c>
       <c r="G58" t="n">
+        <v>10.86999999999999</v>
+      </c>
+      <c r="H58" t="n">
         <v>10.90183333333333</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="L58" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2791,27 @@
         <v>20000</v>
       </c>
       <c r="G59" t="n">
+        <v>10.89399999999999</v>
+      </c>
+      <c r="H59" t="n">
         <v>10.90199999999999</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="L59" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2835,27 @@
         <v>282000</v>
       </c>
       <c r="G60" t="n">
+        <v>10.92666666666665</v>
+      </c>
+      <c r="H60" t="n">
         <v>10.90516666666666</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="L60" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2879,27 @@
         <v>23368.6656</v>
       </c>
       <c r="G61" t="n">
+        <v>10.94199999999999</v>
+      </c>
+      <c r="H61" t="n">
         <v>10.90333333333333</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2923,27 @@
         <v>870.3495</v>
       </c>
       <c r="G62" t="n">
+        <v>10.95333333333332</v>
+      </c>
+      <c r="H62" t="n">
         <v>10.90049999999999</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="L62" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2967,27 @@
         <v>2495</v>
       </c>
       <c r="G63" t="n">
+        <v>10.96866666666666</v>
+      </c>
+      <c r="H63" t="n">
         <v>10.89699999999999</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +3011,27 @@
         <v>8008</v>
       </c>
       <c r="G64" t="n">
+        <v>10.98599999999999</v>
+      </c>
+      <c r="H64" t="n">
         <v>10.89116666666666</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="L64" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +3055,27 @@
         <v>1406</v>
       </c>
       <c r="G65" t="n">
+        <v>11.00133333333332</v>
+      </c>
+      <c r="H65" t="n">
         <v>10.88649999999999</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="L65" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +3099,27 @@
         <v>312733.8491</v>
       </c>
       <c r="G66" t="n">
+        <v>11.02933333333332</v>
+      </c>
+      <c r="H66" t="n">
         <v>10.88316666666666</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="L66" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +3143,27 @@
         <v>34247</v>
       </c>
       <c r="G67" t="n">
+        <v>11.05466666666666</v>
+      </c>
+      <c r="H67" t="n">
         <v>10.88116666666666</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="L67" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +3187,27 @@
         <v>50558.4231</v>
       </c>
       <c r="G68" t="n">
+        <v>11.05733333333333</v>
+      </c>
+      <c r="H68" t="n">
         <v>10.87916666666666</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="L68" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3231,27 @@
         <v>10044.3191</v>
       </c>
       <c r="G69" t="n">
+        <v>11.06533333333332</v>
+      </c>
+      <c r="H69" t="n">
         <v>10.87916666666666</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="L69" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3275,27 @@
         <v>30952.5304</v>
       </c>
       <c r="G70" t="n">
+        <v>11.06266666666665</v>
+      </c>
+      <c r="H70" t="n">
         <v>10.88083333333333</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="L70" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3319,27 @@
         <v>126957.3893</v>
       </c>
       <c r="G71" t="n">
+        <v>11.07066666666666</v>
+      </c>
+      <c r="H71" t="n">
         <v>10.88066666666666</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="L71" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3363,27 @@
         <v>4000</v>
       </c>
       <c r="G72" t="n">
+        <v>11.07799999999999</v>
+      </c>
+      <c r="H72" t="n">
         <v>10.8815</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="L72" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3407,27 @@
         <v>4000</v>
       </c>
       <c r="G73" t="n">
+        <v>11.06599999999999</v>
+      </c>
+      <c r="H73" t="n">
         <v>10.88283333333333</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="L73" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3451,27 @@
         <v>9496</v>
       </c>
       <c r="G74" t="n">
+        <v>11.07266666666666</v>
+      </c>
+      <c r="H74" t="n">
         <v>10.88666666666666</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="L74" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3495,27 @@
         <v>11353</v>
       </c>
       <c r="G75" t="n">
+        <v>11.07933333333332</v>
+      </c>
+      <c r="H75" t="n">
         <v>10.8935</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="L75" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3539,27 @@
         <v>45867.6726</v>
       </c>
       <c r="G76" t="n">
+        <v>11.09933333333332</v>
+      </c>
+      <c r="H76" t="n">
         <v>10.89833333333333</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="L76" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3583,27 @@
         <v>5756.8565</v>
       </c>
       <c r="G77" t="n">
+        <v>11.12399999999999</v>
+      </c>
+      <c r="H77" t="n">
         <v>10.90333333333333</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="L77" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3627,27 @@
         <v>216626.2995733686</v>
       </c>
       <c r="G78" t="n">
+        <v>11.14733333333332</v>
+      </c>
+      <c r="H78" t="n">
         <v>10.90699999999999</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="L78" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3671,27 @@
         <v>4367.3145</v>
       </c>
       <c r="G79" t="n">
+        <v>11.17466666666666</v>
+      </c>
+      <c r="H79" t="n">
         <v>10.91066666666666</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="L79" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3715,27 @@
         <v>542.0997</v>
       </c>
       <c r="G80" t="n">
+        <v>11.19733333333332</v>
+      </c>
+      <c r="H80" t="n">
         <v>10.91633333333333</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="L80" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3759,27 @@
         <v>451593.239209393</v>
       </c>
       <c r="G81" t="n">
+        <v>11.23533333333332</v>
+      </c>
+      <c r="H81" t="n">
         <v>10.9275</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="L81" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3803,27 @@
         <v>7334.3681</v>
       </c>
       <c r="G82" t="n">
+        <v>11.26799999999999</v>
+      </c>
+      <c r="H82" t="n">
         <v>10.93866666666666</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
-        <v>1</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="L82" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,19 +3847,28 @@
         <v>547546.5474172385</v>
       </c>
       <c r="G83" t="n">
+        <v>11.26799999999999</v>
+      </c>
+      <c r="H83" t="n">
         <v>10.94499999999999</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
+      <c r="L83" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>1.039901777362021</v>
       </c>
     </row>
     <row r="84">
@@ -3318,18 +3891,21 @@
         <v>6773.13</v>
       </c>
       <c r="G84" t="n">
+        <v>11.27733333333332</v>
+      </c>
+      <c r="H84" t="n">
         <v>10.95566666666666</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>1</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3929,21 @@
         <v>2839.2</v>
       </c>
       <c r="G85" t="n">
+        <v>11.29266666666666</v>
+      </c>
+      <c r="H85" t="n">
         <v>10.96366666666666</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>1</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3967,21 @@
         <v>125743.8187</v>
       </c>
       <c r="G86" t="n">
+        <v>11.30666666666666</v>
+      </c>
+      <c r="H86" t="n">
         <v>10.97366666666666</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +4005,21 @@
         <v>39279.4247</v>
       </c>
       <c r="G87" t="n">
+        <v>11.31133333333332</v>
+      </c>
+      <c r="H87" t="n">
         <v>10.98116666666666</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +4043,21 @@
         <v>374.845</v>
       </c>
       <c r="G88" t="n">
+        <v>11.31933333333332</v>
+      </c>
+      <c r="H88" t="n">
         <v>10.98949999999999</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +4081,21 @@
         <v>451593.2392</v>
       </c>
       <c r="G89" t="n">
+        <v>11.31533333333332</v>
+      </c>
+      <c r="H89" t="n">
         <v>10.99533333333332</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +4119,21 @@
         <v>207.3319</v>
       </c>
       <c r="G90" t="n">
+        <v>11.30133333333333</v>
+      </c>
+      <c r="H90" t="n">
         <v>11.00049999999999</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +4157,21 @@
         <v>22231.8861</v>
       </c>
       <c r="G91" t="n">
+        <v>11.28599999999999</v>
+      </c>
+      <c r="H91" t="n">
         <v>11.00666666666666</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +4195,21 @@
         <v>22863.2918</v>
       </c>
       <c r="G92" t="n">
+        <v>11.26999999999999</v>
+      </c>
+      <c r="H92" t="n">
         <v>11.01299999999999</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +4233,21 @@
         <v>9404.998</v>
       </c>
       <c r="G93" t="n">
+        <v>11.25066666666666</v>
+      </c>
+      <c r="H93" t="n">
         <v>11.01899999999999</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +4271,21 @@
         <v>12383.6184</v>
       </c>
       <c r="G94" t="n">
+        <v>11.22933333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>11.02466666666666</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +4309,21 @@
         <v>4000</v>
       </c>
       <c r="G95" t="n">
+        <v>11.21333333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>11.03183333333332</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4347,21 @@
         <v>6367.3145</v>
       </c>
       <c r="G96" t="n">
+        <v>11.17599999999999</v>
+      </c>
+      <c r="H96" t="n">
         <v>11.03866666666666</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4385,21 @@
         <v>39345.9416</v>
       </c>
       <c r="G97" t="n">
+        <v>11.13199999999999</v>
+      </c>
+      <c r="H97" t="n">
         <v>11.04383333333332</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4423,21 @@
         <v>10861.567</v>
       </c>
       <c r="G98" t="n">
+        <v>11.12066666666666</v>
+      </c>
+      <c r="H98" t="n">
         <v>11.04716666666666</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4461,21 @@
         <v>5756.8565</v>
       </c>
       <c r="G99" t="n">
+        <v>11.09866666666666</v>
+      </c>
+      <c r="H99" t="n">
         <v>11.05016666666666</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4499,21 @@
         <v>16786</v>
       </c>
       <c r="G100" t="n">
+        <v>11.08133333333332</v>
+      </c>
+      <c r="H100" t="n">
         <v>11.05633333333332</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,22 +4537,21 @@
         <v>1201</v>
       </c>
       <c r="G101" t="n">
+        <v>11.06599999999999</v>
+      </c>
+      <c r="H101" t="n">
         <v>11.06316666666666</v>
       </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="K101" t="n">
-        <v>11.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3952,26 +4575,21 @@
         <v>46</v>
       </c>
       <c r="G102" t="n">
+        <v>11.05466666666666</v>
+      </c>
+      <c r="H102" t="n">
         <v>11.06849999999999</v>
       </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="K102" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3995,26 +4613,21 @@
         <v>96828.16310000001</v>
       </c>
       <c r="G103" t="n">
+        <v>11.04599999999999</v>
+      </c>
+      <c r="H103" t="n">
         <v>11.07533333333333</v>
       </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>10.98</v>
-      </c>
-      <c r="K103" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4038,24 +4651,21 @@
         <v>100</v>
       </c>
       <c r="G104" t="n">
+        <v>11.04133333333332</v>
+      </c>
+      <c r="H104" t="n">
         <v>11.08083333333333</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4079,24 +4689,21 @@
         <v>1856.2332</v>
       </c>
       <c r="G105" t="n">
+        <v>11.03533333333332</v>
+      </c>
+      <c r="H105" t="n">
         <v>11.08566666666666</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4120,24 +4727,21 @@
         <v>2546</v>
       </c>
       <c r="G106" t="n">
+        <v>11.03599999999999</v>
+      </c>
+      <c r="H106" t="n">
         <v>11.09083333333333</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4161,24 +4765,21 @@
         <v>15125.6725</v>
       </c>
       <c r="G107" t="n">
+        <v>11.03666666666665</v>
+      </c>
+      <c r="H107" t="n">
         <v>11.096</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4202,24 +4803,21 @@
         <v>46190.4524</v>
       </c>
       <c r="G108" t="n">
+        <v>11.04666666666665</v>
+      </c>
+      <c r="H108" t="n">
         <v>11.10333333333333</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4243,24 +4841,21 @@
         <v>542.0997</v>
       </c>
       <c r="G109" t="n">
+        <v>11.04799999999998</v>
+      </c>
+      <c r="H109" t="n">
         <v>11.1095</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4284,24 +4879,21 @@
         <v>23000</v>
       </c>
       <c r="G110" t="n">
+        <v>11.05266666666665</v>
+      </c>
+      <c r="H110" t="n">
         <v>11.11616666666666</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4325,24 +4917,21 @@
         <v>1039.9672</v>
       </c>
       <c r="G111" t="n">
+        <v>11.05199999999998</v>
+      </c>
+      <c r="H111" t="n">
         <v>11.12316666666666</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4366,24 +4955,21 @@
         <v>903</v>
       </c>
       <c r="G112" t="n">
+        <v>11.06466666666665</v>
+      </c>
+      <c r="H112" t="n">
         <v>11.12983333333333</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4407,24 +4993,21 @@
         <v>20000</v>
       </c>
       <c r="G113" t="n">
+        <v>11.06466666666665</v>
+      </c>
+      <c r="H113" t="n">
         <v>11.12766666666667</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4448,24 +5031,21 @@
         <v>10025</v>
       </c>
       <c r="G114" t="n">
+        <v>11.07199999999998</v>
+      </c>
+      <c r="H114" t="n">
         <v>11.12833333333333</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4489,24 +5069,21 @@
         <v>6959.5231</v>
       </c>
       <c r="G115" t="n">
+        <v>11.06799999999998</v>
+      </c>
+      <c r="H115" t="n">
         <v>11.12616666666667</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4530,24 +5107,21 @@
         <v>9000</v>
       </c>
       <c r="G116" t="n">
+        <v>11.06399999999998</v>
+      </c>
+      <c r="H116" t="n">
         <v>11.12683333333333</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4571,24 +5145,21 @@
         <v>57590</v>
       </c>
       <c r="G117" t="n">
+        <v>11.07199999999998</v>
+      </c>
+      <c r="H117" t="n">
         <v>11.129</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4612,24 +5183,21 @@
         <v>16475</v>
       </c>
       <c r="G118" t="n">
+        <v>11.07399999999998</v>
+      </c>
+      <c r="H118" t="n">
         <v>11.12633333333333</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4653,24 +5221,21 @@
         <v>6000</v>
       </c>
       <c r="G119" t="n">
+        <v>11.08199999999998</v>
+      </c>
+      <c r="H119" t="n">
         <v>11.12783333333334</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4694,24 +5259,21 @@
         <v>31488</v>
       </c>
       <c r="G120" t="n">
+        <v>11.10799999999998</v>
+      </c>
+      <c r="H120" t="n">
         <v>11.131</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4735,24 +5297,21 @@
         <v>4211.8824</v>
       </c>
       <c r="G121" t="n">
+        <v>11.12866666666665</v>
+      </c>
+      <c r="H121" t="n">
         <v>11.1375</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4776,24 +5335,21 @@
         <v>193753.19</v>
       </c>
       <c r="G122" t="n">
+        <v>11.14933333333332</v>
+      </c>
+      <c r="H122" t="n">
         <v>11.145</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4817,24 +5373,21 @@
         <v>22000</v>
       </c>
       <c r="G123" t="n">
+        <v>11.15066666666665</v>
+      </c>
+      <c r="H123" t="n">
         <v>11.14883333333333</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,24 +5411,21 @@
         <v>58600</v>
       </c>
       <c r="G124" t="n">
+        <v>11.16599999999999</v>
+      </c>
+      <c r="H124" t="n">
         <v>11.1545</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4899,24 +5449,21 @@
         <v>101692.0964</v>
       </c>
       <c r="G125" t="n">
+        <v>11.16866666666665</v>
+      </c>
+      <c r="H125" t="n">
         <v>11.158</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4940,24 +5487,21 @@
         <v>13830.3958</v>
       </c>
       <c r="G126" t="n">
+        <v>11.17199999999999</v>
+      </c>
+      <c r="H126" t="n">
         <v>11.15883333333334</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4981,24 +5525,21 @@
         <v>14519.6042</v>
       </c>
       <c r="G127" t="n">
+        <v>11.16866666666665</v>
+      </c>
+      <c r="H127" t="n">
         <v>11.15833333333333</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5022,24 +5563,21 @@
         <v>85050</v>
       </c>
       <c r="G128" t="n">
+        <v>11.17799999999999</v>
+      </c>
+      <c r="H128" t="n">
         <v>11.15783333333334</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5063,24 +5601,21 @@
         <v>925</v>
       </c>
       <c r="G129" t="n">
+        <v>11.18533333333332</v>
+      </c>
+      <c r="H129" t="n">
         <v>11.15833333333334</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5104,24 +5639,21 @@
         <v>9556.2017</v>
       </c>
       <c r="G130" t="n">
+        <v>11.18999999999999</v>
+      </c>
+      <c r="H130" t="n">
         <v>11.158</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5145,24 +5677,21 @@
         <v>5000</v>
       </c>
       <c r="G131" t="n">
+        <v>11.19533333333332</v>
+      </c>
+      <c r="H131" t="n">
         <v>11.158</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5186,24 +5715,21 @@
         <v>272304.75</v>
       </c>
       <c r="G132" t="n">
+        <v>11.19266666666666</v>
+      </c>
+      <c r="H132" t="n">
         <v>11.15766666666667</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5227,24 +5753,21 @@
         <v>3314</v>
       </c>
       <c r="G133" t="n">
+        <v>11.18999999999999</v>
+      </c>
+      <c r="H133" t="n">
         <v>11.15733333333333</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5268,24 +5791,21 @@
         <v>7605</v>
       </c>
       <c r="G134" t="n">
+        <v>11.18733333333332</v>
+      </c>
+      <c r="H134" t="n">
         <v>11.1565</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5309,24 +5829,21 @@
         <v>1044</v>
       </c>
       <c r="G135" t="n">
+        <v>11.16599999999999</v>
+      </c>
+      <c r="H135" t="n">
         <v>11.15266666666667</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5350,24 +5867,21 @@
         <v>146498.3392</v>
       </c>
       <c r="G136" t="n">
+        <v>11.14466666666666</v>
+      </c>
+      <c r="H136" t="n">
         <v>11.14883333333333</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5391,24 +5905,21 @@
         <v>500</v>
       </c>
       <c r="G137" t="n">
+        <v>11.13133333333332</v>
+      </c>
+      <c r="H137" t="n">
         <v>11.14683333333333</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5432,24 +5943,21 @@
         <v>30000</v>
       </c>
       <c r="G138" t="n">
+        <v>11.12866666666666</v>
+      </c>
+      <c r="H138" t="n">
         <v>11.14416666666667</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5473,24 +5981,21 @@
         <v>501.6608</v>
       </c>
       <c r="G139" t="n">
+        <v>11.11466666666666</v>
+      </c>
+      <c r="H139" t="n">
         <v>11.1395</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5514,24 +6019,21 @@
         <v>133404.8036</v>
       </c>
       <c r="G140" t="n">
+        <v>11.09999999999999</v>
+      </c>
+      <c r="H140" t="n">
         <v>11.13366666666666</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5555,24 +6057,21 @@
         <v>541</v>
       </c>
       <c r="G141" t="n">
+        <v>11.08999999999999</v>
+      </c>
+      <c r="H141" t="n">
         <v>11.1225</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5596,24 +6095,21 @@
         <v>98882.36689999999</v>
       </c>
       <c r="G142" t="n">
+        <v>11.07933333333332</v>
+      </c>
+      <c r="H142" t="n">
         <v>11.11116666666666</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5637,24 +6133,21 @@
         <v>3922</v>
       </c>
       <c r="G143" t="n">
+        <v>11.06866666666665</v>
+      </c>
+      <c r="H143" t="n">
         <v>11.108</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5678,24 +6171,21 @@
         <v>965.8089</v>
       </c>
       <c r="G144" t="n">
+        <v>11.05333333333332</v>
+      </c>
+      <c r="H144" t="n">
         <v>11.10233333333333</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5719,24 +6209,21 @@
         <v>33196.7362</v>
       </c>
       <c r="G145" t="n">
+        <v>11.04599999999999</v>
+      </c>
+      <c r="H145" t="n">
         <v>11.09633333333333</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5760,24 +6247,21 @@
         <v>21698.8804</v>
       </c>
       <c r="G146" t="n">
+        <v>11.03733333333332</v>
+      </c>
+      <c r="H146" t="n">
         <v>11.09066666666667</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5801,24 +6285,21 @@
         <v>2000</v>
       </c>
       <c r="G147" t="n">
+        <v>11.03066666666665</v>
+      </c>
+      <c r="H147" t="n">
         <v>11.0875</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5842,24 +6323,21 @@
         <v>21225.1064</v>
       </c>
       <c r="G148" t="n">
+        <v>11.02333333333332</v>
+      </c>
+      <c r="H148" t="n">
         <v>11.08333333333334</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5883,24 +6361,21 @@
         <v>81329.70510000001</v>
       </c>
       <c r="G149" t="n">
+        <v>11.01466666666665</v>
+      </c>
+      <c r="H149" t="n">
         <v>11.08133333333334</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5924,24 +6399,21 @@
         <v>5595.8438</v>
       </c>
       <c r="G150" t="n">
+        <v>11.00599999999999</v>
+      </c>
+      <c r="H150" t="n">
         <v>11.07883333333333</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5965,24 +6437,21 @@
         <v>10000</v>
       </c>
       <c r="G151" t="n">
+        <v>10.99733333333332</v>
+      </c>
+      <c r="H151" t="n">
         <v>11.07666666666667</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6006,24 +6475,21 @@
         <v>20000</v>
       </c>
       <c r="G152" t="n">
+        <v>10.98066666666665</v>
+      </c>
+      <c r="H152" t="n">
         <v>11.0745</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6047,24 +6513,21 @@
         <v>5595.8438</v>
       </c>
       <c r="G153" t="n">
+        <v>10.96666666666665</v>
+      </c>
+      <c r="H153" t="n">
         <v>11.07316666666667</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6088,24 +6551,21 @@
         <v>4211.8824</v>
       </c>
       <c r="G154" t="n">
+        <v>10.96266666666665</v>
+      </c>
+      <c r="H154" t="n">
         <v>11.07283333333334</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6129,24 +6589,21 @@
         <v>2000</v>
       </c>
       <c r="G155" t="n">
+        <v>10.97533333333332</v>
+      </c>
+      <c r="H155" t="n">
         <v>11.07416666666667</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6170,24 +6627,21 @@
         <v>21105.8159</v>
       </c>
       <c r="G156" t="n">
+        <v>10.98799999999999</v>
+      </c>
+      <c r="H156" t="n">
         <v>11.0755</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6211,24 +6665,21 @@
         <v>500</v>
       </c>
       <c r="G157" t="n">
+        <v>11.01266666666665</v>
+      </c>
+      <c r="H157" t="n">
         <v>11.08133333333333</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6252,24 +6703,401 @@
         <v>884.1732979664014</v>
       </c>
       <c r="G158" t="n">
+        <v>11.03466666666665</v>
+      </c>
+      <c r="H158" t="n">
         <v>11.0865</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="C159" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="D159" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="E159" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="F159" t="n">
+        <v>174484.0381</v>
+      </c>
+      <c r="G159" t="n">
+        <v>11.06066666666666</v>
+      </c>
+      <c r="H159" t="n">
+        <v>11.09283333333333</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="C160" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="D160" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="E160" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="F160" t="n">
+        <v>76.20050000000001</v>
+      </c>
+      <c r="G160" t="n">
+        <v>11.08666666666665</v>
+      </c>
+      <c r="H160" t="n">
+        <v>11.09766666666667</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="C161" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="D161" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="E161" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="F161" t="n">
+        <v>11515.5964</v>
+      </c>
+      <c r="G161" t="n">
+        <v>11.10599999999999</v>
+      </c>
+      <c r="H161" t="n">
+        <v>11.10066666666666</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="C162" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="D162" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="E162" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="F162" t="n">
+        <v>24000</v>
+      </c>
+      <c r="G162" t="n">
+        <v>11.12599999999999</v>
+      </c>
+      <c r="H162" t="n">
+        <v>11.10533333333333</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="C163" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="D163" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="E163" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="F163" t="n">
+        <v>260000</v>
+      </c>
+      <c r="G163" t="n">
+        <v>11.14599999999999</v>
+      </c>
+      <c r="H163" t="n">
+        <v>11.10833333333333</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="C164" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="D164" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="E164" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="F164" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G164" t="n">
+        <v>11.17333333333332</v>
+      </c>
+      <c r="H164" t="n">
+        <v>11.11433333333333</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="C165" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="D165" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="E165" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="F165" t="n">
+        <v>3903.4635</v>
+      </c>
+      <c r="G165" t="n">
+        <v>11.20066666666665</v>
+      </c>
+      <c r="H165" t="n">
+        <v>11.12016666666666</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="C166" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="D166" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="E166" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="F166" t="n">
+        <v>162716.4097</v>
+      </c>
+      <c r="G166" t="n">
+        <v>11.22799999999999</v>
+      </c>
+      <c r="H166" t="n">
+        <v>11.12466666666666</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="C167" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="D167" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="E167" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="F167" t="n">
+        <v>130000</v>
+      </c>
+      <c r="G167" t="n">
+        <v>11.25533333333332</v>
+      </c>
+      <c r="H167" t="n">
+        <v>11.12916666666666</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="C168" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="D168" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="E168" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="F168" t="n">
+        <v>10095.3249</v>
+      </c>
+      <c r="G168" t="n">
+        <v>11.28066666666665</v>
+      </c>
+      <c r="H168" t="n">
+        <v>11.13166666666666</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>1</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-25 BackTest OGO.xlsx
+++ b/BackTest/2020-01-25 BackTest OGO.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M197"/>
+  <dimension ref="A1:N155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11.26</v>
+        <v>10.88</v>
       </c>
       <c r="C2" t="n">
-        <v>11.26</v>
+        <v>10.88</v>
       </c>
       <c r="D2" t="n">
-        <v>11.26</v>
+        <v>10.88</v>
       </c>
       <c r="E2" t="n">
-        <v>11.26</v>
+        <v>10.88</v>
       </c>
       <c r="F2" t="n">
-        <v>60.9</v>
+        <v>4475.0844</v>
       </c>
       <c r="G2" t="n">
-        <v>1001281.1886</v>
+        <v>584109.1598999996</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>11.26</v>
+        <v>10.99</v>
       </c>
       <c r="C3" t="n">
-        <v>11.26</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>11.26</v>
+        <v>11</v>
       </c>
       <c r="E3" t="n">
-        <v>11.26</v>
+        <v>10.99</v>
       </c>
       <c r="F3" t="n">
-        <v>1453.5038</v>
+        <v>40000</v>
       </c>
       <c r="G3" t="n">
-        <v>1001281.1886</v>
+        <v>624109.1598999996</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11.26</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>11.26</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>11.26</v>
+        <v>11</v>
       </c>
       <c r="E4" t="n">
-        <v>11.26</v>
+        <v>11</v>
       </c>
       <c r="F4" t="n">
-        <v>100.2</v>
+        <v>134952.2936</v>
       </c>
       <c r="G4" t="n">
-        <v>1001281.1886</v>
+        <v>624109.1598999996</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11.26</v>
+        <v>11.12</v>
       </c>
       <c r="C5" t="n">
-        <v>11.16</v>
+        <v>11.12</v>
       </c>
       <c r="D5" t="n">
-        <v>11.26</v>
+        <v>11.12</v>
       </c>
       <c r="E5" t="n">
-        <v>11.16</v>
+        <v>11.12</v>
       </c>
       <c r="F5" t="n">
-        <v>43542.316</v>
+        <v>46</v>
       </c>
       <c r="G5" t="n">
-        <v>957738.8725999999</v>
+        <v>624155.1598999996</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>11.26</v>
+        <v>11.12</v>
       </c>
       <c r="C6" t="n">
-        <v>11.26</v>
+        <v>11.12</v>
       </c>
       <c r="D6" t="n">
-        <v>11.26</v>
+        <v>11.12</v>
       </c>
       <c r="E6" t="n">
-        <v>11.26</v>
+        <v>11.12</v>
       </c>
       <c r="F6" t="n">
-        <v>101.2</v>
+        <v>10608.681</v>
       </c>
       <c r="G6" t="n">
-        <v>957840.0725999998</v>
+        <v>624155.1598999996</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11.26</v>
+        <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>11.26</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>11.26</v>
+        <v>11</v>
       </c>
       <c r="E7" t="n">
-        <v>11.26</v>
+        <v>11</v>
       </c>
       <c r="F7" t="n">
-        <v>4176</v>
+        <v>5040.14</v>
       </c>
       <c r="G7" t="n">
-        <v>957840.0725999998</v>
+        <v>619115.0198999996</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>11.26</v>
+        <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>11.26</v>
+        <v>10.99</v>
       </c>
       <c r="D8" t="n">
-        <v>11.26</v>
+        <v>11</v>
       </c>
       <c r="E8" t="n">
-        <v>11.26</v>
+        <v>10.99</v>
       </c>
       <c r="F8" t="n">
-        <v>10000</v>
+        <v>73287.92999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>957840.0725999998</v>
+        <v>545827.0898999996</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>11.26</v>
+        <v>10.99</v>
       </c>
       <c r="C9" t="n">
-        <v>11.26</v>
+        <v>10.99</v>
       </c>
       <c r="D9" t="n">
-        <v>11.26</v>
+        <v>10.99</v>
       </c>
       <c r="E9" t="n">
-        <v>11.26</v>
+        <v>10.99</v>
       </c>
       <c r="F9" t="n">
-        <v>4354</v>
+        <v>115024.7461</v>
       </c>
       <c r="G9" t="n">
-        <v>957840.0725999998</v>
+        <v>545827.0898999996</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>11.16</v>
+        <v>10.93</v>
       </c>
       <c r="C10" t="n">
-        <v>11.26</v>
+        <v>10.79</v>
       </c>
       <c r="D10" t="n">
-        <v>11.26</v>
+        <v>10.93</v>
       </c>
       <c r="E10" t="n">
-        <v>11.1</v>
+        <v>10.79</v>
       </c>
       <c r="F10" t="n">
-        <v>50444.4645</v>
+        <v>290432.231</v>
       </c>
       <c r="G10" t="n">
-        <v>957840.0725999998</v>
+        <v>255394.8588999995</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>11.2</v>
+        <v>10.77</v>
       </c>
       <c r="C11" t="n">
-        <v>11.04</v>
+        <v>10.67</v>
       </c>
       <c r="D11" t="n">
-        <v>11.2</v>
+        <v>10.77</v>
       </c>
       <c r="E11" t="n">
-        <v>11.04</v>
+        <v>10.67</v>
       </c>
       <c r="F11" t="n">
-        <v>11968.99</v>
+        <v>311960.0297</v>
       </c>
       <c r="G11" t="n">
-        <v>945871.0825999998</v>
+        <v>-56565.17080000049</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>11.07</v>
+        <v>10.85</v>
       </c>
       <c r="C12" t="n">
-        <v>11.2</v>
+        <v>10.85</v>
       </c>
       <c r="D12" t="n">
-        <v>11.2</v>
+        <v>10.85</v>
       </c>
       <c r="E12" t="n">
-        <v>11.01</v>
+        <v>10.85</v>
       </c>
       <c r="F12" t="n">
-        <v>186175.7456</v>
+        <v>4000</v>
       </c>
       <c r="G12" t="n">
-        <v>1132046.8282</v>
+        <v>-52565.17080000049</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>11.19</v>
+        <v>10.7</v>
       </c>
       <c r="C13" t="n">
-        <v>11.2</v>
+        <v>10.7</v>
       </c>
       <c r="D13" t="n">
-        <v>11.2</v>
+        <v>10.7</v>
       </c>
       <c r="E13" t="n">
-        <v>11.19</v>
+        <v>10.7</v>
       </c>
       <c r="F13" t="n">
-        <v>939</v>
+        <v>20370.728</v>
       </c>
       <c r="G13" t="n">
-        <v>1132046.8282</v>
+        <v>-72935.89880000049</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>11.02</v>
+        <v>10.7</v>
       </c>
       <c r="C14" t="n">
-        <v>11.02</v>
+        <v>10.7</v>
       </c>
       <c r="D14" t="n">
-        <v>11.02</v>
+        <v>10.7</v>
       </c>
       <c r="E14" t="n">
-        <v>11.02</v>
+        <v>10.7</v>
       </c>
       <c r="F14" t="n">
-        <v>46</v>
+        <v>1219</v>
       </c>
       <c r="G14" t="n">
-        <v>1132000.8282</v>
+        <v>-72935.89880000049</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>11.07</v>
+        <v>10.7</v>
       </c>
       <c r="C15" t="n">
-        <v>11.19</v>
+        <v>10.7</v>
       </c>
       <c r="D15" t="n">
-        <v>11.19</v>
+        <v>10.7</v>
       </c>
       <c r="E15" t="n">
-        <v>11.06</v>
+        <v>10.7</v>
       </c>
       <c r="F15" t="n">
-        <v>52589.855</v>
+        <v>1652</v>
       </c>
       <c r="G15" t="n">
-        <v>1184590.6832</v>
+        <v>-72935.89880000049</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>11.01</v>
+        <v>10.7</v>
       </c>
       <c r="C16" t="n">
-        <v>11.01</v>
+        <v>10.7</v>
       </c>
       <c r="D16" t="n">
-        <v>11.01</v>
+        <v>10.7</v>
       </c>
       <c r="E16" t="n">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="F16" t="n">
-        <v>93173</v>
+        <v>221</v>
       </c>
       <c r="G16" t="n">
-        <v>1091417.6832</v>
+        <v>-72935.89880000049</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>11.01</v>
+        <v>10.69</v>
       </c>
       <c r="C17" t="n">
-        <v>11.01</v>
+        <v>10.77</v>
       </c>
       <c r="D17" t="n">
-        <v>11.01</v>
+        <v>10.77</v>
       </c>
       <c r="E17" t="n">
-        <v>11.01</v>
+        <v>10.69</v>
       </c>
       <c r="F17" t="n">
-        <v>4000</v>
+        <v>23608.1981</v>
       </c>
       <c r="G17" t="n">
-        <v>1091417.6832</v>
+        <v>-49327.70070000049</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>11</v>
+        <v>10.69</v>
       </c>
       <c r="C18" t="n">
-        <v>11</v>
+        <v>10.69</v>
       </c>
       <c r="D18" t="n">
-        <v>11</v>
+        <v>10.69</v>
       </c>
       <c r="E18" t="n">
-        <v>11</v>
+        <v>10.69</v>
       </c>
       <c r="F18" t="n">
-        <v>237</v>
+        <v>4567.6889</v>
       </c>
       <c r="G18" t="n">
-        <v>1091180.6832</v>
+        <v>-53895.38960000049</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>10.94</v>
+        <v>10.68</v>
       </c>
       <c r="C19" t="n">
-        <v>10.94</v>
+        <v>10.68</v>
       </c>
       <c r="D19" t="n">
-        <v>10.94</v>
+        <v>10.68</v>
       </c>
       <c r="E19" t="n">
-        <v>10.94</v>
+        <v>10.68</v>
       </c>
       <c r="F19" t="n">
-        <v>14445.1414</v>
+        <v>12795</v>
       </c>
       <c r="G19" t="n">
-        <v>1076735.5418</v>
+        <v>-66690.38960000049</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>10.91</v>
+        <v>10.69</v>
       </c>
       <c r="C20" t="n">
-        <v>10.93</v>
+        <v>10.69</v>
       </c>
       <c r="D20" t="n">
-        <v>10.93</v>
+        <v>10.69</v>
       </c>
       <c r="E20" t="n">
-        <v>10.9</v>
+        <v>10.69</v>
       </c>
       <c r="F20" t="n">
-        <v>143862.7956</v>
+        <v>36000</v>
       </c>
       <c r="G20" t="n">
-        <v>932872.7461999997</v>
+        <v>-30690.38960000049</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>10.93</v>
+        <v>10.68</v>
       </c>
       <c r="C21" t="n">
-        <v>10.93</v>
+        <v>10.68</v>
       </c>
       <c r="D21" t="n">
-        <v>10.93</v>
+        <v>10.68</v>
       </c>
       <c r="E21" t="n">
-        <v>10.93</v>
+        <v>10.68</v>
       </c>
       <c r="F21" t="n">
-        <v>900.1316</v>
+        <v>275</v>
       </c>
       <c r="G21" t="n">
-        <v>932872.7461999997</v>
+        <v>-30965.38960000049</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,98 +1151,113 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>11.03</v>
+        <v>10.68</v>
       </c>
       <c r="C22" t="n">
-        <v>11.03</v>
+        <v>10.67</v>
       </c>
       <c r="D22" t="n">
-        <v>11.03</v>
+        <v>10.68</v>
       </c>
       <c r="E22" t="n">
-        <v>11.03</v>
+        <v>10.67</v>
       </c>
       <c r="F22" t="n">
-        <v>46</v>
+        <v>19184.1709</v>
       </c>
       <c r="G22" t="n">
-        <v>932918.7461999997</v>
+        <v>-50149.56050000049</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>10.68</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>10.9</v>
+        <v>10.69</v>
       </c>
       <c r="C23" t="n">
-        <v>10.9</v>
+        <v>10.69</v>
       </c>
       <c r="D23" t="n">
-        <v>10.9</v>
+        <v>10.69</v>
       </c>
       <c r="E23" t="n">
-        <v>10.9</v>
+        <v>10.69</v>
       </c>
       <c r="F23" t="n">
-        <v>45.9999</v>
+        <v>260000</v>
       </c>
       <c r="G23" t="n">
-        <v>932872.7462999996</v>
+        <v>209850.4394999995</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>10.67</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>10.9</v>
+        <v>10.69</v>
       </c>
       <c r="C24" t="n">
-        <v>11.04</v>
+        <v>10.69</v>
       </c>
       <c r="D24" t="n">
-        <v>11.04</v>
+        <v>10.69</v>
       </c>
       <c r="E24" t="n">
-        <v>10.9</v>
+        <v>10.69</v>
       </c>
       <c r="F24" t="n">
-        <v>36541.0001</v>
+        <v>120</v>
       </c>
       <c r="G24" t="n">
-        <v>969413.7463999996</v>
+        <v>209850.4394999995</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1228,32 +1267,37 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>11.15</v>
+        <v>10.76</v>
       </c>
       <c r="C25" t="n">
-        <v>11.15</v>
+        <v>10.8</v>
       </c>
       <c r="D25" t="n">
-        <v>11.15</v>
+        <v>10.8</v>
       </c>
       <c r="E25" t="n">
-        <v>11.15</v>
+        <v>10.76</v>
       </c>
       <c r="F25" t="n">
-        <v>45</v>
+        <v>260000</v>
       </c>
       <c r="G25" t="n">
-        <v>969458.7463999996</v>
+        <v>469850.4394999995</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1263,32 +1307,37 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>11.15</v>
+        <v>10.9</v>
       </c>
       <c r="C26" t="n">
-        <v>11.03</v>
+        <v>10.8</v>
       </c>
       <c r="D26" t="n">
-        <v>11.16</v>
+        <v>10.9</v>
       </c>
       <c r="E26" t="n">
-        <v>11.03</v>
+        <v>10.8</v>
       </c>
       <c r="F26" t="n">
-        <v>49556.9327</v>
+        <v>12737</v>
       </c>
       <c r="G26" t="n">
-        <v>919901.8136999996</v>
+        <v>469850.4394999995</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1298,32 +1347,37 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>10.99</v>
+        <v>10.7</v>
       </c>
       <c r="C27" t="n">
-        <v>10.99</v>
+        <v>10.7</v>
       </c>
       <c r="D27" t="n">
-        <v>10.99</v>
+        <v>10.7</v>
       </c>
       <c r="E27" t="n">
-        <v>10.99</v>
+        <v>10.7</v>
       </c>
       <c r="F27" t="n">
-        <v>46.8888</v>
+        <v>1856.2332</v>
       </c>
       <c r="G27" t="n">
-        <v>919854.9248999996</v>
+        <v>467994.2062999995</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1333,32 +1387,37 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>11</v>
+        <v>10.66</v>
       </c>
       <c r="C28" t="n">
-        <v>11</v>
+        <v>10.66</v>
       </c>
       <c r="D28" t="n">
-        <v>11</v>
+        <v>10.66</v>
       </c>
       <c r="E28" t="n">
-        <v>11</v>
+        <v>10.66</v>
       </c>
       <c r="F28" t="n">
-        <v>988</v>
+        <v>143.7668</v>
       </c>
       <c r="G28" t="n">
-        <v>920842.9248999996</v>
+        <v>467850.4394999995</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1368,32 +1427,37 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>10.93</v>
+        <v>10.7</v>
       </c>
       <c r="C29" t="n">
-        <v>11</v>
+        <v>10.66</v>
       </c>
       <c r="D29" t="n">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="E29" t="n">
-        <v>10.93</v>
+        <v>10.66</v>
       </c>
       <c r="F29" t="n">
-        <v>12871.1213</v>
+        <v>39919.4331</v>
       </c>
       <c r="G29" t="n">
-        <v>920842.9248999996</v>
+        <v>467850.4394999995</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1403,347 +1467,411 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>11</v>
+        <v>10.66</v>
       </c>
       <c r="C30" t="n">
-        <v>11.1</v>
+        <v>10.66</v>
       </c>
       <c r="D30" t="n">
-        <v>11.1</v>
+        <v>10.66</v>
       </c>
       <c r="E30" t="n">
-        <v>11</v>
+        <v>10.66</v>
       </c>
       <c r="F30" t="n">
-        <v>6486</v>
+        <v>10000</v>
       </c>
       <c r="G30" t="n">
-        <v>927328.9248999996</v>
+        <v>467850.4394999995</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>10.66</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>11.1</v>
+        <v>10.66</v>
       </c>
       <c r="C31" t="n">
-        <v>11.1</v>
+        <v>10.65</v>
       </c>
       <c r="D31" t="n">
-        <v>11.1</v>
+        <v>10.66</v>
       </c>
       <c r="E31" t="n">
-        <v>11.1</v>
+        <v>10.65</v>
       </c>
       <c r="F31" t="n">
-        <v>8017.3125</v>
+        <v>86933.1428</v>
       </c>
       <c r="G31" t="n">
-        <v>927328.9248999996</v>
+        <v>380917.2966999995</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>10.66</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>11.2</v>
+        <v>10.7</v>
       </c>
       <c r="C32" t="n">
-        <v>11.2</v>
+        <v>10.7</v>
       </c>
       <c r="D32" t="n">
-        <v>11.2</v>
+        <v>10.7</v>
       </c>
       <c r="E32" t="n">
-        <v>11.2</v>
+        <v>10.7</v>
       </c>
       <c r="F32" t="n">
-        <v>8000</v>
+        <v>47</v>
       </c>
       <c r="G32" t="n">
-        <v>935328.9248999996</v>
+        <v>380964.2966999995</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>10.65</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>11.2</v>
+        <v>10.76</v>
       </c>
       <c r="C33" t="n">
-        <v>11.28</v>
+        <v>10.76</v>
       </c>
       <c r="D33" t="n">
-        <v>11.28</v>
+        <v>10.76</v>
       </c>
       <c r="E33" t="n">
-        <v>11.2</v>
+        <v>10.76</v>
       </c>
       <c r="F33" t="n">
-        <v>12007</v>
+        <v>47</v>
       </c>
       <c r="G33" t="n">
-        <v>947335.9248999996</v>
+        <v>381011.2966999995</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>10.7</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>11.28</v>
+        <v>10.76</v>
       </c>
       <c r="C34" t="n">
-        <v>11.28</v>
+        <v>10.76</v>
       </c>
       <c r="D34" t="n">
-        <v>11.28</v>
+        <v>10.76</v>
       </c>
       <c r="E34" t="n">
-        <v>11.28</v>
+        <v>10.76</v>
       </c>
       <c r="F34" t="n">
-        <v>60820.638</v>
+        <v>2311.391</v>
       </c>
       <c r="G34" t="n">
-        <v>947335.9248999996</v>
+        <v>381011.2966999995</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>10.76</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>11.28</v>
+        <v>10.76</v>
       </c>
       <c r="C35" t="n">
-        <v>11.29</v>
+        <v>10.76</v>
       </c>
       <c r="D35" t="n">
-        <v>11.29</v>
+        <v>10.76</v>
       </c>
       <c r="E35" t="n">
-        <v>11.28</v>
+        <v>10.76</v>
       </c>
       <c r="F35" t="n">
-        <v>18754.203</v>
+        <v>4988.3744</v>
       </c>
       <c r="G35" t="n">
-        <v>966090.1278999996</v>
+        <v>381011.2966999995</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>10.76</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>11.29</v>
+        <v>10.67</v>
       </c>
       <c r="C36" t="n">
-        <v>11.29</v>
+        <v>10.67</v>
       </c>
       <c r="D36" t="n">
-        <v>11.29</v>
+        <v>10.67</v>
       </c>
       <c r="E36" t="n">
-        <v>11.29</v>
+        <v>10.67</v>
       </c>
       <c r="F36" t="n">
-        <v>57059.2922</v>
+        <v>5741.326</v>
       </c>
       <c r="G36" t="n">
-        <v>966090.1278999996</v>
+        <v>375269.9706999995</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>10.76</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>11.29</v>
+        <v>10.77</v>
       </c>
       <c r="C37" t="n">
-        <v>11.29</v>
+        <v>10.77</v>
       </c>
       <c r="D37" t="n">
-        <v>11.29</v>
+        <v>10.77</v>
       </c>
       <c r="E37" t="n">
-        <v>11.29</v>
+        <v>10.77</v>
       </c>
       <c r="F37" t="n">
-        <v>106089.0452</v>
+        <v>21349.8107</v>
       </c>
       <c r="G37" t="n">
-        <v>966090.1278999996</v>
+        <v>396619.7813999995</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>11.21</v>
+        <v>10.77</v>
       </c>
       <c r="C38" t="n">
-        <v>11.17</v>
+        <v>10.67</v>
       </c>
       <c r="D38" t="n">
-        <v>11.21</v>
+        <v>10.77</v>
       </c>
       <c r="E38" t="n">
-        <v>11.17</v>
+        <v>10.67</v>
       </c>
       <c r="F38" t="n">
-        <v>194766.9751</v>
+        <v>48203.6755</v>
       </c>
       <c r="G38" t="n">
-        <v>771323.1527999996</v>
+        <v>348416.1058999995</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>11.18</v>
+        <v>10.79</v>
       </c>
       <c r="C39" t="n">
-        <v>11</v>
+        <v>10.79</v>
       </c>
       <c r="D39" t="n">
-        <v>11.18</v>
+        <v>10.79</v>
       </c>
       <c r="E39" t="n">
-        <v>11</v>
+        <v>10.79</v>
       </c>
       <c r="F39" t="n">
-        <v>155660.0561</v>
+        <v>47</v>
       </c>
       <c r="G39" t="n">
-        <v>615663.0966999996</v>
+        <v>348463.1058999995</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1753,32 +1881,37 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>11.15</v>
+        <v>10.79</v>
       </c>
       <c r="C40" t="n">
-        <v>11.1</v>
+        <v>11.13</v>
       </c>
       <c r="D40" t="n">
-        <v>11.15</v>
+        <v>11.13</v>
       </c>
       <c r="E40" t="n">
-        <v>11.1</v>
+        <v>10.79</v>
       </c>
       <c r="F40" t="n">
-        <v>7636.22</v>
+        <v>10000</v>
       </c>
       <c r="G40" t="n">
-        <v>623299.3166999996</v>
+        <v>358463.1058999995</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1788,32 +1921,37 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>11.04</v>
+        <v>11.05</v>
       </c>
       <c r="C41" t="n">
-        <v>11.03</v>
+        <v>11.05</v>
       </c>
       <c r="D41" t="n">
-        <v>11.04</v>
+        <v>11.05</v>
       </c>
       <c r="E41" t="n">
-        <v>11.03</v>
+        <v>11.05</v>
       </c>
       <c r="F41" t="n">
-        <v>25589.9997</v>
+        <v>1692.4656</v>
       </c>
       <c r="G41" t="n">
-        <v>597709.3169999996</v>
+        <v>356770.6402999995</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1823,32 +1961,37 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>11</v>
+        <v>11.06</v>
       </c>
       <c r="C42" t="n">
-        <v>11</v>
+        <v>11.14</v>
       </c>
       <c r="D42" t="n">
-        <v>11</v>
+        <v>11.14</v>
       </c>
       <c r="E42" t="n">
-        <v>11</v>
+        <v>11.06</v>
       </c>
       <c r="F42" t="n">
-        <v>100.1571</v>
+        <v>1593</v>
       </c>
       <c r="G42" t="n">
-        <v>597609.1598999996</v>
+        <v>358363.6402999995</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1858,32 +2001,37 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>10.88</v>
+        <v>10.97</v>
       </c>
       <c r="C43" t="n">
-        <v>10.88</v>
+        <v>10.97</v>
       </c>
       <c r="D43" t="n">
-        <v>10.88</v>
+        <v>10.97</v>
       </c>
       <c r="E43" t="n">
-        <v>10.88</v>
+        <v>10.97</v>
       </c>
       <c r="F43" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="G43" t="n">
-        <v>584109.1598999996</v>
+        <v>342363.6402999995</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1893,32 +2041,37 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>10.88</v>
+        <v>10.97</v>
       </c>
       <c r="C44" t="n">
-        <v>10.88</v>
+        <v>10.97</v>
       </c>
       <c r="D44" t="n">
-        <v>10.88</v>
+        <v>10.97</v>
       </c>
       <c r="E44" t="n">
-        <v>10.88</v>
+        <v>10.97</v>
       </c>
       <c r="F44" t="n">
-        <v>4475.0844</v>
+        <v>4000</v>
       </c>
       <c r="G44" t="n">
-        <v>584109.1598999996</v>
+        <v>342363.6402999995</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1928,32 +2081,37 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>10.99</v>
+        <v>11.14</v>
       </c>
       <c r="C45" t="n">
-        <v>11</v>
+        <v>11.26</v>
       </c>
       <c r="D45" t="n">
-        <v>11</v>
+        <v>11.26</v>
       </c>
       <c r="E45" t="n">
-        <v>10.99</v>
+        <v>11.14</v>
       </c>
       <c r="F45" t="n">
-        <v>40000</v>
+        <v>43867.18779182948</v>
       </c>
       <c r="G45" t="n">
-        <v>624109.1598999996</v>
+        <v>386230.828091829</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1963,32 +2121,37 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="C46" t="n">
-        <v>11</v>
+        <v>11.01</v>
       </c>
       <c r="D46" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="E46" t="n">
-        <v>11</v>
+        <v>11.01</v>
       </c>
       <c r="F46" t="n">
-        <v>134952.2936</v>
+        <v>20000</v>
       </c>
       <c r="G46" t="n">
-        <v>624109.1598999996</v>
+        <v>366230.828091829</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1998,32 +2161,37 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>11.12</v>
+        <v>10.97</v>
       </c>
       <c r="C47" t="n">
-        <v>11.12</v>
+        <v>11.19</v>
       </c>
       <c r="D47" t="n">
-        <v>11.12</v>
+        <v>11.19</v>
       </c>
       <c r="E47" t="n">
-        <v>11.12</v>
+        <v>10.95</v>
       </c>
       <c r="F47" t="n">
-        <v>46</v>
+        <v>282000</v>
       </c>
       <c r="G47" t="n">
-        <v>624155.1598999996</v>
+        <v>648230.828091829</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2033,32 +2201,37 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>11.12</v>
+        <v>11</v>
       </c>
       <c r="C48" t="n">
-        <v>11.12</v>
+        <v>10.99</v>
       </c>
       <c r="D48" t="n">
-        <v>11.12</v>
+        <v>11</v>
       </c>
       <c r="E48" t="n">
-        <v>11.12</v>
+        <v>10.99</v>
       </c>
       <c r="F48" t="n">
-        <v>10608.681</v>
+        <v>23368.6656</v>
       </c>
       <c r="G48" t="n">
-        <v>624155.1598999996</v>
+        <v>624862.162491829</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2068,32 +2241,37 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>11</v>
+        <v>10.93</v>
       </c>
       <c r="C49" t="n">
-        <v>11</v>
+        <v>10.93</v>
       </c>
       <c r="D49" t="n">
-        <v>11</v>
+        <v>10.93</v>
       </c>
       <c r="E49" t="n">
-        <v>11</v>
+        <v>10.93</v>
       </c>
       <c r="F49" t="n">
-        <v>5040.14</v>
+        <v>870.3495</v>
       </c>
       <c r="G49" t="n">
-        <v>619115.0198999996</v>
+        <v>623991.812991829</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2103,17 +2281,22 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>11</v>
+        <v>10.99</v>
       </c>
       <c r="C50" t="n">
         <v>10.99</v>
@@ -2125,10 +2308,10 @@
         <v>10.99</v>
       </c>
       <c r="F50" t="n">
-        <v>73287.92999999999</v>
+        <v>2495</v>
       </c>
       <c r="G50" t="n">
-        <v>545827.0898999996</v>
+        <v>626486.812991829</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2138,32 +2321,37 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>10.99</v>
+        <v>10.93</v>
       </c>
       <c r="C51" t="n">
-        <v>10.99</v>
+        <v>10.93</v>
       </c>
       <c r="D51" t="n">
-        <v>10.99</v>
+        <v>10.93</v>
       </c>
       <c r="E51" t="n">
-        <v>10.99</v>
+        <v>10.93</v>
       </c>
       <c r="F51" t="n">
-        <v>115024.7461</v>
+        <v>8008</v>
       </c>
       <c r="G51" t="n">
-        <v>545827.0898999996</v>
+        <v>618478.812991829</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2173,10 +2361,15 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2186,19 +2379,19 @@
         <v>10.93</v>
       </c>
       <c r="C52" t="n">
-        <v>10.79</v>
+        <v>11</v>
       </c>
       <c r="D52" t="n">
+        <v>11</v>
+      </c>
+      <c r="E52" t="n">
         <v>10.93</v>
       </c>
-      <c r="E52" t="n">
-        <v>10.79</v>
-      </c>
       <c r="F52" t="n">
-        <v>290432.231</v>
+        <v>1406</v>
       </c>
       <c r="G52" t="n">
-        <v>255394.8588999995</v>
+        <v>619884.812991829</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2208,32 +2401,37 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>10.77</v>
+        <v>11</v>
       </c>
       <c r="C53" t="n">
-        <v>10.67</v>
+        <v>11.09</v>
       </c>
       <c r="D53" t="n">
-        <v>10.77</v>
+        <v>11.09</v>
       </c>
       <c r="E53" t="n">
-        <v>10.67</v>
+        <v>11</v>
       </c>
       <c r="F53" t="n">
-        <v>311960.0297</v>
+        <v>312733.8491</v>
       </c>
       <c r="G53" t="n">
-        <v>-56565.17080000049</v>
+        <v>932618.662091829</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2243,32 +2441,37 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>10.85</v>
+        <v>11.17</v>
       </c>
       <c r="C54" t="n">
-        <v>10.85</v>
+        <v>11.17</v>
       </c>
       <c r="D54" t="n">
-        <v>10.85</v>
+        <v>11.17</v>
       </c>
       <c r="E54" t="n">
-        <v>10.85</v>
+        <v>11.17</v>
       </c>
       <c r="F54" t="n">
-        <v>4000</v>
+        <v>34247</v>
       </c>
       <c r="G54" t="n">
-        <v>-52565.17080000049</v>
+        <v>966865.662091829</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2278,32 +2481,37 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>10.7</v>
+        <v>11.17</v>
       </c>
       <c r="C55" t="n">
-        <v>10.7</v>
+        <v>11.17</v>
       </c>
       <c r="D55" t="n">
-        <v>10.7</v>
+        <v>11.17</v>
       </c>
       <c r="E55" t="n">
-        <v>10.7</v>
+        <v>11.17</v>
       </c>
       <c r="F55" t="n">
-        <v>20370.728</v>
+        <v>50558.4231</v>
       </c>
       <c r="G55" t="n">
-        <v>-72935.89880000049</v>
+        <v>966865.662091829</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2313,32 +2521,37 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>10.7</v>
+        <v>11.17</v>
       </c>
       <c r="C56" t="n">
-        <v>10.7</v>
+        <v>11.17</v>
       </c>
       <c r="D56" t="n">
-        <v>10.7</v>
+        <v>11.17</v>
       </c>
       <c r="E56" t="n">
-        <v>10.7</v>
+        <v>11.17</v>
       </c>
       <c r="F56" t="n">
-        <v>1219</v>
+        <v>10044.3191</v>
       </c>
       <c r="G56" t="n">
-        <v>-72935.89880000049</v>
+        <v>966865.662091829</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2348,32 +2561,37 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>10.7</v>
+        <v>11.11</v>
       </c>
       <c r="C57" t="n">
-        <v>10.7</v>
+        <v>11.1</v>
       </c>
       <c r="D57" t="n">
-        <v>10.7</v>
+        <v>11.11</v>
       </c>
       <c r="E57" t="n">
-        <v>10.7</v>
+        <v>11.1</v>
       </c>
       <c r="F57" t="n">
-        <v>1652</v>
+        <v>30952.5304</v>
       </c>
       <c r="G57" t="n">
-        <v>-72935.89880000049</v>
+        <v>935913.131691829</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2383,32 +2601,37 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>10.7</v>
+        <v>11.1</v>
       </c>
       <c r="C58" t="n">
-        <v>10.7</v>
+        <v>11.09</v>
       </c>
       <c r="D58" t="n">
-        <v>10.7</v>
+        <v>11.1</v>
       </c>
       <c r="E58" t="n">
-        <v>10.7</v>
+        <v>11.09</v>
       </c>
       <c r="F58" t="n">
-        <v>221</v>
+        <v>126957.3893</v>
       </c>
       <c r="G58" t="n">
-        <v>-72935.89880000049</v>
+        <v>808955.7423918289</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2418,32 +2641,37 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>10.69</v>
+        <v>11.08</v>
       </c>
       <c r="C59" t="n">
-        <v>10.77</v>
+        <v>11.08</v>
       </c>
       <c r="D59" t="n">
-        <v>10.77</v>
+        <v>11.08</v>
       </c>
       <c r="E59" t="n">
-        <v>10.69</v>
+        <v>11.08</v>
       </c>
       <c r="F59" t="n">
-        <v>23608.1981</v>
+        <v>4000</v>
       </c>
       <c r="G59" t="n">
-        <v>-49327.70070000049</v>
+        <v>804955.7423918289</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2453,32 +2681,37 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>10.69</v>
+        <v>11.08</v>
       </c>
       <c r="C60" t="n">
-        <v>10.69</v>
+        <v>11.08</v>
       </c>
       <c r="D60" t="n">
-        <v>10.69</v>
+        <v>11.08</v>
       </c>
       <c r="E60" t="n">
-        <v>10.69</v>
+        <v>11.08</v>
       </c>
       <c r="F60" t="n">
-        <v>4567.6889</v>
+        <v>4000</v>
       </c>
       <c r="G60" t="n">
-        <v>-53895.38960000049</v>
+        <v>804955.7423918289</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2488,32 +2721,37 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>10.68</v>
+        <v>11.08</v>
       </c>
       <c r="C61" t="n">
-        <v>10.68</v>
+        <v>11.11</v>
       </c>
       <c r="D61" t="n">
-        <v>10.68</v>
+        <v>11.11</v>
       </c>
       <c r="E61" t="n">
-        <v>10.68</v>
+        <v>11.08</v>
       </c>
       <c r="F61" t="n">
-        <v>12795</v>
+        <v>9496</v>
       </c>
       <c r="G61" t="n">
-        <v>-66690.38960000049</v>
+        <v>814451.7423918289</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2523,32 +2761,37 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>10.69</v>
+        <v>11.11</v>
       </c>
       <c r="C62" t="n">
-        <v>10.69</v>
+        <v>11.29</v>
       </c>
       <c r="D62" t="n">
-        <v>10.69</v>
+        <v>11.29</v>
       </c>
       <c r="E62" t="n">
-        <v>10.69</v>
+        <v>11.11</v>
       </c>
       <c r="F62" t="n">
-        <v>36000</v>
+        <v>11353</v>
       </c>
       <c r="G62" t="n">
-        <v>-30690.38960000049</v>
+        <v>825804.7423918289</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2558,32 +2801,37 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>10.68</v>
+        <v>11.29</v>
       </c>
       <c r="C63" t="n">
-        <v>10.68</v>
+        <v>11.29</v>
       </c>
       <c r="D63" t="n">
-        <v>10.68</v>
+        <v>11.29</v>
       </c>
       <c r="E63" t="n">
-        <v>10.68</v>
+        <v>11.29</v>
       </c>
       <c r="F63" t="n">
-        <v>275</v>
+        <v>45867.6726</v>
       </c>
       <c r="G63" t="n">
-        <v>-30965.38960000049</v>
+        <v>825804.7423918289</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2593,32 +2841,37 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>10.68</v>
+        <v>11.3</v>
       </c>
       <c r="C64" t="n">
-        <v>10.67</v>
+        <v>11.3</v>
       </c>
       <c r="D64" t="n">
-        <v>10.68</v>
+        <v>11.3</v>
       </c>
       <c r="E64" t="n">
-        <v>10.67</v>
+        <v>11.3</v>
       </c>
       <c r="F64" t="n">
-        <v>19184.1709</v>
+        <v>5756.8565</v>
       </c>
       <c r="G64" t="n">
-        <v>-50149.56050000049</v>
+        <v>831561.5988918289</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2628,32 +2881,37 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>10.69</v>
+        <v>11.3</v>
       </c>
       <c r="C65" t="n">
-        <v>10.69</v>
+        <v>11.34</v>
       </c>
       <c r="D65" t="n">
-        <v>10.69</v>
+        <v>11.34</v>
       </c>
       <c r="E65" t="n">
-        <v>10.69</v>
+        <v>11.3</v>
       </c>
       <c r="F65" t="n">
-        <v>260000</v>
+        <v>216626.2995733686</v>
       </c>
       <c r="G65" t="n">
-        <v>209850.4394999995</v>
+        <v>1048187.898465198</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2663,32 +2921,37 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>10.69</v>
+        <v>11.34</v>
       </c>
       <c r="C66" t="n">
-        <v>10.69</v>
+        <v>11.34</v>
       </c>
       <c r="D66" t="n">
-        <v>10.69</v>
+        <v>11.34</v>
       </c>
       <c r="E66" t="n">
-        <v>10.69</v>
+        <v>11.34</v>
       </c>
       <c r="F66" t="n">
-        <v>120</v>
+        <v>4367.3145</v>
       </c>
       <c r="G66" t="n">
-        <v>209850.4394999995</v>
+        <v>1048187.898465198</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2698,32 +2961,37 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>10.76</v>
+        <v>11.34</v>
       </c>
       <c r="C67" t="n">
-        <v>10.8</v>
+        <v>11.34</v>
       </c>
       <c r="D67" t="n">
-        <v>10.8</v>
+        <v>11.34</v>
       </c>
       <c r="E67" t="n">
-        <v>10.76</v>
+        <v>11.34</v>
       </c>
       <c r="F67" t="n">
-        <v>260000</v>
+        <v>542.0997</v>
       </c>
       <c r="G67" t="n">
-        <v>469850.4394999995</v>
+        <v>1048187.898465198</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2733,32 +3001,37 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>10.9</v>
+        <v>11.34</v>
       </c>
       <c r="C68" t="n">
-        <v>10.8</v>
+        <v>11.66</v>
       </c>
       <c r="D68" t="n">
-        <v>10.9</v>
+        <v>11.66</v>
       </c>
       <c r="E68" t="n">
-        <v>10.8</v>
+        <v>11.34</v>
       </c>
       <c r="F68" t="n">
-        <v>12737</v>
+        <v>451593.239209393</v>
       </c>
       <c r="G68" t="n">
-        <v>469850.4394999995</v>
+        <v>1499781.137674591</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2768,32 +3041,37 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>10.7</v>
+        <v>11.66</v>
       </c>
       <c r="C69" t="n">
-        <v>10.7</v>
+        <v>11.66</v>
       </c>
       <c r="D69" t="n">
-        <v>10.7</v>
+        <v>11.66</v>
       </c>
       <c r="E69" t="n">
-        <v>10.7</v>
+        <v>11.66</v>
       </c>
       <c r="F69" t="n">
-        <v>1856.2332</v>
+        <v>7334.3681</v>
       </c>
       <c r="G69" t="n">
-        <v>467994.2062999995</v>
+        <v>1499781.137674591</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2803,73 +3081,81 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>10.66</v>
+        <v>11.65</v>
       </c>
       <c r="C70" t="n">
-        <v>10.66</v>
+        <v>11.17</v>
       </c>
       <c r="D70" t="n">
-        <v>10.66</v>
+        <v>11.67</v>
       </c>
       <c r="E70" t="n">
-        <v>10.66</v>
+        <v>11.17</v>
       </c>
       <c r="F70" t="n">
-        <v>143.7668</v>
+        <v>547546.5474172385</v>
       </c>
       <c r="G70" t="n">
-        <v>467850.4394999995</v>
+        <v>952234.5902573521</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>10.7</v>
+        <v>11.31</v>
       </c>
       <c r="C71" t="n">
-        <v>10.66</v>
+        <v>11.31</v>
       </c>
       <c r="D71" t="n">
-        <v>10.7</v>
+        <v>11.31</v>
       </c>
       <c r="E71" t="n">
-        <v>10.66</v>
+        <v>11.31</v>
       </c>
       <c r="F71" t="n">
-        <v>39919.4331</v>
+        <v>6773.13</v>
       </c>
       <c r="G71" t="n">
-        <v>467850.4394999995</v>
+        <v>959007.7202573521</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -2877,34 +3163,35 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>10.66</v>
+        <v>11.33</v>
       </c>
       <c r="C72" t="n">
-        <v>10.66</v>
+        <v>11.33</v>
       </c>
       <c r="D72" t="n">
-        <v>10.66</v>
+        <v>11.33</v>
       </c>
       <c r="E72" t="n">
-        <v>10.66</v>
+        <v>11.33</v>
       </c>
       <c r="F72" t="n">
-        <v>10000</v>
+        <v>2839.2</v>
       </c>
       <c r="G72" t="n">
-        <v>467850.4394999995</v>
+        <v>961846.9202573521</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -2912,28 +3199,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>10.66</v>
+        <v>11.33</v>
       </c>
       <c r="C73" t="n">
-        <v>10.65</v>
+        <v>11.3</v>
       </c>
       <c r="D73" t="n">
-        <v>10.66</v>
+        <v>11.33</v>
       </c>
       <c r="E73" t="n">
-        <v>10.65</v>
+        <v>11.3</v>
       </c>
       <c r="F73" t="n">
-        <v>86933.1428</v>
+        <v>125743.8187</v>
       </c>
       <c r="G73" t="n">
-        <v>380917.2966999995</v>
+        <v>836103.1015573521</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,28 +3235,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>10.7</v>
+        <v>11.17</v>
       </c>
       <c r="C74" t="n">
-        <v>10.7</v>
+        <v>11.15</v>
       </c>
       <c r="D74" t="n">
-        <v>10.7</v>
+        <v>11.17</v>
       </c>
       <c r="E74" t="n">
-        <v>10.7</v>
+        <v>11.15</v>
       </c>
       <c r="F74" t="n">
-        <v>47</v>
+        <v>39279.4247</v>
       </c>
       <c r="G74" t="n">
-        <v>380964.2966999995</v>
+        <v>796823.6768573521</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2982,28 +3271,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>10.76</v>
+        <v>11.2</v>
       </c>
       <c r="C75" t="n">
-        <v>10.76</v>
+        <v>11.2</v>
       </c>
       <c r="D75" t="n">
-        <v>10.76</v>
+        <v>11.2</v>
       </c>
       <c r="E75" t="n">
-        <v>10.76</v>
+        <v>11.2</v>
       </c>
       <c r="F75" t="n">
-        <v>47</v>
+        <v>374.845</v>
       </c>
       <c r="G75" t="n">
-        <v>381011.2966999995</v>
+        <v>797198.5218573521</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3017,28 +3307,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>10.76</v>
+        <v>11.2</v>
       </c>
       <c r="C76" t="n">
-        <v>10.76</v>
+        <v>11.05</v>
       </c>
       <c r="D76" t="n">
-        <v>10.76</v>
+        <v>11.2</v>
       </c>
       <c r="E76" t="n">
-        <v>10.76</v>
+        <v>11.05</v>
       </c>
       <c r="F76" t="n">
-        <v>2311.391</v>
+        <v>451593.2392</v>
       </c>
       <c r="G76" t="n">
-        <v>381011.2966999995</v>
+        <v>345605.2826573521</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3052,28 +3343,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>10.76</v>
+        <v>11.08</v>
       </c>
       <c r="C77" t="n">
-        <v>10.76</v>
+        <v>11.08</v>
       </c>
       <c r="D77" t="n">
-        <v>10.76</v>
+        <v>11.08</v>
       </c>
       <c r="E77" t="n">
-        <v>10.76</v>
+        <v>11.08</v>
       </c>
       <c r="F77" t="n">
-        <v>4988.3744</v>
+        <v>207.3319</v>
       </c>
       <c r="G77" t="n">
-        <v>381011.2966999995</v>
+        <v>345812.6145573521</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3087,28 +3379,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>10.67</v>
+        <v>11.06</v>
       </c>
       <c r="C78" t="n">
-        <v>10.67</v>
+        <v>11.06</v>
       </c>
       <c r="D78" t="n">
-        <v>10.67</v>
+        <v>11.06</v>
       </c>
       <c r="E78" t="n">
-        <v>10.67</v>
+        <v>11.06</v>
       </c>
       <c r="F78" t="n">
-        <v>5741.326</v>
+        <v>22231.8861</v>
       </c>
       <c r="G78" t="n">
-        <v>375269.9706999995</v>
+        <v>323580.7284573521</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3122,28 +3415,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>10.77</v>
+        <v>11.06</v>
       </c>
       <c r="C79" t="n">
-        <v>10.77</v>
+        <v>11.06</v>
       </c>
       <c r="D79" t="n">
-        <v>10.77</v>
+        <v>11.06</v>
       </c>
       <c r="E79" t="n">
-        <v>10.77</v>
+        <v>11.06</v>
       </c>
       <c r="F79" t="n">
-        <v>21349.8107</v>
+        <v>22863.2918</v>
       </c>
       <c r="G79" t="n">
-        <v>396619.7813999995</v>
+        <v>323580.7284573521</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3157,28 +3451,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>10.77</v>
+        <v>11.05</v>
       </c>
       <c r="C80" t="n">
-        <v>10.67</v>
+        <v>11.05</v>
       </c>
       <c r="D80" t="n">
-        <v>10.77</v>
+        <v>11.05</v>
       </c>
       <c r="E80" t="n">
-        <v>10.67</v>
+        <v>11.05</v>
       </c>
       <c r="F80" t="n">
-        <v>48203.6755</v>
+        <v>9404.998</v>
       </c>
       <c r="G80" t="n">
-        <v>348416.1058999995</v>
+        <v>314175.7304573521</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3192,28 +3487,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>10.79</v>
+        <v>11.03</v>
       </c>
       <c r="C81" t="n">
-        <v>10.79</v>
+        <v>11.02</v>
       </c>
       <c r="D81" t="n">
-        <v>10.79</v>
+        <v>11.07</v>
       </c>
       <c r="E81" t="n">
-        <v>10.79</v>
+        <v>11.02</v>
       </c>
       <c r="F81" t="n">
-        <v>47</v>
+        <v>12383.6184</v>
       </c>
       <c r="G81" t="n">
-        <v>348463.1058999995</v>
+        <v>301792.1120573521</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3227,28 +3523,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>10.79</v>
+        <v>11.07</v>
       </c>
       <c r="C82" t="n">
-        <v>11.13</v>
+        <v>11.1</v>
       </c>
       <c r="D82" t="n">
-        <v>11.13</v>
+        <v>11.1</v>
       </c>
       <c r="E82" t="n">
-        <v>10.79</v>
+        <v>11.07</v>
       </c>
       <c r="F82" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="G82" t="n">
-        <v>358463.1058999995</v>
+        <v>305792.1120573521</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3262,28 +3559,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>11.05</v>
+        <v>11.03</v>
       </c>
       <c r="C83" t="n">
-        <v>11.05</v>
+        <v>11.1</v>
       </c>
       <c r="D83" t="n">
-        <v>11.05</v>
+        <v>11.1</v>
       </c>
       <c r="E83" t="n">
-        <v>11.05</v>
+        <v>11.03</v>
       </c>
       <c r="F83" t="n">
-        <v>1692.4656</v>
+        <v>6367.3145</v>
       </c>
       <c r="G83" t="n">
-        <v>356770.6402999995</v>
+        <v>305792.1120573521</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3297,28 +3595,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>11.06</v>
+        <v>11.02</v>
       </c>
       <c r="C84" t="n">
-        <v>11.14</v>
+        <v>11</v>
       </c>
       <c r="D84" t="n">
-        <v>11.14</v>
+        <v>11.02</v>
       </c>
       <c r="E84" t="n">
-        <v>11.06</v>
+        <v>11</v>
       </c>
       <c r="F84" t="n">
-        <v>1593</v>
+        <v>39345.9416</v>
       </c>
       <c r="G84" t="n">
-        <v>358363.6402999995</v>
+        <v>266446.1704573521</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3332,28 +3631,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>10.97</v>
+        <v>11</v>
       </c>
       <c r="C85" t="n">
-        <v>10.97</v>
+        <v>11</v>
       </c>
       <c r="D85" t="n">
-        <v>10.97</v>
+        <v>11</v>
       </c>
       <c r="E85" t="n">
-        <v>10.97</v>
+        <v>11</v>
       </c>
       <c r="F85" t="n">
-        <v>16000</v>
+        <v>10861.567</v>
       </c>
       <c r="G85" t="n">
-        <v>342363.6402999995</v>
+        <v>266446.1704573521</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3367,28 +3667,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>10.97</v>
+        <v>10.98</v>
       </c>
       <c r="C86" t="n">
-        <v>10.97</v>
+        <v>10.98</v>
       </c>
       <c r="D86" t="n">
-        <v>10.97</v>
+        <v>10.98</v>
       </c>
       <c r="E86" t="n">
-        <v>10.97</v>
+        <v>10.98</v>
       </c>
       <c r="F86" t="n">
-        <v>4000</v>
+        <v>5756.8565</v>
       </c>
       <c r="G86" t="n">
-        <v>342363.6402999995</v>
+        <v>260689.3139573521</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3402,28 +3703,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>11.14</v>
+        <v>11</v>
       </c>
       <c r="C87" t="n">
-        <v>11.26</v>
+        <v>11.07</v>
       </c>
       <c r="D87" t="n">
-        <v>11.26</v>
+        <v>11.07</v>
       </c>
       <c r="E87" t="n">
-        <v>11.14</v>
+        <v>11</v>
       </c>
       <c r="F87" t="n">
-        <v>43867.18779182948</v>
+        <v>16786</v>
       </c>
       <c r="G87" t="n">
-        <v>386230.828091829</v>
+        <v>277475.3139573521</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3437,28 +3739,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>11.1</v>
+        <v>11.07</v>
       </c>
       <c r="C88" t="n">
-        <v>11.01</v>
+        <v>11.07</v>
       </c>
       <c r="D88" t="n">
-        <v>11.1</v>
+        <v>11.07</v>
       </c>
       <c r="E88" t="n">
-        <v>11.01</v>
+        <v>11.07</v>
       </c>
       <c r="F88" t="n">
-        <v>20000</v>
+        <v>1201</v>
       </c>
       <c r="G88" t="n">
-        <v>366230.828091829</v>
+        <v>277475.3139573521</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3472,28 +3775,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>10.97</v>
+        <v>10.98</v>
       </c>
       <c r="C89" t="n">
-        <v>11.19</v>
+        <v>10.98</v>
       </c>
       <c r="D89" t="n">
-        <v>11.19</v>
+        <v>10.98</v>
       </c>
       <c r="E89" t="n">
-        <v>10.95</v>
+        <v>10.98</v>
       </c>
       <c r="F89" t="n">
-        <v>282000</v>
+        <v>46</v>
       </c>
       <c r="G89" t="n">
-        <v>648230.828091829</v>
+        <v>277429.3139573521</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3507,28 +3811,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>11</v>
+        <v>10.99</v>
       </c>
       <c r="C90" t="n">
-        <v>10.99</v>
+        <v>11.07</v>
       </c>
       <c r="D90" t="n">
-        <v>11</v>
+        <v>11.07</v>
       </c>
       <c r="E90" t="n">
         <v>10.99</v>
       </c>
       <c r="F90" t="n">
-        <v>23368.6656</v>
+        <v>96828.16310000001</v>
       </c>
       <c r="G90" t="n">
-        <v>624862.162491829</v>
+        <v>374257.4770573521</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3542,28 +3847,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>10.93</v>
+        <v>10.98</v>
       </c>
       <c r="C91" t="n">
-        <v>10.93</v>
+        <v>10.98</v>
       </c>
       <c r="D91" t="n">
-        <v>10.93</v>
+        <v>10.98</v>
       </c>
       <c r="E91" t="n">
-        <v>10.93</v>
+        <v>10.98</v>
       </c>
       <c r="F91" t="n">
-        <v>870.3495</v>
+        <v>100</v>
       </c>
       <c r="G91" t="n">
-        <v>623991.812991829</v>
+        <v>374157.4770573521</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3577,6 +3883,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3589,16 +3896,16 @@
         <v>10.99</v>
       </c>
       <c r="D92" t="n">
-        <v>11</v>
+        <v>10.99</v>
       </c>
       <c r="E92" t="n">
         <v>10.99</v>
       </c>
       <c r="F92" t="n">
-        <v>2495</v>
+        <v>1856.2332</v>
       </c>
       <c r="G92" t="n">
-        <v>626486.812991829</v>
+        <v>376013.7102573521</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3612,28 +3919,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>10.93</v>
+        <v>11.07</v>
       </c>
       <c r="C93" t="n">
-        <v>10.93</v>
+        <v>11.07</v>
       </c>
       <c r="D93" t="n">
-        <v>10.93</v>
+        <v>11.07</v>
       </c>
       <c r="E93" t="n">
-        <v>10.93</v>
+        <v>11.07</v>
       </c>
       <c r="F93" t="n">
-        <v>8008</v>
+        <v>2546</v>
       </c>
       <c r="G93" t="n">
-        <v>618478.812991829</v>
+        <v>378559.7102573521</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3647,28 +3955,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>10.93</v>
+        <v>11.07</v>
       </c>
       <c r="C94" t="n">
-        <v>11</v>
+        <v>11.07</v>
       </c>
       <c r="D94" t="n">
-        <v>11</v>
+        <v>11.07</v>
       </c>
       <c r="E94" t="n">
-        <v>10.93</v>
+        <v>11.07</v>
       </c>
       <c r="F94" t="n">
-        <v>1406</v>
+        <v>15125.6725</v>
       </c>
       <c r="G94" t="n">
-        <v>619884.812991829</v>
+        <v>378559.7102573521</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3682,28 +3991,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="C95" t="n">
-        <v>11.09</v>
+        <v>11.2</v>
       </c>
       <c r="D95" t="n">
-        <v>11.09</v>
+        <v>11.2</v>
       </c>
       <c r="E95" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="F95" t="n">
-        <v>312733.8491</v>
+        <v>46190.4524</v>
       </c>
       <c r="G95" t="n">
-        <v>932618.662091829</v>
+        <v>424750.1626573521</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3717,28 +4027,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>11.17</v>
+        <v>11.04</v>
       </c>
       <c r="C96" t="n">
-        <v>11.17</v>
+        <v>11.04</v>
       </c>
       <c r="D96" t="n">
-        <v>11.17</v>
+        <v>11.04</v>
       </c>
       <c r="E96" t="n">
-        <v>11.17</v>
+        <v>11.04</v>
       </c>
       <c r="F96" t="n">
-        <v>34247</v>
+        <v>542.0997</v>
       </c>
       <c r="G96" t="n">
-        <v>966865.662091829</v>
+        <v>424208.0629573521</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3752,13 +4063,14 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>11.17</v>
+        <v>11.04</v>
       </c>
       <c r="C97" t="n">
         <v>11.17</v>
@@ -3767,13 +4079,13 @@
         <v>11.17</v>
       </c>
       <c r="E97" t="n">
-        <v>11.17</v>
+        <v>11.04</v>
       </c>
       <c r="F97" t="n">
-        <v>50558.4231</v>
+        <v>23000</v>
       </c>
       <c r="G97" t="n">
-        <v>966865.662091829</v>
+        <v>447208.0629573521</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3787,28 +4099,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>11.17</v>
+        <v>11.09</v>
       </c>
       <c r="C98" t="n">
-        <v>11.17</v>
+        <v>11.09</v>
       </c>
       <c r="D98" t="n">
-        <v>11.17</v>
+        <v>11.09</v>
       </c>
       <c r="E98" t="n">
-        <v>11.17</v>
+        <v>11.09</v>
       </c>
       <c r="F98" t="n">
-        <v>10044.3191</v>
+        <v>1039.9672</v>
       </c>
       <c r="G98" t="n">
-        <v>966865.662091829</v>
+        <v>446168.0957573521</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3822,28 +4135,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>11.11</v>
+        <v>11.19</v>
       </c>
       <c r="C99" t="n">
-        <v>11.1</v>
+        <v>11.19</v>
       </c>
       <c r="D99" t="n">
-        <v>11.11</v>
+        <v>11.19</v>
       </c>
       <c r="E99" t="n">
-        <v>11.1</v>
+        <v>11.19</v>
       </c>
       <c r="F99" t="n">
-        <v>30952.5304</v>
+        <v>903</v>
       </c>
       <c r="G99" t="n">
-        <v>935913.131691829</v>
+        <v>447071.0957573521</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3857,28 +4171,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="C100" t="n">
-        <v>11.09</v>
+        <v>11</v>
       </c>
       <c r="D100" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="E100" t="n">
-        <v>11.09</v>
+        <v>11</v>
       </c>
       <c r="F100" t="n">
-        <v>126957.3893</v>
+        <v>20000</v>
       </c>
       <c r="G100" t="n">
-        <v>808955.7423918289</v>
+        <v>427071.0957573521</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3892,28 +4207,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>11.08</v>
+        <v>11.09</v>
       </c>
       <c r="C101" t="n">
-        <v>11.08</v>
+        <v>11.09</v>
       </c>
       <c r="D101" t="n">
-        <v>11.08</v>
+        <v>11.09</v>
       </c>
       <c r="E101" t="n">
-        <v>11.08</v>
+        <v>11.09</v>
       </c>
       <c r="F101" t="n">
-        <v>4000</v>
+        <v>10025</v>
       </c>
       <c r="G101" t="n">
-        <v>804955.7423918289</v>
+        <v>437096.0957573521</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3927,28 +4243,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>11.08</v>
+        <v>11.01</v>
       </c>
       <c r="C102" t="n">
-        <v>11.08</v>
+        <v>11.01</v>
       </c>
       <c r="D102" t="n">
-        <v>11.08</v>
+        <v>11.01</v>
       </c>
       <c r="E102" t="n">
-        <v>11.08</v>
+        <v>11.01</v>
       </c>
       <c r="F102" t="n">
-        <v>4000</v>
+        <v>6959.5231</v>
       </c>
       <c r="G102" t="n">
-        <v>804955.7423918289</v>
+        <v>430136.5726573521</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3962,28 +4279,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>11.08</v>
+        <v>11.01</v>
       </c>
       <c r="C103" t="n">
-        <v>11.11</v>
+        <v>11.01</v>
       </c>
       <c r="D103" t="n">
-        <v>11.11</v>
+        <v>11.01</v>
       </c>
       <c r="E103" t="n">
-        <v>11.08</v>
+        <v>11.01</v>
       </c>
       <c r="F103" t="n">
-        <v>9496</v>
+        <v>9000</v>
       </c>
       <c r="G103" t="n">
-        <v>814451.7423918289</v>
+        <v>430136.5726573521</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3997,28 +4315,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>11.11</v>
+        <v>11.09</v>
       </c>
       <c r="C104" t="n">
-        <v>11.29</v>
+        <v>11.1</v>
       </c>
       <c r="D104" t="n">
-        <v>11.29</v>
+        <v>11.1</v>
       </c>
       <c r="E104" t="n">
-        <v>11.11</v>
+        <v>11.09</v>
       </c>
       <c r="F104" t="n">
-        <v>11353</v>
+        <v>57590</v>
       </c>
       <c r="G104" t="n">
-        <v>825804.7423918289</v>
+        <v>487726.5726573521</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4032,28 +4351,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>11.29</v>
+        <v>11.1</v>
       </c>
       <c r="C105" t="n">
-        <v>11.29</v>
+        <v>11.1</v>
       </c>
       <c r="D105" t="n">
-        <v>11.29</v>
+        <v>11.1</v>
       </c>
       <c r="E105" t="n">
-        <v>11.29</v>
+        <v>11.1</v>
       </c>
       <c r="F105" t="n">
-        <v>45867.6726</v>
+        <v>16475</v>
       </c>
       <c r="G105" t="n">
-        <v>825804.7423918289</v>
+        <v>487726.5726573521</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4067,28 +4387,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="C106" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="D106" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="E106" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="F106" t="n">
-        <v>5756.8565</v>
+        <v>6000</v>
       </c>
       <c r="G106" t="n">
-        <v>831561.5988918289</v>
+        <v>487726.5726573521</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4102,28 +4423,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="C107" t="n">
-        <v>11.34</v>
+        <v>11.38</v>
       </c>
       <c r="D107" t="n">
-        <v>11.34</v>
+        <v>11.38</v>
       </c>
       <c r="E107" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="F107" t="n">
-        <v>216626.2995733686</v>
+        <v>31488</v>
       </c>
       <c r="G107" t="n">
-        <v>1048187.898465198</v>
+        <v>519214.5726573521</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4137,28 +4459,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>11.34</v>
+        <v>11.38</v>
       </c>
       <c r="C108" t="n">
-        <v>11.34</v>
+        <v>11.38</v>
       </c>
       <c r="D108" t="n">
-        <v>11.34</v>
+        <v>11.38</v>
       </c>
       <c r="E108" t="n">
-        <v>11.34</v>
+        <v>11.38</v>
       </c>
       <c r="F108" t="n">
-        <v>4367.3145</v>
+        <v>4211.8824</v>
       </c>
       <c r="G108" t="n">
-        <v>1048187.898465198</v>
+        <v>519214.5726573521</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4172,28 +4495,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>11.34</v>
+        <v>11.38</v>
       </c>
       <c r="C109" t="n">
-        <v>11.34</v>
+        <v>11.38</v>
       </c>
       <c r="D109" t="n">
-        <v>11.34</v>
+        <v>11.38</v>
       </c>
       <c r="E109" t="n">
-        <v>11.34</v>
+        <v>11.38</v>
       </c>
       <c r="F109" t="n">
-        <v>542.0997</v>
+        <v>193753.19</v>
       </c>
       <c r="G109" t="n">
-        <v>1048187.898465198</v>
+        <v>519214.5726573521</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4207,28 +4531,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>11.34</v>
+        <v>11.37</v>
       </c>
       <c r="C110" t="n">
-        <v>11.66</v>
+        <v>11.22</v>
       </c>
       <c r="D110" t="n">
-        <v>11.66</v>
+        <v>11.37</v>
       </c>
       <c r="E110" t="n">
-        <v>11.34</v>
+        <v>11.22</v>
       </c>
       <c r="F110" t="n">
-        <v>451593.239209393</v>
+        <v>22000</v>
       </c>
       <c r="G110" t="n">
-        <v>1499781.137674591</v>
+        <v>497214.5726573521</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4242,28 +4567,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>11.66</v>
+        <v>11.3</v>
       </c>
       <c r="C111" t="n">
-        <v>11.66</v>
+        <v>11.27</v>
       </c>
       <c r="D111" t="n">
-        <v>11.66</v>
+        <v>11.3</v>
       </c>
       <c r="E111" t="n">
-        <v>11.66</v>
+        <v>11.27</v>
       </c>
       <c r="F111" t="n">
-        <v>7334.3681</v>
+        <v>58600</v>
       </c>
       <c r="G111" t="n">
-        <v>1499781.137674591</v>
+        <v>555814.5726573521</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4277,28 +4603,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>11.65</v>
+        <v>11.27</v>
       </c>
       <c r="C112" t="n">
-        <v>11.17</v>
+        <v>11.21</v>
       </c>
       <c r="D112" t="n">
-        <v>11.67</v>
+        <v>11.27</v>
       </c>
       <c r="E112" t="n">
-        <v>11.17</v>
+        <v>11.21</v>
       </c>
       <c r="F112" t="n">
-        <v>547546.5474172385</v>
+        <v>101692.0964</v>
       </c>
       <c r="G112" t="n">
-        <v>952234.5902573521</v>
+        <v>454122.4762573521</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4312,28 +4639,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>11.31</v>
+        <v>11.16</v>
       </c>
       <c r="C113" t="n">
-        <v>11.31</v>
+        <v>11.14</v>
       </c>
       <c r="D113" t="n">
-        <v>11.31</v>
+        <v>11.16</v>
       </c>
       <c r="E113" t="n">
-        <v>11.31</v>
+        <v>11.14</v>
       </c>
       <c r="F113" t="n">
-        <v>6773.13</v>
+        <v>13830.3958</v>
       </c>
       <c r="G113" t="n">
-        <v>959007.7202573521</v>
+        <v>440292.0804573521</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4347,28 +4675,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>11.33</v>
+        <v>11.14</v>
       </c>
       <c r="C114" t="n">
-        <v>11.33</v>
+        <v>11.14</v>
       </c>
       <c r="D114" t="n">
-        <v>11.33</v>
+        <v>11.14</v>
       </c>
       <c r="E114" t="n">
-        <v>11.33</v>
+        <v>11.14</v>
       </c>
       <c r="F114" t="n">
-        <v>2839.2</v>
+        <v>14519.6042</v>
       </c>
       <c r="G114" t="n">
-        <v>961846.9202573521</v>
+        <v>440292.0804573521</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4382,28 +4711,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>11.33</v>
+        <v>11.14</v>
       </c>
       <c r="C115" t="n">
-        <v>11.3</v>
+        <v>11.14</v>
       </c>
       <c r="D115" t="n">
-        <v>11.33</v>
+        <v>11.14</v>
       </c>
       <c r="E115" t="n">
-        <v>11.3</v>
+        <v>11.14</v>
       </c>
       <c r="F115" t="n">
-        <v>125743.8187</v>
+        <v>85050</v>
       </c>
       <c r="G115" t="n">
-        <v>836103.1015573521</v>
+        <v>440292.0804573521</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4417,28 +4747,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>11.17</v>
+        <v>11.2</v>
       </c>
       <c r="C116" t="n">
-        <v>11.15</v>
+        <v>11.2</v>
       </c>
       <c r="D116" t="n">
-        <v>11.17</v>
+        <v>11.2</v>
       </c>
       <c r="E116" t="n">
-        <v>11.15</v>
+        <v>11.2</v>
       </c>
       <c r="F116" t="n">
-        <v>39279.4247</v>
+        <v>925</v>
       </c>
       <c r="G116" t="n">
-        <v>796823.6768573521</v>
+        <v>441217.0804573521</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4452,28 +4783,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>11.2</v>
+        <v>11.08</v>
       </c>
       <c r="C117" t="n">
-        <v>11.2</v>
+        <v>11.08</v>
       </c>
       <c r="D117" t="n">
-        <v>11.2</v>
+        <v>11.08</v>
       </c>
       <c r="E117" t="n">
-        <v>11.2</v>
+        <v>11.08</v>
       </c>
       <c r="F117" t="n">
-        <v>374.845</v>
+        <v>9556.2017</v>
       </c>
       <c r="G117" t="n">
-        <v>797198.5218573521</v>
+        <v>431660.8787573521</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4487,28 +4819,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>11.2</v>
+        <v>11.09</v>
       </c>
       <c r="C118" t="n">
-        <v>11.05</v>
+        <v>11.09</v>
       </c>
       <c r="D118" t="n">
-        <v>11.2</v>
+        <v>11.09</v>
       </c>
       <c r="E118" t="n">
-        <v>11.05</v>
+        <v>11.09</v>
       </c>
       <c r="F118" t="n">
-        <v>451593.2392</v>
+        <v>5000</v>
       </c>
       <c r="G118" t="n">
-        <v>345605.2826573521</v>
+        <v>436660.8787573521</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4522,28 +4855,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>11.08</v>
+        <v>11.07</v>
       </c>
       <c r="C119" t="n">
-        <v>11.08</v>
+        <v>11.06</v>
       </c>
       <c r="D119" t="n">
-        <v>11.08</v>
+        <v>11.07</v>
       </c>
       <c r="E119" t="n">
-        <v>11.08</v>
+        <v>11.06</v>
       </c>
       <c r="F119" t="n">
-        <v>207.3319</v>
+        <v>272304.75</v>
       </c>
       <c r="G119" t="n">
-        <v>345812.6145573521</v>
+        <v>164356.1287573521</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4557,6 +4891,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4575,10 +4910,10 @@
         <v>11.06</v>
       </c>
       <c r="F120" t="n">
-        <v>22231.8861</v>
+        <v>3314</v>
       </c>
       <c r="G120" t="n">
-        <v>323580.7284573521</v>
+        <v>164356.1287573521</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4592,6 +4927,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4610,10 +4946,10 @@
         <v>11.06</v>
       </c>
       <c r="F121" t="n">
-        <v>22863.2918</v>
+        <v>7605</v>
       </c>
       <c r="G121" t="n">
-        <v>323580.7284573521</v>
+        <v>164356.1287573521</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4627,28 +4963,29 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>11.05</v>
+        <v>11.06</v>
       </c>
       <c r="C122" t="n">
-        <v>11.05</v>
+        <v>11.06</v>
       </c>
       <c r="D122" t="n">
-        <v>11.05</v>
+        <v>11.06</v>
       </c>
       <c r="E122" t="n">
-        <v>11.05</v>
+        <v>11.06</v>
       </c>
       <c r="F122" t="n">
-        <v>9404.998</v>
+        <v>1044</v>
       </c>
       <c r="G122" t="n">
-        <v>314175.7304573521</v>
+        <v>164356.1287573521</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4662,28 +4999,29 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>11.03</v>
+        <v>11.06</v>
       </c>
       <c r="C123" t="n">
-        <v>11.02</v>
+        <v>11.06</v>
       </c>
       <c r="D123" t="n">
-        <v>11.07</v>
+        <v>11.06</v>
       </c>
       <c r="E123" t="n">
-        <v>11.02</v>
+        <v>11.06</v>
       </c>
       <c r="F123" t="n">
-        <v>12383.6184</v>
+        <v>146498.3392</v>
       </c>
       <c r="G123" t="n">
-        <v>301792.1120573521</v>
+        <v>164356.1287573521</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4697,28 +5035,29 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>11.07</v>
+        <v>11.18</v>
       </c>
       <c r="C124" t="n">
-        <v>11.1</v>
+        <v>11.18</v>
       </c>
       <c r="D124" t="n">
-        <v>11.1</v>
+        <v>11.18</v>
       </c>
       <c r="E124" t="n">
-        <v>11.07</v>
+        <v>11.18</v>
       </c>
       <c r="F124" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G124" t="n">
-        <v>305792.1120573521</v>
+        <v>164856.1287573521</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4732,28 +5071,29 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>11.03</v>
+        <v>11.18</v>
       </c>
       <c r="C125" t="n">
-        <v>11.1</v>
+        <v>11.18</v>
       </c>
       <c r="D125" t="n">
-        <v>11.1</v>
+        <v>11.18</v>
       </c>
       <c r="E125" t="n">
-        <v>11.03</v>
+        <v>11.18</v>
       </c>
       <c r="F125" t="n">
-        <v>6367.3145</v>
+        <v>30000</v>
       </c>
       <c r="G125" t="n">
-        <v>305792.1120573521</v>
+        <v>164856.1287573521</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4767,28 +5107,29 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>11.02</v>
+        <v>11.06</v>
       </c>
       <c r="C126" t="n">
-        <v>11</v>
+        <v>11.06</v>
       </c>
       <c r="D126" t="n">
-        <v>11.02</v>
+        <v>11.06</v>
       </c>
       <c r="E126" t="n">
-        <v>11</v>
+        <v>11.06</v>
       </c>
       <c r="F126" t="n">
-        <v>39345.9416</v>
+        <v>501.6608</v>
       </c>
       <c r="G126" t="n">
-        <v>266446.1704573521</v>
+        <v>164354.4679573521</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4802,28 +5143,29 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>11</v>
+        <v>11.05</v>
       </c>
       <c r="C127" t="n">
-        <v>11</v>
+        <v>10.99</v>
       </c>
       <c r="D127" t="n">
-        <v>11</v>
+        <v>11.05</v>
       </c>
       <c r="E127" t="n">
-        <v>11</v>
+        <v>10.99</v>
       </c>
       <c r="F127" t="n">
-        <v>10861.567</v>
+        <v>133404.8036</v>
       </c>
       <c r="G127" t="n">
-        <v>266446.1704573521</v>
+        <v>30949.6643573521</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4837,28 +5179,29 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>10.98</v>
+        <v>10.99</v>
       </c>
       <c r="C128" t="n">
-        <v>10.98</v>
+        <v>10.99</v>
       </c>
       <c r="D128" t="n">
-        <v>10.98</v>
+        <v>10.99</v>
       </c>
       <c r="E128" t="n">
-        <v>10.98</v>
+        <v>10.99</v>
       </c>
       <c r="F128" t="n">
-        <v>5756.8565</v>
+        <v>541</v>
       </c>
       <c r="G128" t="n">
-        <v>260689.3139573521</v>
+        <v>30949.6643573521</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4872,28 +5215,29 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>11</v>
+        <v>10.99</v>
       </c>
       <c r="C129" t="n">
-        <v>11.07</v>
+        <v>10.98</v>
       </c>
       <c r="D129" t="n">
-        <v>11.07</v>
+        <v>11.16</v>
       </c>
       <c r="E129" t="n">
-        <v>11</v>
+        <v>10.98</v>
       </c>
       <c r="F129" t="n">
-        <v>16786</v>
+        <v>98882.36689999999</v>
       </c>
       <c r="G129" t="n">
-        <v>277475.3139573521</v>
+        <v>-67932.70254264789</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4907,28 +5251,29 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>11.07</v>
+        <v>10.98</v>
       </c>
       <c r="C130" t="n">
-        <v>11.07</v>
+        <v>10.98</v>
       </c>
       <c r="D130" t="n">
-        <v>11.07</v>
+        <v>10.98</v>
       </c>
       <c r="E130" t="n">
-        <v>11.07</v>
+        <v>10.98</v>
       </c>
       <c r="F130" t="n">
-        <v>1201</v>
+        <v>3922</v>
       </c>
       <c r="G130" t="n">
-        <v>277475.3139573521</v>
+        <v>-67932.70254264789</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4942,28 +5287,29 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>10.98</v>
+        <v>10.97</v>
       </c>
       <c r="C131" t="n">
-        <v>10.98</v>
+        <v>10.97</v>
       </c>
       <c r="D131" t="n">
-        <v>10.98</v>
+        <v>10.97</v>
       </c>
       <c r="E131" t="n">
-        <v>10.98</v>
+        <v>10.97</v>
       </c>
       <c r="F131" t="n">
-        <v>46</v>
+        <v>965.8089</v>
       </c>
       <c r="G131" t="n">
-        <v>277429.3139573521</v>
+        <v>-68898.5114426479</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4977,28 +5323,29 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>10.99</v>
+        <v>10.97</v>
       </c>
       <c r="C132" t="n">
-        <v>11.07</v>
+        <v>10.97</v>
       </c>
       <c r="D132" t="n">
-        <v>11.07</v>
+        <v>10.97</v>
       </c>
       <c r="E132" t="n">
-        <v>10.99</v>
+        <v>10.97</v>
       </c>
       <c r="F132" t="n">
-        <v>96828.16310000001</v>
+        <v>33196.7362</v>
       </c>
       <c r="G132" t="n">
-        <v>374257.4770573521</v>
+        <v>-68898.5114426479</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5012,28 +5359,29 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>10.98</v>
+        <v>10.96</v>
       </c>
       <c r="C133" t="n">
-        <v>10.98</v>
+        <v>10.96</v>
       </c>
       <c r="D133" t="n">
-        <v>10.98</v>
+        <v>10.96</v>
       </c>
       <c r="E133" t="n">
-        <v>10.98</v>
+        <v>10.96</v>
       </c>
       <c r="F133" t="n">
-        <v>100</v>
+        <v>21698.8804</v>
       </c>
       <c r="G133" t="n">
-        <v>374157.4770573521</v>
+        <v>-90597.39184264789</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5047,28 +5395,29 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>10.99</v>
+        <v>10.96</v>
       </c>
       <c r="C134" t="n">
-        <v>10.99</v>
+        <v>10.96</v>
       </c>
       <c r="D134" t="n">
-        <v>10.99</v>
+        <v>10.96</v>
       </c>
       <c r="E134" t="n">
-        <v>10.99</v>
+        <v>10.96</v>
       </c>
       <c r="F134" t="n">
-        <v>1856.2332</v>
+        <v>2000</v>
       </c>
       <c r="G134" t="n">
-        <v>376013.7102573521</v>
+        <v>-90597.39184264789</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5082,28 +5431,29 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>11.07</v>
+        <v>10.95</v>
       </c>
       <c r="C135" t="n">
-        <v>11.07</v>
+        <v>10.95</v>
       </c>
       <c r="D135" t="n">
-        <v>11.07</v>
+        <v>10.95</v>
       </c>
       <c r="E135" t="n">
-        <v>11.07</v>
+        <v>10.95</v>
       </c>
       <c r="F135" t="n">
-        <v>2546</v>
+        <v>21225.1064</v>
       </c>
       <c r="G135" t="n">
-        <v>378559.7102573521</v>
+        <v>-111822.4982426479</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5117,28 +5467,29 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>11.07</v>
+        <v>10.94</v>
       </c>
       <c r="C136" t="n">
-        <v>11.07</v>
+        <v>10.93</v>
       </c>
       <c r="D136" t="n">
-        <v>11.07</v>
+        <v>10.94</v>
       </c>
       <c r="E136" t="n">
-        <v>11.07</v>
+        <v>10.93</v>
       </c>
       <c r="F136" t="n">
-        <v>15125.6725</v>
+        <v>81329.70510000001</v>
       </c>
       <c r="G136" t="n">
-        <v>378559.7102573521</v>
+        <v>-193152.2033426479</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5152,28 +5503,29 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>11.2</v>
+        <v>10.93</v>
       </c>
       <c r="C137" t="n">
-        <v>11.2</v>
+        <v>10.93</v>
       </c>
       <c r="D137" t="n">
-        <v>11.2</v>
+        <v>10.93</v>
       </c>
       <c r="E137" t="n">
-        <v>11.2</v>
+        <v>10.93</v>
       </c>
       <c r="F137" t="n">
-        <v>46190.4524</v>
+        <v>5595.8438</v>
       </c>
       <c r="G137" t="n">
-        <v>424750.1626573521</v>
+        <v>-193152.2033426479</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5187,28 +5539,29 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>11.04</v>
+        <v>10.93</v>
       </c>
       <c r="C138" t="n">
-        <v>11.04</v>
+        <v>10.93</v>
       </c>
       <c r="D138" t="n">
-        <v>11.04</v>
+        <v>10.93</v>
       </c>
       <c r="E138" t="n">
-        <v>11.04</v>
+        <v>10.93</v>
       </c>
       <c r="F138" t="n">
-        <v>542.0997</v>
+        <v>10000</v>
       </c>
       <c r="G138" t="n">
-        <v>424208.0629573521</v>
+        <v>-193152.2033426479</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5222,28 +5575,29 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>11.04</v>
+        <v>10.93</v>
       </c>
       <c r="C139" t="n">
-        <v>11.17</v>
+        <v>10.93</v>
       </c>
       <c r="D139" t="n">
-        <v>11.17</v>
+        <v>10.93</v>
       </c>
       <c r="E139" t="n">
-        <v>11.04</v>
+        <v>10.93</v>
       </c>
       <c r="F139" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="G139" t="n">
-        <v>447208.0629573521</v>
+        <v>-193152.2033426479</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5257,28 +5611,29 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>11.09</v>
+        <v>10.97</v>
       </c>
       <c r="C140" t="n">
-        <v>11.09</v>
+        <v>10.97</v>
       </c>
       <c r="D140" t="n">
-        <v>11.09</v>
+        <v>10.97</v>
       </c>
       <c r="E140" t="n">
-        <v>11.09</v>
+        <v>10.97</v>
       </c>
       <c r="F140" t="n">
-        <v>1039.9672</v>
+        <v>5595.8438</v>
       </c>
       <c r="G140" t="n">
-        <v>446168.0957573521</v>
+        <v>-187556.3595426479</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5292,28 +5647,29 @@
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>11.19</v>
+        <v>11</v>
       </c>
       <c r="C141" t="n">
-        <v>11.19</v>
+        <v>11</v>
       </c>
       <c r="D141" t="n">
-        <v>11.19</v>
+        <v>11</v>
       </c>
       <c r="E141" t="n">
-        <v>11.19</v>
+        <v>11</v>
       </c>
       <c r="F141" t="n">
-        <v>903</v>
+        <v>4211.8824</v>
       </c>
       <c r="G141" t="n">
-        <v>447071.0957573521</v>
+        <v>-183344.4771426479</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5327,28 +5683,29 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>11</v>
+        <v>11.18</v>
       </c>
       <c r="C142" t="n">
-        <v>11</v>
+        <v>11.18</v>
       </c>
       <c r="D142" t="n">
-        <v>11</v>
+        <v>11.18</v>
       </c>
       <c r="E142" t="n">
-        <v>11</v>
+        <v>11.18</v>
       </c>
       <c r="F142" t="n">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="G142" t="n">
-        <v>427071.0957573521</v>
+        <v>-181344.4771426479</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5362,28 +5719,29 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>11.09</v>
+        <v>11.18</v>
       </c>
       <c r="C143" t="n">
-        <v>11.09</v>
+        <v>11.18</v>
       </c>
       <c r="D143" t="n">
-        <v>11.09</v>
+        <v>11.18</v>
       </c>
       <c r="E143" t="n">
-        <v>11.09</v>
+        <v>11.18</v>
       </c>
       <c r="F143" t="n">
-        <v>10025</v>
+        <v>21105.8159</v>
       </c>
       <c r="G143" t="n">
-        <v>437096.0957573521</v>
+        <v>-181344.4771426479</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5397,28 +5755,29 @@
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>11.01</v>
+        <v>11.35</v>
       </c>
       <c r="C144" t="n">
-        <v>11.01</v>
+        <v>11.35</v>
       </c>
       <c r="D144" t="n">
-        <v>11.01</v>
+        <v>11.35</v>
       </c>
       <c r="E144" t="n">
-        <v>11.01</v>
+        <v>11.35</v>
       </c>
       <c r="F144" t="n">
-        <v>6959.5231</v>
+        <v>500</v>
       </c>
       <c r="G144" t="n">
-        <v>430136.5726573521</v>
+        <v>-180844.4771426479</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5432,28 +5791,29 @@
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>11.01</v>
+        <v>11.31</v>
       </c>
       <c r="C145" t="n">
-        <v>11.01</v>
+        <v>11.31</v>
       </c>
       <c r="D145" t="n">
-        <v>11.01</v>
+        <v>11.31</v>
       </c>
       <c r="E145" t="n">
-        <v>11.01</v>
+        <v>11.31</v>
       </c>
       <c r="F145" t="n">
-        <v>9000</v>
+        <v>884.1732979664014</v>
       </c>
       <c r="G145" t="n">
-        <v>430136.5726573521</v>
+        <v>-181728.6504406143</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5467,28 +5827,29 @@
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>11.09</v>
+        <v>11.31</v>
       </c>
       <c r="C146" t="n">
-        <v>11.1</v>
+        <v>11.36</v>
       </c>
       <c r="D146" t="n">
-        <v>11.1</v>
+        <v>11.36</v>
       </c>
       <c r="E146" t="n">
-        <v>11.09</v>
+        <v>11.31</v>
       </c>
       <c r="F146" t="n">
-        <v>57590</v>
+        <v>174484.0381</v>
       </c>
       <c r="G146" t="n">
-        <v>487726.5726573521</v>
+        <v>-7244.612340614287</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5502,28 +5863,29 @@
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>11.1</v>
+        <v>11.36</v>
       </c>
       <c r="C147" t="n">
-        <v>11.1</v>
+        <v>11.36</v>
       </c>
       <c r="D147" t="n">
-        <v>11.1</v>
+        <v>11.36</v>
       </c>
       <c r="E147" t="n">
-        <v>11.1</v>
+        <v>11.36</v>
       </c>
       <c r="F147" t="n">
-        <v>16475</v>
+        <v>76.20050000000001</v>
       </c>
       <c r="G147" t="n">
-        <v>487726.5726573521</v>
+        <v>-7244.612340614287</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5537,28 +5899,29 @@
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>11.1</v>
+        <v>11.25</v>
       </c>
       <c r="C148" t="n">
-        <v>11.1</v>
+        <v>11.25</v>
       </c>
       <c r="D148" t="n">
-        <v>11.1</v>
+        <v>11.25</v>
       </c>
       <c r="E148" t="n">
-        <v>11.1</v>
+        <v>11.25</v>
       </c>
       <c r="F148" t="n">
-        <v>6000</v>
+        <v>11515.5964</v>
       </c>
       <c r="G148" t="n">
-        <v>487726.5726573521</v>
+        <v>-18760.20874061429</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5572,28 +5935,29 @@
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>11.1</v>
+        <v>11.26</v>
       </c>
       <c r="C149" t="n">
-        <v>11.38</v>
+        <v>11.26</v>
       </c>
       <c r="D149" t="n">
-        <v>11.38</v>
+        <v>11.26</v>
       </c>
       <c r="E149" t="n">
-        <v>11.1</v>
+        <v>11.26</v>
       </c>
       <c r="F149" t="n">
-        <v>31488</v>
+        <v>24000</v>
       </c>
       <c r="G149" t="n">
-        <v>519214.5726573521</v>
+        <v>5239.791259385711</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5607,34 +5971,35 @@
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>11.38</v>
+        <v>11.26</v>
       </c>
       <c r="C150" t="n">
-        <v>11.38</v>
+        <v>11.25</v>
       </c>
       <c r="D150" t="n">
-        <v>11.38</v>
+        <v>11.26</v>
       </c>
       <c r="E150" t="n">
-        <v>11.38</v>
+        <v>11.25</v>
       </c>
       <c r="F150" t="n">
-        <v>4211.8824</v>
+        <v>260000</v>
       </c>
       <c r="G150" t="n">
-        <v>519214.5726573521</v>
+        <v>-254760.2087406143</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
@@ -5642,34 +6007,35 @@
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>11.38</v>
+        <v>11.34</v>
       </c>
       <c r="C151" t="n">
-        <v>11.38</v>
+        <v>11.34</v>
       </c>
       <c r="D151" t="n">
-        <v>11.38</v>
+        <v>11.34</v>
       </c>
       <c r="E151" t="n">
-        <v>11.38</v>
+        <v>11.34</v>
       </c>
       <c r="F151" t="n">
-        <v>193753.19</v>
+        <v>2000</v>
       </c>
       <c r="G151" t="n">
-        <v>519214.5726573521</v>
+        <v>-252760.2087406143</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
@@ -5677,34 +6043,35 @@
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>11.37</v>
+        <v>11.34</v>
       </c>
       <c r="C152" t="n">
-        <v>11.22</v>
+        <v>11.34</v>
       </c>
       <c r="D152" t="n">
-        <v>11.37</v>
+        <v>11.34</v>
       </c>
       <c r="E152" t="n">
-        <v>11.22</v>
+        <v>11.34</v>
       </c>
       <c r="F152" t="n">
-        <v>22000</v>
+        <v>3903.4635</v>
       </c>
       <c r="G152" t="n">
-        <v>497214.5726573521</v>
+        <v>-252760.2087406143</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
@@ -5712,28 +6079,29 @@
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>11.3</v>
+        <v>11.34</v>
       </c>
       <c r="C153" t="n">
-        <v>11.27</v>
+        <v>11.34</v>
       </c>
       <c r="D153" t="n">
-        <v>11.3</v>
+        <v>11.34</v>
       </c>
       <c r="E153" t="n">
-        <v>11.27</v>
+        <v>11.34</v>
       </c>
       <c r="F153" t="n">
-        <v>58600</v>
+        <v>162716.4097</v>
       </c>
       <c r="G153" t="n">
-        <v>555814.5726573521</v>
+        <v>-252760.2087406143</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5747,28 +6115,29 @@
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>11.27</v>
+        <v>11.34</v>
       </c>
       <c r="C154" t="n">
-        <v>11.21</v>
+        <v>11.34</v>
       </c>
       <c r="D154" t="n">
-        <v>11.27</v>
+        <v>11.34</v>
       </c>
       <c r="E154" t="n">
-        <v>11.21</v>
+        <v>11.34</v>
       </c>
       <c r="F154" t="n">
-        <v>101692.0964</v>
+        <v>130000</v>
       </c>
       <c r="G154" t="n">
-        <v>454122.4762573521</v>
+        <v>-252760.2087406143</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5782,28 +6151,29 @@
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>11.16</v>
+        <v>11.35</v>
       </c>
       <c r="C155" t="n">
-        <v>11.14</v>
+        <v>11.35</v>
       </c>
       <c r="D155" t="n">
-        <v>11.16</v>
+        <v>11.35</v>
       </c>
       <c r="E155" t="n">
-        <v>11.14</v>
+        <v>11.35</v>
       </c>
       <c r="F155" t="n">
-        <v>13830.3958</v>
+        <v>10095.3249</v>
       </c>
       <c r="G155" t="n">
-        <v>440292.0804573521</v>
+        <v>-242664.8838406143</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5817,1610 +6187,7 @@
       <c r="M155" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>11.14</v>
-      </c>
-      <c r="C156" t="n">
-        <v>11.14</v>
-      </c>
-      <c r="D156" t="n">
-        <v>11.14</v>
-      </c>
-      <c r="E156" t="n">
-        <v>11.14</v>
-      </c>
-      <c r="F156" t="n">
-        <v>14519.6042</v>
-      </c>
-      <c r="G156" t="n">
-        <v>440292.0804573521</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>11.14</v>
-      </c>
-      <c r="C157" t="n">
-        <v>11.14</v>
-      </c>
-      <c r="D157" t="n">
-        <v>11.14</v>
-      </c>
-      <c r="E157" t="n">
-        <v>11.14</v>
-      </c>
-      <c r="F157" t="n">
-        <v>85050</v>
-      </c>
-      <c r="G157" t="n">
-        <v>440292.0804573521</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="C158" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="D158" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="E158" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="F158" t="n">
-        <v>925</v>
-      </c>
-      <c r="G158" t="n">
-        <v>441217.0804573521</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>11.08</v>
-      </c>
-      <c r="C159" t="n">
-        <v>11.08</v>
-      </c>
-      <c r="D159" t="n">
-        <v>11.08</v>
-      </c>
-      <c r="E159" t="n">
-        <v>11.08</v>
-      </c>
-      <c r="F159" t="n">
-        <v>9556.2017</v>
-      </c>
-      <c r="G159" t="n">
-        <v>431660.8787573521</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="C160" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="D160" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="E160" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="F160" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G160" t="n">
-        <v>436660.8787573521</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="C161" t="n">
-        <v>11.06</v>
-      </c>
-      <c r="D161" t="n">
-        <v>11.07</v>
-      </c>
-      <c r="E161" t="n">
-        <v>11.06</v>
-      </c>
-      <c r="F161" t="n">
-        <v>272304.75</v>
-      </c>
-      <c r="G161" t="n">
-        <v>164356.1287573521</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>11.06</v>
-      </c>
-      <c r="C162" t="n">
-        <v>11.06</v>
-      </c>
-      <c r="D162" t="n">
-        <v>11.06</v>
-      </c>
-      <c r="E162" t="n">
-        <v>11.06</v>
-      </c>
-      <c r="F162" t="n">
-        <v>3314</v>
-      </c>
-      <c r="G162" t="n">
-        <v>164356.1287573521</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>11.06</v>
-      </c>
-      <c r="C163" t="n">
-        <v>11.06</v>
-      </c>
-      <c r="D163" t="n">
-        <v>11.06</v>
-      </c>
-      <c r="E163" t="n">
-        <v>11.06</v>
-      </c>
-      <c r="F163" t="n">
-        <v>7605</v>
-      </c>
-      <c r="G163" t="n">
-        <v>164356.1287573521</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>11.06</v>
-      </c>
-      <c r="C164" t="n">
-        <v>11.06</v>
-      </c>
-      <c r="D164" t="n">
-        <v>11.06</v>
-      </c>
-      <c r="E164" t="n">
-        <v>11.06</v>
-      </c>
-      <c r="F164" t="n">
-        <v>1044</v>
-      </c>
-      <c r="G164" t="n">
-        <v>164356.1287573521</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>11.06</v>
-      </c>
-      <c r="C165" t="n">
-        <v>11.06</v>
-      </c>
-      <c r="D165" t="n">
-        <v>11.06</v>
-      </c>
-      <c r="E165" t="n">
-        <v>11.06</v>
-      </c>
-      <c r="F165" t="n">
-        <v>146498.3392</v>
-      </c>
-      <c r="G165" t="n">
-        <v>164356.1287573521</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>11.18</v>
-      </c>
-      <c r="C166" t="n">
-        <v>11.18</v>
-      </c>
-      <c r="D166" t="n">
-        <v>11.18</v>
-      </c>
-      <c r="E166" t="n">
-        <v>11.18</v>
-      </c>
-      <c r="F166" t="n">
-        <v>500</v>
-      </c>
-      <c r="G166" t="n">
-        <v>164856.1287573521</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>11.18</v>
-      </c>
-      <c r="C167" t="n">
-        <v>11.18</v>
-      </c>
-      <c r="D167" t="n">
-        <v>11.18</v>
-      </c>
-      <c r="E167" t="n">
-        <v>11.18</v>
-      </c>
-      <c r="F167" t="n">
-        <v>30000</v>
-      </c>
-      <c r="G167" t="n">
-        <v>164856.1287573521</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>11.06</v>
-      </c>
-      <c r="C168" t="n">
-        <v>11.06</v>
-      </c>
-      <c r="D168" t="n">
-        <v>11.06</v>
-      </c>
-      <c r="E168" t="n">
-        <v>11.06</v>
-      </c>
-      <c r="F168" t="n">
-        <v>501.6608</v>
-      </c>
-      <c r="G168" t="n">
-        <v>164354.4679573521</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>11.05</v>
-      </c>
-      <c r="C169" t="n">
-        <v>10.99</v>
-      </c>
-      <c r="D169" t="n">
-        <v>11.05</v>
-      </c>
-      <c r="E169" t="n">
-        <v>10.99</v>
-      </c>
-      <c r="F169" t="n">
-        <v>133404.8036</v>
-      </c>
-      <c r="G169" t="n">
-        <v>30949.6643573521</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>10.99</v>
-      </c>
-      <c r="C170" t="n">
-        <v>10.99</v>
-      </c>
-      <c r="D170" t="n">
-        <v>10.99</v>
-      </c>
-      <c r="E170" t="n">
-        <v>10.99</v>
-      </c>
-      <c r="F170" t="n">
-        <v>541</v>
-      </c>
-      <c r="G170" t="n">
-        <v>30949.6643573521</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>10.99</v>
-      </c>
-      <c r="C171" t="n">
-        <v>10.98</v>
-      </c>
-      <c r="D171" t="n">
-        <v>11.16</v>
-      </c>
-      <c r="E171" t="n">
-        <v>10.98</v>
-      </c>
-      <c r="F171" t="n">
-        <v>98882.36689999999</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-67932.70254264789</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>10.98</v>
-      </c>
-      <c r="C172" t="n">
-        <v>10.98</v>
-      </c>
-      <c r="D172" t="n">
-        <v>10.98</v>
-      </c>
-      <c r="E172" t="n">
-        <v>10.98</v>
-      </c>
-      <c r="F172" t="n">
-        <v>3922</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-67932.70254264789</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="C173" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="D173" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="E173" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="F173" t="n">
-        <v>965.8089</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-68898.5114426479</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="C174" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="D174" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="E174" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="F174" t="n">
-        <v>33196.7362</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-68898.5114426479</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="C175" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="D175" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="E175" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="F175" t="n">
-        <v>21698.8804</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-90597.39184264789</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="C176" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="D176" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="E176" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="F176" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-90597.39184264789</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="C177" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="D177" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="E177" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="F177" t="n">
-        <v>21225.1064</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-111822.4982426479</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="K177" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>10.94</v>
-      </c>
-      <c r="C178" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="D178" t="n">
-        <v>10.94</v>
-      </c>
-      <c r="E178" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="F178" t="n">
-        <v>81329.70510000001</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-193152.2033426479</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="K178" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="C179" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="D179" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="E179" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="F179" t="n">
-        <v>5595.8438</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-193152.2033426479</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K179" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="C180" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="D180" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="E180" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="F180" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-193152.2033426479</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K180" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="C181" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="D181" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="E181" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="F181" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-193152.2033426479</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K181" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="C182" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="D182" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="E182" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="F182" t="n">
-        <v>5595.8438</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-187556.3595426479</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K182" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>11</v>
-      </c>
-      <c r="C183" t="n">
-        <v>11</v>
-      </c>
-      <c r="D183" t="n">
-        <v>11</v>
-      </c>
-      <c r="E183" t="n">
-        <v>11</v>
-      </c>
-      <c r="F183" t="n">
-        <v>4211.8824</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-183344.4771426479</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>11.18</v>
-      </c>
-      <c r="C184" t="n">
-        <v>11.18</v>
-      </c>
-      <c r="D184" t="n">
-        <v>11.18</v>
-      </c>
-      <c r="E184" t="n">
-        <v>11.18</v>
-      </c>
-      <c r="F184" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-181344.4771426479</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>11.18</v>
-      </c>
-      <c r="C185" t="n">
-        <v>11.18</v>
-      </c>
-      <c r="D185" t="n">
-        <v>11.18</v>
-      </c>
-      <c r="E185" t="n">
-        <v>11.18</v>
-      </c>
-      <c r="F185" t="n">
-        <v>21105.8159</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-181344.4771426479</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="C186" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="D186" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="E186" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="F186" t="n">
-        <v>500</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-180844.4771426479</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>11.31</v>
-      </c>
-      <c r="C187" t="n">
-        <v>11.31</v>
-      </c>
-      <c r="D187" t="n">
-        <v>11.31</v>
-      </c>
-      <c r="E187" t="n">
-        <v>11.31</v>
-      </c>
-      <c r="F187" t="n">
-        <v>884.1732979664014</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-181728.6504406143</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>11.31</v>
-      </c>
-      <c r="C188" t="n">
-        <v>11.36</v>
-      </c>
-      <c r="D188" t="n">
-        <v>11.36</v>
-      </c>
-      <c r="E188" t="n">
-        <v>11.31</v>
-      </c>
-      <c r="F188" t="n">
-        <v>174484.0381</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-7244.612340614287</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>11.36</v>
-      </c>
-      <c r="C189" t="n">
-        <v>11.36</v>
-      </c>
-      <c r="D189" t="n">
-        <v>11.36</v>
-      </c>
-      <c r="E189" t="n">
-        <v>11.36</v>
-      </c>
-      <c r="F189" t="n">
-        <v>76.20050000000001</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-7244.612340614287</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="C190" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="D190" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="E190" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="F190" t="n">
-        <v>11515.5964</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-18760.20874061429</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="C191" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="D191" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="E191" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="F191" t="n">
-        <v>24000</v>
-      </c>
-      <c r="G191" t="n">
-        <v>5239.791259385711</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="C192" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="D192" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="E192" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="F192" t="n">
-        <v>260000</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-254760.2087406143</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="C193" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="D193" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="E193" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="F193" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-252760.2087406143</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="C194" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="D194" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="E194" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="F194" t="n">
-        <v>3903.4635</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-252760.2087406143</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="C195" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="D195" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="E195" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="F195" t="n">
-        <v>162716.4097</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-252760.2087406143</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="C196" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="D196" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="E196" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="F196" t="n">
-        <v>130000</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-252760.2087406143</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="C197" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="D197" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="E197" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="F197" t="n">
-        <v>10095.3249</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-242664.8838406143</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
+      <c r="N155" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-25 BackTest OGO.xlsx
+++ b/BackTest/2020-01-25 BackTest OGO.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N155"/>
+  <dimension ref="A1:N226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10.88</v>
+        <v>10.86</v>
       </c>
       <c r="C2" t="n">
-        <v>10.88</v>
+        <v>11.01</v>
       </c>
       <c r="D2" t="n">
-        <v>10.88</v>
+        <v>11.01</v>
       </c>
       <c r="E2" t="n">
-        <v>10.88</v>
+        <v>10.86</v>
       </c>
       <c r="F2" t="n">
-        <v>4475.0844</v>
+        <v>35028.044</v>
       </c>
       <c r="G2" t="n">
-        <v>584109.1598999996</v>
+        <v>1006198.7468</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10.99</v>
+        <v>11.01</v>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>11.01</v>
       </c>
       <c r="D3" t="n">
-        <v>11</v>
+        <v>11.01</v>
       </c>
       <c r="E3" t="n">
-        <v>10.99</v>
+        <v>11.01</v>
       </c>
       <c r="F3" t="n">
-        <v>40000</v>
+        <v>102.6699</v>
       </c>
       <c r="G3" t="n">
-        <v>624109.1598999996</v>
+        <v>1006198.7468</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11</v>
+        <v>10.85</v>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>10.85</v>
       </c>
       <c r="D4" t="n">
-        <v>11</v>
+        <v>10.85</v>
       </c>
       <c r="E4" t="n">
-        <v>11</v>
+        <v>10.85</v>
       </c>
       <c r="F4" t="n">
-        <v>134952.2936</v>
+        <v>27000</v>
       </c>
       <c r="G4" t="n">
-        <v>624109.1598999996</v>
+        <v>979198.7468</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,31 +546,35 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11.12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>11.12</v>
+        <v>11.01</v>
       </c>
       <c r="D5" t="n">
-        <v>11.12</v>
+        <v>11.01</v>
       </c>
       <c r="E5" t="n">
-        <v>11.12</v>
+        <v>11</v>
       </c>
       <c r="F5" t="n">
-        <v>46</v>
+        <v>2000</v>
       </c>
       <c r="G5" t="n">
-        <v>624155.1598999996</v>
+        <v>981198.7468</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>10.85</v>
+      </c>
+      <c r="K5" t="n">
+        <v>10.85</v>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
@@ -582,22 +586,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>11.12</v>
+        <v>11.01</v>
       </c>
       <c r="C6" t="n">
-        <v>11.12</v>
+        <v>11.02</v>
       </c>
       <c r="D6" t="n">
-        <v>11.12</v>
+        <v>11.02</v>
       </c>
       <c r="E6" t="n">
-        <v>11.12</v>
+        <v>11.01</v>
       </c>
       <c r="F6" t="n">
-        <v>10608.681</v>
+        <v>18000</v>
       </c>
       <c r="G6" t="n">
-        <v>624155.1598999996</v>
+        <v>999198.7468</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -606,8 +610,14 @@
         <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>10.85</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -618,22 +628,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>10.81</v>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>10.81</v>
       </c>
       <c r="D7" t="n">
-        <v>11</v>
+        <v>10.81</v>
       </c>
       <c r="E7" t="n">
-        <v>11</v>
+        <v>10.81</v>
       </c>
       <c r="F7" t="n">
-        <v>5040.14</v>
+        <v>47</v>
       </c>
       <c r="G7" t="n">
-        <v>619115.0198999996</v>
+        <v>999151.7468</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -642,8 +652,14 @@
         <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>10.85</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,22 +670,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>11.02</v>
       </c>
       <c r="C8" t="n">
-        <v>10.99</v>
+        <v>11.02</v>
       </c>
       <c r="D8" t="n">
-        <v>11</v>
+        <v>11.02</v>
       </c>
       <c r="E8" t="n">
-        <v>10.99</v>
+        <v>10.81</v>
       </c>
       <c r="F8" t="n">
-        <v>73287.92999999999</v>
+        <v>141</v>
       </c>
       <c r="G8" t="n">
-        <v>545827.0898999996</v>
+        <v>999292.7468</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +706,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>10.99</v>
+        <v>10.81</v>
       </c>
       <c r="C9" t="n">
-        <v>10.99</v>
+        <v>11.02</v>
       </c>
       <c r="D9" t="n">
-        <v>10.99</v>
+        <v>11.02</v>
       </c>
       <c r="E9" t="n">
-        <v>10.99</v>
+        <v>10.81</v>
       </c>
       <c r="F9" t="n">
-        <v>115024.7461</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="G9" t="n">
-        <v>545827.0898999996</v>
+        <v>999292.7468</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +742,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>10.93</v>
+        <v>10.81</v>
       </c>
       <c r="C10" t="n">
-        <v>10.79</v>
+        <v>10.81</v>
       </c>
       <c r="D10" t="n">
-        <v>10.93</v>
+        <v>10.81</v>
       </c>
       <c r="E10" t="n">
-        <v>10.79</v>
+        <v>10.81</v>
       </c>
       <c r="F10" t="n">
-        <v>290432.231</v>
+        <v>12795</v>
       </c>
       <c r="G10" t="n">
-        <v>255394.8588999995</v>
+        <v>986497.7468</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +778,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>10.77</v>
+        <v>10.8</v>
       </c>
       <c r="C11" t="n">
-        <v>10.67</v>
+        <v>10.8</v>
       </c>
       <c r="D11" t="n">
-        <v>10.77</v>
+        <v>10.8</v>
       </c>
       <c r="E11" t="n">
-        <v>10.67</v>
+        <v>10.8</v>
       </c>
       <c r="F11" t="n">
-        <v>311960.0297</v>
+        <v>54097.7355</v>
       </c>
       <c r="G11" t="n">
-        <v>-56565.17080000049</v>
+        <v>932400.0113</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +814,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>10.85</v>
+        <v>10.89</v>
       </c>
       <c r="C12" t="n">
-        <v>10.85</v>
+        <v>10.89</v>
       </c>
       <c r="D12" t="n">
-        <v>10.85</v>
+        <v>10.89</v>
       </c>
       <c r="E12" t="n">
-        <v>10.85</v>
+        <v>10.89</v>
       </c>
       <c r="F12" t="n">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="G12" t="n">
-        <v>-52565.17080000049</v>
+        <v>932500.0113</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +850,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>10.7</v>
+        <v>10.89</v>
       </c>
       <c r="C13" t="n">
-        <v>10.7</v>
+        <v>10.9</v>
       </c>
       <c r="D13" t="n">
-        <v>10.7</v>
+        <v>10.9</v>
       </c>
       <c r="E13" t="n">
-        <v>10.7</v>
+        <v>10.89</v>
       </c>
       <c r="F13" t="n">
-        <v>20370.728</v>
+        <v>30000</v>
       </c>
       <c r="G13" t="n">
-        <v>-72935.89880000049</v>
+        <v>962500.0113</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +886,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>10.7</v>
+        <v>10.9</v>
       </c>
       <c r="C14" t="n">
-        <v>10.7</v>
+        <v>10.9</v>
       </c>
       <c r="D14" t="n">
-        <v>10.7</v>
+        <v>10.9</v>
       </c>
       <c r="E14" t="n">
-        <v>10.7</v>
+        <v>10.9</v>
       </c>
       <c r="F14" t="n">
-        <v>1219</v>
+        <v>10541</v>
       </c>
       <c r="G14" t="n">
-        <v>-72935.89880000049</v>
+        <v>962500.0113</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +922,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>10.7</v>
+        <v>10.9</v>
       </c>
       <c r="C15" t="n">
-        <v>10.7</v>
+        <v>11</v>
       </c>
       <c r="D15" t="n">
-        <v>10.7</v>
+        <v>11</v>
       </c>
       <c r="E15" t="n">
-        <v>10.7</v>
+        <v>10.9</v>
       </c>
       <c r="F15" t="n">
-        <v>1652</v>
+        <v>2094.6699</v>
       </c>
       <c r="G15" t="n">
-        <v>-72935.89880000049</v>
+        <v>964594.6812</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +958,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>10.7</v>
+        <v>11.02</v>
       </c>
       <c r="C16" t="n">
-        <v>10.7</v>
+        <v>11.02</v>
       </c>
       <c r="D16" t="n">
-        <v>10.7</v>
+        <v>11.02</v>
       </c>
       <c r="E16" t="n">
-        <v>10.7</v>
+        <v>11.02</v>
       </c>
       <c r="F16" t="n">
-        <v>221</v>
+        <v>21448.6379</v>
       </c>
       <c r="G16" t="n">
-        <v>-72935.89880000049</v>
+        <v>986043.3191</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +994,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>10.69</v>
+        <v>11.02</v>
       </c>
       <c r="C17" t="n">
-        <v>10.77</v>
+        <v>11.02</v>
       </c>
       <c r="D17" t="n">
-        <v>10.77</v>
+        <v>11.02</v>
       </c>
       <c r="E17" t="n">
-        <v>10.69</v>
+        <v>11.02</v>
       </c>
       <c r="F17" t="n">
-        <v>23608.1981</v>
+        <v>110.2188</v>
       </c>
       <c r="G17" t="n">
-        <v>-49327.70070000049</v>
+        <v>986043.3191</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1030,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>10.69</v>
+        <v>11.02</v>
       </c>
       <c r="C18" t="n">
-        <v>10.69</v>
+        <v>11.02</v>
       </c>
       <c r="D18" t="n">
-        <v>10.69</v>
+        <v>11.02</v>
       </c>
       <c r="E18" t="n">
-        <v>10.69</v>
+        <v>11.02</v>
       </c>
       <c r="F18" t="n">
-        <v>4567.6889</v>
+        <v>8415.118</v>
       </c>
       <c r="G18" t="n">
-        <v>-53895.38960000049</v>
+        <v>986043.3191</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1066,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>10.68</v>
+        <v>11.02</v>
       </c>
       <c r="C19" t="n">
-        <v>10.68</v>
+        <v>11.02</v>
       </c>
       <c r="D19" t="n">
-        <v>10.68</v>
+        <v>11.02</v>
       </c>
       <c r="E19" t="n">
-        <v>10.68</v>
+        <v>11.02</v>
       </c>
       <c r="F19" t="n">
-        <v>12795</v>
+        <v>25590</v>
       </c>
       <c r="G19" t="n">
-        <v>-66690.38960000049</v>
+        <v>986043.3191</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1102,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>10.69</v>
+        <v>11.02</v>
       </c>
       <c r="C20" t="n">
-        <v>10.69</v>
+        <v>11.02</v>
       </c>
       <c r="D20" t="n">
-        <v>10.69</v>
+        <v>11.02</v>
       </c>
       <c r="E20" t="n">
-        <v>10.69</v>
+        <v>11.02</v>
       </c>
       <c r="F20" t="n">
-        <v>36000</v>
+        <v>2367.4229</v>
       </c>
       <c r="G20" t="n">
-        <v>-30690.38960000049</v>
+        <v>986043.3191</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1138,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>10.68</v>
+        <v>11.02</v>
       </c>
       <c r="C21" t="n">
-        <v>10.68</v>
+        <v>11.02</v>
       </c>
       <c r="D21" t="n">
-        <v>10.68</v>
+        <v>11.02</v>
       </c>
       <c r="E21" t="n">
-        <v>10.68</v>
+        <v>11.02</v>
       </c>
       <c r="F21" t="n">
-        <v>275</v>
+        <v>10427.5771</v>
       </c>
       <c r="G21" t="n">
-        <v>-30965.38960000049</v>
+        <v>986043.3191</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,38 +1174,32 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>10.68</v>
+        <v>11.12</v>
       </c>
       <c r="C22" t="n">
-        <v>10.67</v>
+        <v>11.12</v>
       </c>
       <c r="D22" t="n">
-        <v>10.68</v>
+        <v>11.12</v>
       </c>
       <c r="E22" t="n">
-        <v>10.67</v>
+        <v>11.12</v>
       </c>
       <c r="F22" t="n">
-        <v>19184.1709</v>
+        <v>110.0998</v>
       </c>
       <c r="G22" t="n">
-        <v>-50149.56050000049</v>
+        <v>986153.4188999999</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>10.68</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1200,38 +1210,32 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>10.69</v>
+        <v>11.13</v>
       </c>
       <c r="C23" t="n">
-        <v>10.69</v>
+        <v>11.13</v>
       </c>
       <c r="D23" t="n">
-        <v>10.69</v>
+        <v>11.13</v>
       </c>
       <c r="E23" t="n">
-        <v>10.69</v>
+        <v>11.13</v>
       </c>
       <c r="F23" t="n">
-        <v>260000</v>
+        <v>55.0998</v>
       </c>
       <c r="G23" t="n">
-        <v>209850.4394999995</v>
+        <v>986208.5186999999</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>10.67</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1242,22 +1246,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>10.69</v>
+        <v>11.13</v>
       </c>
       <c r="C24" t="n">
-        <v>10.69</v>
+        <v>11.13</v>
       </c>
       <c r="D24" t="n">
-        <v>10.69</v>
+        <v>11.13</v>
       </c>
       <c r="E24" t="n">
-        <v>10.69</v>
+        <v>11.13</v>
       </c>
       <c r="F24" t="n">
-        <v>120</v>
+        <v>7334.3971</v>
       </c>
       <c r="G24" t="n">
-        <v>209850.4394999995</v>
+        <v>986208.5186999999</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1267,11 +1271,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1282,22 +1282,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>10.76</v>
+        <v>11.14</v>
       </c>
       <c r="C25" t="n">
-        <v>10.8</v>
+        <v>11.14</v>
       </c>
       <c r="D25" t="n">
-        <v>10.8</v>
+        <v>11.14</v>
       </c>
       <c r="E25" t="n">
-        <v>10.76</v>
+        <v>11.14</v>
       </c>
       <c r="F25" t="n">
-        <v>260000</v>
+        <v>66.7769</v>
       </c>
       <c r="G25" t="n">
-        <v>469850.4394999995</v>
+        <v>986275.2956</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1307,11 +1307,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1322,22 +1318,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>10.9</v>
+        <v>11.14</v>
       </c>
       <c r="C26" t="n">
-        <v>10.8</v>
+        <v>11.14</v>
       </c>
       <c r="D26" t="n">
-        <v>10.9</v>
+        <v>11.14</v>
       </c>
       <c r="E26" t="n">
-        <v>10.8</v>
+        <v>11.14</v>
       </c>
       <c r="F26" t="n">
-        <v>12737</v>
+        <v>100.2</v>
       </c>
       <c r="G26" t="n">
-        <v>469850.4394999995</v>
+        <v>986275.2956</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1347,11 +1343,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1362,22 +1354,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>10.7</v>
+        <v>11.14</v>
       </c>
       <c r="C27" t="n">
-        <v>10.7</v>
+        <v>11.16</v>
       </c>
       <c r="D27" t="n">
-        <v>10.7</v>
+        <v>11.16</v>
       </c>
       <c r="E27" t="n">
-        <v>10.7</v>
+        <v>11.14</v>
       </c>
       <c r="F27" t="n">
-        <v>1856.2332</v>
+        <v>19837.0231</v>
       </c>
       <c r="G27" t="n">
-        <v>467994.2062999995</v>
+        <v>1006112.3187</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1387,11 +1379,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1402,22 +1390,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>10.66</v>
+        <v>11.26</v>
       </c>
       <c r="C28" t="n">
-        <v>10.66</v>
+        <v>11.26</v>
       </c>
       <c r="D28" t="n">
-        <v>10.66</v>
+        <v>11.26</v>
       </c>
       <c r="E28" t="n">
-        <v>10.66</v>
+        <v>11.26</v>
       </c>
       <c r="F28" t="n">
-        <v>143.7668</v>
+        <v>102.2</v>
       </c>
       <c r="G28" t="n">
-        <v>467850.4394999995</v>
+        <v>1006214.5187</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1427,11 +1415,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1442,22 +1426,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>10.7</v>
+        <v>11.27</v>
       </c>
       <c r="C29" t="n">
-        <v>10.66</v>
+        <v>11.27</v>
       </c>
       <c r="D29" t="n">
-        <v>10.7</v>
+        <v>11.27</v>
       </c>
       <c r="E29" t="n">
-        <v>10.66</v>
+        <v>11.27</v>
       </c>
       <c r="F29" t="n">
-        <v>39919.4331</v>
+        <v>66.6699</v>
       </c>
       <c r="G29" t="n">
-        <v>467850.4394999995</v>
+        <v>1006281.1886</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1467,11 +1451,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1482,38 +1462,32 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>10.66</v>
+        <v>11.26</v>
       </c>
       <c r="C30" t="n">
-        <v>10.66</v>
+        <v>11.26</v>
       </c>
       <c r="D30" t="n">
-        <v>10.66</v>
+        <v>11.26</v>
       </c>
       <c r="E30" t="n">
-        <v>10.66</v>
+        <v>11.26</v>
       </c>
       <c r="F30" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G30" t="n">
-        <v>467850.4394999995</v>
+        <v>1001281.1886</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>10.66</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1524,38 +1498,32 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>10.66</v>
+        <v>11.26</v>
       </c>
       <c r="C31" t="n">
-        <v>10.65</v>
+        <v>11.26</v>
       </c>
       <c r="D31" t="n">
-        <v>10.66</v>
+        <v>11.26</v>
       </c>
       <c r="E31" t="n">
-        <v>10.65</v>
+        <v>11.26</v>
       </c>
       <c r="F31" t="n">
-        <v>86933.1428</v>
+        <v>60.9</v>
       </c>
       <c r="G31" t="n">
-        <v>380917.2966999995</v>
+        <v>1001281.1886</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>10.66</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1566,38 +1534,32 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>10.7</v>
+        <v>11.26</v>
       </c>
       <c r="C32" t="n">
-        <v>10.7</v>
+        <v>11.26</v>
       </c>
       <c r="D32" t="n">
-        <v>10.7</v>
+        <v>11.26</v>
       </c>
       <c r="E32" t="n">
-        <v>10.7</v>
+        <v>11.26</v>
       </c>
       <c r="F32" t="n">
-        <v>47</v>
+        <v>1453.5038</v>
       </c>
       <c r="G32" t="n">
-        <v>380964.2966999995</v>
+        <v>1001281.1886</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>10.65</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1608,38 +1570,32 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>10.76</v>
+        <v>11.26</v>
       </c>
       <c r="C33" t="n">
-        <v>10.76</v>
+        <v>11.26</v>
       </c>
       <c r="D33" t="n">
-        <v>10.76</v>
+        <v>11.26</v>
       </c>
       <c r="E33" t="n">
-        <v>10.76</v>
+        <v>11.26</v>
       </c>
       <c r="F33" t="n">
-        <v>47</v>
+        <v>100.2</v>
       </c>
       <c r="G33" t="n">
-        <v>381011.2966999995</v>
+        <v>1001281.1886</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>10.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1650,38 +1606,32 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>10.76</v>
+        <v>11.26</v>
       </c>
       <c r="C34" t="n">
-        <v>10.76</v>
+        <v>11.16</v>
       </c>
       <c r="D34" t="n">
-        <v>10.76</v>
+        <v>11.26</v>
       </c>
       <c r="E34" t="n">
-        <v>10.76</v>
+        <v>11.16</v>
       </c>
       <c r="F34" t="n">
-        <v>2311.391</v>
+        <v>43542.316</v>
       </c>
       <c r="G34" t="n">
-        <v>381011.2966999995</v>
+        <v>957738.8725999999</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>10.76</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1692,38 +1642,32 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>10.76</v>
+        <v>11.26</v>
       </c>
       <c r="C35" t="n">
-        <v>10.76</v>
+        <v>11.26</v>
       </c>
       <c r="D35" t="n">
-        <v>10.76</v>
+        <v>11.26</v>
       </c>
       <c r="E35" t="n">
-        <v>10.76</v>
+        <v>11.26</v>
       </c>
       <c r="F35" t="n">
-        <v>4988.3744</v>
+        <v>101.2</v>
       </c>
       <c r="G35" t="n">
-        <v>381011.2966999995</v>
+        <v>957840.0725999998</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>10.76</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1734,38 +1678,32 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>10.67</v>
+        <v>11.26</v>
       </c>
       <c r="C36" t="n">
-        <v>10.67</v>
+        <v>11.26</v>
       </c>
       <c r="D36" t="n">
-        <v>10.67</v>
+        <v>11.26</v>
       </c>
       <c r="E36" t="n">
-        <v>10.67</v>
+        <v>11.26</v>
       </c>
       <c r="F36" t="n">
-        <v>5741.326</v>
+        <v>4176</v>
       </c>
       <c r="G36" t="n">
-        <v>375269.9706999995</v>
+        <v>957840.0725999998</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>10.76</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1776,36 +1714,32 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>10.77</v>
+        <v>11.26</v>
       </c>
       <c r="C37" t="n">
-        <v>10.77</v>
+        <v>11.26</v>
       </c>
       <c r="D37" t="n">
-        <v>10.77</v>
+        <v>11.26</v>
       </c>
       <c r="E37" t="n">
-        <v>10.77</v>
+        <v>11.26</v>
       </c>
       <c r="F37" t="n">
-        <v>21349.8107</v>
+        <v>10000</v>
       </c>
       <c r="G37" t="n">
-        <v>396619.7813999995</v>
+        <v>957840.0725999998</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1816,36 +1750,32 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>10.77</v>
+        <v>11.26</v>
       </c>
       <c r="C38" t="n">
-        <v>10.67</v>
+        <v>11.26</v>
       </c>
       <c r="D38" t="n">
-        <v>10.77</v>
+        <v>11.26</v>
       </c>
       <c r="E38" t="n">
-        <v>10.67</v>
+        <v>11.26</v>
       </c>
       <c r="F38" t="n">
-        <v>48203.6755</v>
+        <v>4354</v>
       </c>
       <c r="G38" t="n">
-        <v>348416.1058999995</v>
+        <v>957840.0725999998</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1856,36 +1786,32 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>10.79</v>
+        <v>11.16</v>
       </c>
       <c r="C39" t="n">
-        <v>10.79</v>
+        <v>11.26</v>
       </c>
       <c r="D39" t="n">
-        <v>10.79</v>
+        <v>11.26</v>
       </c>
       <c r="E39" t="n">
-        <v>10.79</v>
+        <v>11.1</v>
       </c>
       <c r="F39" t="n">
-        <v>47</v>
+        <v>50444.4645</v>
       </c>
       <c r="G39" t="n">
-        <v>348463.1058999995</v>
+        <v>957840.0725999998</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1896,22 +1822,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>10.79</v>
+        <v>11.2</v>
       </c>
       <c r="C40" t="n">
-        <v>11.13</v>
+        <v>11.04</v>
       </c>
       <c r="D40" t="n">
-        <v>11.13</v>
+        <v>11.2</v>
       </c>
       <c r="E40" t="n">
-        <v>10.79</v>
+        <v>11.04</v>
       </c>
       <c r="F40" t="n">
-        <v>10000</v>
+        <v>11968.99</v>
       </c>
       <c r="G40" t="n">
-        <v>358463.1058999995</v>
+        <v>945871.0825999998</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1921,11 +1847,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1936,22 +1858,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>11.05</v>
+        <v>11.07</v>
       </c>
       <c r="C41" t="n">
-        <v>11.05</v>
+        <v>11.2</v>
       </c>
       <c r="D41" t="n">
-        <v>11.05</v>
+        <v>11.2</v>
       </c>
       <c r="E41" t="n">
-        <v>11.05</v>
+        <v>11.01</v>
       </c>
       <c r="F41" t="n">
-        <v>1692.4656</v>
+        <v>186175.7456</v>
       </c>
       <c r="G41" t="n">
-        <v>356770.6402999995</v>
+        <v>1132046.8282</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1961,11 +1883,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1976,22 +1894,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>11.06</v>
+        <v>11.19</v>
       </c>
       <c r="C42" t="n">
-        <v>11.14</v>
+        <v>11.2</v>
       </c>
       <c r="D42" t="n">
-        <v>11.14</v>
+        <v>11.2</v>
       </c>
       <c r="E42" t="n">
-        <v>11.06</v>
+        <v>11.19</v>
       </c>
       <c r="F42" t="n">
-        <v>1593</v>
+        <v>939</v>
       </c>
       <c r="G42" t="n">
-        <v>358363.6402999995</v>
+        <v>1132046.8282</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2001,11 +1919,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2016,36 +1930,32 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>10.97</v>
+        <v>11.02</v>
       </c>
       <c r="C43" t="n">
-        <v>10.97</v>
+        <v>11.02</v>
       </c>
       <c r="D43" t="n">
-        <v>10.97</v>
+        <v>11.02</v>
       </c>
       <c r="E43" t="n">
-        <v>10.97</v>
+        <v>11.02</v>
       </c>
       <c r="F43" t="n">
-        <v>16000</v>
+        <v>46</v>
       </c>
       <c r="G43" t="n">
-        <v>342363.6402999995</v>
+        <v>1132000.8282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2056,22 +1966,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>10.97</v>
+        <v>11.07</v>
       </c>
       <c r="C44" t="n">
-        <v>10.97</v>
+        <v>11.19</v>
       </c>
       <c r="D44" t="n">
-        <v>10.97</v>
+        <v>11.19</v>
       </c>
       <c r="E44" t="n">
-        <v>10.97</v>
+        <v>11.06</v>
       </c>
       <c r="F44" t="n">
-        <v>4000</v>
+        <v>52589.855</v>
       </c>
       <c r="G44" t="n">
-        <v>342363.6402999995</v>
+        <v>1184590.6832</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2081,11 +1991,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2096,22 +2002,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>11.14</v>
+        <v>11.01</v>
       </c>
       <c r="C45" t="n">
-        <v>11.26</v>
+        <v>11.01</v>
       </c>
       <c r="D45" t="n">
-        <v>11.26</v>
+        <v>11.01</v>
       </c>
       <c r="E45" t="n">
-        <v>11.14</v>
+        <v>11</v>
       </c>
       <c r="F45" t="n">
-        <v>43867.18779182948</v>
+        <v>93173</v>
       </c>
       <c r="G45" t="n">
-        <v>386230.828091829</v>
+        <v>1091417.6832</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2121,11 +2027,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2136,22 +2038,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>11.1</v>
+        <v>11.01</v>
       </c>
       <c r="C46" t="n">
         <v>11.01</v>
       </c>
       <c r="D46" t="n">
-        <v>11.1</v>
+        <v>11.01</v>
       </c>
       <c r="E46" t="n">
         <v>11.01</v>
       </c>
       <c r="F46" t="n">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="G46" t="n">
-        <v>366230.828091829</v>
+        <v>1091417.6832</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2161,11 +2063,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2176,22 +2074,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>10.97</v>
+        <v>11</v>
       </c>
       <c r="C47" t="n">
-        <v>11.19</v>
+        <v>11</v>
       </c>
       <c r="D47" t="n">
-        <v>11.19</v>
+        <v>11</v>
       </c>
       <c r="E47" t="n">
-        <v>10.95</v>
+        <v>11</v>
       </c>
       <c r="F47" t="n">
-        <v>282000</v>
+        <v>237</v>
       </c>
       <c r="G47" t="n">
-        <v>648230.828091829</v>
+        <v>1091180.6832</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2201,11 +2099,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2216,22 +2110,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>11</v>
+        <v>10.94</v>
       </c>
       <c r="C48" t="n">
-        <v>10.99</v>
+        <v>10.94</v>
       </c>
       <c r="D48" t="n">
-        <v>11</v>
+        <v>10.94</v>
       </c>
       <c r="E48" t="n">
-        <v>10.99</v>
+        <v>10.94</v>
       </c>
       <c r="F48" t="n">
-        <v>23368.6656</v>
+        <v>14445.1414</v>
       </c>
       <c r="G48" t="n">
-        <v>624862.162491829</v>
+        <v>1076735.5418</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2241,11 +2135,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2256,7 +2146,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>10.93</v>
+        <v>10.91</v>
       </c>
       <c r="C49" t="n">
         <v>10.93</v>
@@ -2265,13 +2155,13 @@
         <v>10.93</v>
       </c>
       <c r="E49" t="n">
-        <v>10.93</v>
+        <v>10.9</v>
       </c>
       <c r="F49" t="n">
-        <v>870.3495</v>
+        <v>143862.7956</v>
       </c>
       <c r="G49" t="n">
-        <v>623991.812991829</v>
+        <v>932872.7461999997</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2281,11 +2171,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2296,22 +2182,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>10.99</v>
+        <v>10.93</v>
       </c>
       <c r="C50" t="n">
-        <v>10.99</v>
+        <v>10.93</v>
       </c>
       <c r="D50" t="n">
-        <v>11</v>
+        <v>10.93</v>
       </c>
       <c r="E50" t="n">
-        <v>10.99</v>
+        <v>10.93</v>
       </c>
       <c r="F50" t="n">
-        <v>2495</v>
+        <v>900.1316</v>
       </c>
       <c r="G50" t="n">
-        <v>626486.812991829</v>
+        <v>932872.7461999997</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2321,11 +2207,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2336,22 +2218,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>10.93</v>
+        <v>11.03</v>
       </c>
       <c r="C51" t="n">
-        <v>10.93</v>
+        <v>11.03</v>
       </c>
       <c r="D51" t="n">
-        <v>10.93</v>
+        <v>11.03</v>
       </c>
       <c r="E51" t="n">
-        <v>10.93</v>
+        <v>11.03</v>
       </c>
       <c r="F51" t="n">
-        <v>8008</v>
+        <v>46</v>
       </c>
       <c r="G51" t="n">
-        <v>618478.812991829</v>
+        <v>932918.7461999997</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2361,11 +2243,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2376,22 +2254,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>10.93</v>
+        <v>10.9</v>
       </c>
       <c r="C52" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="D52" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="E52" t="n">
-        <v>10.93</v>
+        <v>10.9</v>
       </c>
       <c r="F52" t="n">
-        <v>1406</v>
+        <v>45.9999</v>
       </c>
       <c r="G52" t="n">
-        <v>619884.812991829</v>
+        <v>932872.7462999996</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2401,11 +2279,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2416,22 +2290,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="C53" t="n">
-        <v>11.09</v>
+        <v>11.04</v>
       </c>
       <c r="D53" t="n">
-        <v>11.09</v>
+        <v>11.04</v>
       </c>
       <c r="E53" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="F53" t="n">
-        <v>312733.8491</v>
+        <v>36541.0001</v>
       </c>
       <c r="G53" t="n">
-        <v>932618.662091829</v>
+        <v>969413.7463999996</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2441,11 +2315,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2456,22 +2326,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>11.17</v>
+        <v>11.15</v>
       </c>
       <c r="C54" t="n">
-        <v>11.17</v>
+        <v>11.15</v>
       </c>
       <c r="D54" t="n">
-        <v>11.17</v>
+        <v>11.15</v>
       </c>
       <c r="E54" t="n">
-        <v>11.17</v>
+        <v>11.15</v>
       </c>
       <c r="F54" t="n">
-        <v>34247</v>
+        <v>45</v>
       </c>
       <c r="G54" t="n">
-        <v>966865.662091829</v>
+        <v>969458.7463999996</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2481,11 +2351,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2496,22 +2362,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>11.17</v>
+        <v>11.15</v>
       </c>
       <c r="C55" t="n">
-        <v>11.17</v>
+        <v>11.03</v>
       </c>
       <c r="D55" t="n">
-        <v>11.17</v>
+        <v>11.16</v>
       </c>
       <c r="E55" t="n">
-        <v>11.17</v>
+        <v>11.03</v>
       </c>
       <c r="F55" t="n">
-        <v>50558.4231</v>
+        <v>49556.9327</v>
       </c>
       <c r="G55" t="n">
-        <v>966865.662091829</v>
+        <v>919901.8136999996</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2521,11 +2387,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2536,22 +2398,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>11.17</v>
+        <v>10.99</v>
       </c>
       <c r="C56" t="n">
-        <v>11.17</v>
+        <v>10.99</v>
       </c>
       <c r="D56" t="n">
-        <v>11.17</v>
+        <v>10.99</v>
       </c>
       <c r="E56" t="n">
-        <v>11.17</v>
+        <v>10.99</v>
       </c>
       <c r="F56" t="n">
-        <v>10044.3191</v>
+        <v>46.8888</v>
       </c>
       <c r="G56" t="n">
-        <v>966865.662091829</v>
+        <v>919854.9248999996</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2561,11 +2423,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2576,22 +2434,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>11.11</v>
+        <v>11</v>
       </c>
       <c r="C57" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="D57" t="n">
-        <v>11.11</v>
+        <v>11</v>
       </c>
       <c r="E57" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="F57" t="n">
-        <v>30952.5304</v>
+        <v>988</v>
       </c>
       <c r="G57" t="n">
-        <v>935913.131691829</v>
+        <v>920842.9248999996</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2601,11 +2459,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2616,22 +2470,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>11.1</v>
+        <v>10.93</v>
       </c>
       <c r="C58" t="n">
-        <v>11.09</v>
+        <v>11</v>
       </c>
       <c r="D58" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="E58" t="n">
-        <v>11.09</v>
+        <v>10.93</v>
       </c>
       <c r="F58" t="n">
-        <v>126957.3893</v>
+        <v>12871.1213</v>
       </c>
       <c r="G58" t="n">
-        <v>808955.7423918289</v>
+        <v>920842.9248999996</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2641,11 +2495,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2656,22 +2506,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>11.08</v>
+        <v>11</v>
       </c>
       <c r="C59" t="n">
-        <v>11.08</v>
+        <v>11.1</v>
       </c>
       <c r="D59" t="n">
-        <v>11.08</v>
+        <v>11.1</v>
       </c>
       <c r="E59" t="n">
-        <v>11.08</v>
+        <v>11</v>
       </c>
       <c r="F59" t="n">
-        <v>4000</v>
+        <v>6486</v>
       </c>
       <c r="G59" t="n">
-        <v>804955.7423918289</v>
+        <v>927328.9248999996</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2681,11 +2531,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2696,22 +2542,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>11.08</v>
+        <v>11.1</v>
       </c>
       <c r="C60" t="n">
-        <v>11.08</v>
+        <v>11.1</v>
       </c>
       <c r="D60" t="n">
-        <v>11.08</v>
+        <v>11.1</v>
       </c>
       <c r="E60" t="n">
-        <v>11.08</v>
+        <v>11.1</v>
       </c>
       <c r="F60" t="n">
-        <v>4000</v>
+        <v>8017.3125</v>
       </c>
       <c r="G60" t="n">
-        <v>804955.7423918289</v>
+        <v>927328.9248999996</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2721,11 +2567,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2736,22 +2578,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>11.08</v>
+        <v>11.2</v>
       </c>
       <c r="C61" t="n">
-        <v>11.11</v>
+        <v>11.2</v>
       </c>
       <c r="D61" t="n">
-        <v>11.11</v>
+        <v>11.2</v>
       </c>
       <c r="E61" t="n">
-        <v>11.08</v>
+        <v>11.2</v>
       </c>
       <c r="F61" t="n">
-        <v>9496</v>
+        <v>8000</v>
       </c>
       <c r="G61" t="n">
-        <v>814451.7423918289</v>
+        <v>935328.9248999996</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2761,11 +2603,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2776,22 +2614,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>11.11</v>
+        <v>11.2</v>
       </c>
       <c r="C62" t="n">
-        <v>11.29</v>
+        <v>11.28</v>
       </c>
       <c r="D62" t="n">
-        <v>11.29</v>
+        <v>11.28</v>
       </c>
       <c r="E62" t="n">
-        <v>11.11</v>
+        <v>11.2</v>
       </c>
       <c r="F62" t="n">
-        <v>11353</v>
+        <v>12007</v>
       </c>
       <c r="G62" t="n">
-        <v>825804.7423918289</v>
+        <v>947335.9248999996</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2801,11 +2639,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2816,36 +2650,32 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>11.29</v>
+        <v>11.28</v>
       </c>
       <c r="C63" t="n">
-        <v>11.29</v>
+        <v>11.28</v>
       </c>
       <c r="D63" t="n">
-        <v>11.29</v>
+        <v>11.28</v>
       </c>
       <c r="E63" t="n">
-        <v>11.29</v>
+        <v>11.28</v>
       </c>
       <c r="F63" t="n">
-        <v>45867.6726</v>
+        <v>60820.638</v>
       </c>
       <c r="G63" t="n">
-        <v>825804.7423918289</v>
+        <v>947335.9248999996</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2856,36 +2686,32 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>11.3</v>
+        <v>11.28</v>
       </c>
       <c r="C64" t="n">
-        <v>11.3</v>
+        <v>11.29</v>
       </c>
       <c r="D64" t="n">
-        <v>11.3</v>
+        <v>11.29</v>
       </c>
       <c r="E64" t="n">
-        <v>11.3</v>
+        <v>11.28</v>
       </c>
       <c r="F64" t="n">
-        <v>5756.8565</v>
+        <v>18754.203</v>
       </c>
       <c r="G64" t="n">
-        <v>831561.5988918289</v>
+        <v>966090.1278999996</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2896,36 +2722,32 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>11.3</v>
+        <v>11.29</v>
       </c>
       <c r="C65" t="n">
-        <v>11.34</v>
+        <v>11.29</v>
       </c>
       <c r="D65" t="n">
-        <v>11.34</v>
+        <v>11.29</v>
       </c>
       <c r="E65" t="n">
-        <v>11.3</v>
+        <v>11.29</v>
       </c>
       <c r="F65" t="n">
-        <v>216626.2995733686</v>
+        <v>57059.2922</v>
       </c>
       <c r="G65" t="n">
-        <v>1048187.898465198</v>
+        <v>966090.1278999996</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2936,36 +2758,32 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>11.34</v>
+        <v>11.29</v>
       </c>
       <c r="C66" t="n">
-        <v>11.34</v>
+        <v>11.29</v>
       </c>
       <c r="D66" t="n">
-        <v>11.34</v>
+        <v>11.29</v>
       </c>
       <c r="E66" t="n">
-        <v>11.34</v>
+        <v>11.29</v>
       </c>
       <c r="F66" t="n">
-        <v>4367.3145</v>
+        <v>106089.0452</v>
       </c>
       <c r="G66" t="n">
-        <v>1048187.898465198</v>
+        <v>966090.1278999996</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2976,36 +2794,32 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>11.34</v>
+        <v>11.21</v>
       </c>
       <c r="C67" t="n">
-        <v>11.34</v>
+        <v>11.17</v>
       </c>
       <c r="D67" t="n">
-        <v>11.34</v>
+        <v>11.21</v>
       </c>
       <c r="E67" t="n">
-        <v>11.34</v>
+        <v>11.17</v>
       </c>
       <c r="F67" t="n">
-        <v>542.0997</v>
+        <v>194766.9751</v>
       </c>
       <c r="G67" t="n">
-        <v>1048187.898465198</v>
+        <v>771323.1527999996</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3016,36 +2830,32 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>11.34</v>
+        <v>11.18</v>
       </c>
       <c r="C68" t="n">
-        <v>11.66</v>
+        <v>11</v>
       </c>
       <c r="D68" t="n">
-        <v>11.66</v>
+        <v>11.18</v>
       </c>
       <c r="E68" t="n">
-        <v>11.34</v>
+        <v>11</v>
       </c>
       <c r="F68" t="n">
-        <v>451593.239209393</v>
+        <v>155660.0561</v>
       </c>
       <c r="G68" t="n">
-        <v>1499781.137674591</v>
+        <v>615663.0966999996</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3056,36 +2866,32 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>11.66</v>
+        <v>11.15</v>
       </c>
       <c r="C69" t="n">
-        <v>11.66</v>
+        <v>11.1</v>
       </c>
       <c r="D69" t="n">
-        <v>11.66</v>
+        <v>11.15</v>
       </c>
       <c r="E69" t="n">
-        <v>11.66</v>
+        <v>11.1</v>
       </c>
       <c r="F69" t="n">
-        <v>7334.3681</v>
+        <v>7636.22</v>
       </c>
       <c r="G69" t="n">
-        <v>1499781.137674591</v>
+        <v>623299.3166999996</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3096,37 +2902,35 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>11.65</v>
+        <v>11.04</v>
       </c>
       <c r="C70" t="n">
-        <v>11.17</v>
+        <v>11.03</v>
       </c>
       <c r="D70" t="n">
-        <v>11.67</v>
+        <v>11.04</v>
       </c>
       <c r="E70" t="n">
-        <v>11.17</v>
+        <v>11.03</v>
       </c>
       <c r="F70" t="n">
-        <v>547546.5474172385</v>
+        <v>25589.9997</v>
       </c>
       <c r="G70" t="n">
-        <v>952234.5902573521</v>
+        <v>597709.3169999996</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
       <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
@@ -3134,28 +2938,28 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>11.31</v>
+        <v>11</v>
       </c>
       <c r="C71" t="n">
-        <v>11.31</v>
+        <v>11</v>
       </c>
       <c r="D71" t="n">
-        <v>11.31</v>
+        <v>11</v>
       </c>
       <c r="E71" t="n">
-        <v>11.31</v>
+        <v>11</v>
       </c>
       <c r="F71" t="n">
-        <v>6773.13</v>
+        <v>100.1571</v>
       </c>
       <c r="G71" t="n">
-        <v>959007.7202573521</v>
+        <v>597609.1598999996</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -3170,28 +2974,28 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>11.33</v>
+        <v>10.88</v>
       </c>
       <c r="C72" t="n">
-        <v>11.33</v>
+        <v>10.88</v>
       </c>
       <c r="D72" t="n">
-        <v>11.33</v>
+        <v>10.88</v>
       </c>
       <c r="E72" t="n">
-        <v>11.33</v>
+        <v>10.88</v>
       </c>
       <c r="F72" t="n">
-        <v>2839.2</v>
+        <v>13500</v>
       </c>
       <c r="G72" t="n">
-        <v>961846.9202573521</v>
+        <v>584109.1598999996</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -3206,22 +3010,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>11.33</v>
+        <v>10.88</v>
       </c>
       <c r="C73" t="n">
-        <v>11.3</v>
+        <v>10.88</v>
       </c>
       <c r="D73" t="n">
-        <v>11.33</v>
+        <v>10.88</v>
       </c>
       <c r="E73" t="n">
-        <v>11.3</v>
+        <v>10.88</v>
       </c>
       <c r="F73" t="n">
-        <v>125743.8187</v>
+        <v>4475.0844</v>
       </c>
       <c r="G73" t="n">
-        <v>836103.1015573521</v>
+        <v>584109.1598999996</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3242,22 +3046,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>11.17</v>
+        <v>10.99</v>
       </c>
       <c r="C74" t="n">
-        <v>11.15</v>
+        <v>11</v>
       </c>
       <c r="D74" t="n">
-        <v>11.17</v>
+        <v>11</v>
       </c>
       <c r="E74" t="n">
-        <v>11.15</v>
+        <v>10.99</v>
       </c>
       <c r="F74" t="n">
-        <v>39279.4247</v>
+        <v>40000</v>
       </c>
       <c r="G74" t="n">
-        <v>796823.6768573521</v>
+        <v>624109.1598999996</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3278,22 +3082,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="C75" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="D75" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="E75" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="F75" t="n">
-        <v>374.845</v>
+        <v>134952.2936</v>
       </c>
       <c r="G75" t="n">
-        <v>797198.5218573521</v>
+        <v>624109.1598999996</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3314,22 +3118,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>11.2</v>
+        <v>11.12</v>
       </c>
       <c r="C76" t="n">
-        <v>11.05</v>
+        <v>11.12</v>
       </c>
       <c r="D76" t="n">
-        <v>11.2</v>
+        <v>11.12</v>
       </c>
       <c r="E76" t="n">
-        <v>11.05</v>
+        <v>11.12</v>
       </c>
       <c r="F76" t="n">
-        <v>451593.2392</v>
+        <v>46</v>
       </c>
       <c r="G76" t="n">
-        <v>345605.2826573521</v>
+        <v>624155.1598999996</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3350,22 +3154,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>11.08</v>
+        <v>11.12</v>
       </c>
       <c r="C77" t="n">
-        <v>11.08</v>
+        <v>11.12</v>
       </c>
       <c r="D77" t="n">
-        <v>11.08</v>
+        <v>11.12</v>
       </c>
       <c r="E77" t="n">
-        <v>11.08</v>
+        <v>11.12</v>
       </c>
       <c r="F77" t="n">
-        <v>207.3319</v>
+        <v>10608.681</v>
       </c>
       <c r="G77" t="n">
-        <v>345812.6145573521</v>
+        <v>624155.1598999996</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3386,22 +3190,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>11.06</v>
+        <v>11</v>
       </c>
       <c r="C78" t="n">
-        <v>11.06</v>
+        <v>11</v>
       </c>
       <c r="D78" t="n">
-        <v>11.06</v>
+        <v>11</v>
       </c>
       <c r="E78" t="n">
-        <v>11.06</v>
+        <v>11</v>
       </c>
       <c r="F78" t="n">
-        <v>22231.8861</v>
+        <v>5040.14</v>
       </c>
       <c r="G78" t="n">
-        <v>323580.7284573521</v>
+        <v>619115.0198999996</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3422,22 +3226,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>11.06</v>
+        <v>11</v>
       </c>
       <c r="C79" t="n">
-        <v>11.06</v>
+        <v>10.99</v>
       </c>
       <c r="D79" t="n">
-        <v>11.06</v>
+        <v>11</v>
       </c>
       <c r="E79" t="n">
-        <v>11.06</v>
+        <v>10.99</v>
       </c>
       <c r="F79" t="n">
-        <v>22863.2918</v>
+        <v>73287.92999999999</v>
       </c>
       <c r="G79" t="n">
-        <v>323580.7284573521</v>
+        <v>545827.0898999996</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3458,22 +3262,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>11.05</v>
+        <v>10.99</v>
       </c>
       <c r="C80" t="n">
-        <v>11.05</v>
+        <v>10.99</v>
       </c>
       <c r="D80" t="n">
-        <v>11.05</v>
+        <v>10.99</v>
       </c>
       <c r="E80" t="n">
-        <v>11.05</v>
+        <v>10.99</v>
       </c>
       <c r="F80" t="n">
-        <v>9404.998</v>
+        <v>115024.7461</v>
       </c>
       <c r="G80" t="n">
-        <v>314175.7304573521</v>
+        <v>545827.0898999996</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3494,22 +3298,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>11.03</v>
+        <v>10.93</v>
       </c>
       <c r="C81" t="n">
-        <v>11.02</v>
+        <v>10.79</v>
       </c>
       <c r="D81" t="n">
-        <v>11.07</v>
+        <v>10.93</v>
       </c>
       <c r="E81" t="n">
-        <v>11.02</v>
+        <v>10.79</v>
       </c>
       <c r="F81" t="n">
-        <v>12383.6184</v>
+        <v>290432.231</v>
       </c>
       <c r="G81" t="n">
-        <v>301792.1120573521</v>
+        <v>255394.8588999995</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3530,22 +3334,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>11.07</v>
+        <v>10.77</v>
       </c>
       <c r="C82" t="n">
-        <v>11.1</v>
+        <v>10.67</v>
       </c>
       <c r="D82" t="n">
-        <v>11.1</v>
+        <v>10.77</v>
       </c>
       <c r="E82" t="n">
-        <v>11.07</v>
+        <v>10.67</v>
       </c>
       <c r="F82" t="n">
-        <v>4000</v>
+        <v>311960.0297</v>
       </c>
       <c r="G82" t="n">
-        <v>305792.1120573521</v>
+        <v>-56565.17080000049</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3566,22 +3370,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>11.03</v>
+        <v>10.85</v>
       </c>
       <c r="C83" t="n">
-        <v>11.1</v>
+        <v>10.85</v>
       </c>
       <c r="D83" t="n">
-        <v>11.1</v>
+        <v>10.85</v>
       </c>
       <c r="E83" t="n">
-        <v>11.03</v>
+        <v>10.85</v>
       </c>
       <c r="F83" t="n">
-        <v>6367.3145</v>
+        <v>4000</v>
       </c>
       <c r="G83" t="n">
-        <v>305792.1120573521</v>
+        <v>-52565.17080000049</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3602,22 +3406,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>11.02</v>
+        <v>10.7</v>
       </c>
       <c r="C84" t="n">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="D84" t="n">
-        <v>11.02</v>
+        <v>10.7</v>
       </c>
       <c r="E84" t="n">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="F84" t="n">
-        <v>39345.9416</v>
+        <v>20370.728</v>
       </c>
       <c r="G84" t="n">
-        <v>266446.1704573521</v>
+        <v>-72935.89880000049</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3638,22 +3442,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="C85" t="n">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="D85" t="n">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="E85" t="n">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="F85" t="n">
-        <v>10861.567</v>
+        <v>1219</v>
       </c>
       <c r="G85" t="n">
-        <v>266446.1704573521</v>
+        <v>-72935.89880000049</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3674,31 +3478,35 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>10.98</v>
+        <v>10.7</v>
       </c>
       <c r="C86" t="n">
-        <v>10.98</v>
+        <v>10.7</v>
       </c>
       <c r="D86" t="n">
-        <v>10.98</v>
+        <v>10.7</v>
       </c>
       <c r="E86" t="n">
-        <v>10.98</v>
+        <v>10.7</v>
       </c>
       <c r="F86" t="n">
-        <v>5756.8565</v>
+        <v>1652</v>
       </c>
       <c r="G86" t="n">
-        <v>260689.3139573521</v>
+        <v>-72935.89880000049</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K86" t="n">
+        <v>10.7</v>
+      </c>
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
@@ -3710,32 +3518,40 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="C87" t="n">
-        <v>11.07</v>
+        <v>10.7</v>
       </c>
       <c r="D87" t="n">
-        <v>11.07</v>
+        <v>10.7</v>
       </c>
       <c r="E87" t="n">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="F87" t="n">
-        <v>16786</v>
+        <v>221</v>
       </c>
       <c r="G87" t="n">
-        <v>277475.3139573521</v>
+        <v>-72935.89880000049</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K87" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3746,32 +3562,40 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>11.07</v>
+        <v>10.69</v>
       </c>
       <c r="C88" t="n">
-        <v>11.07</v>
+        <v>10.77</v>
       </c>
       <c r="D88" t="n">
-        <v>11.07</v>
+        <v>10.77</v>
       </c>
       <c r="E88" t="n">
-        <v>11.07</v>
+        <v>10.69</v>
       </c>
       <c r="F88" t="n">
-        <v>1201</v>
+        <v>23608.1981</v>
       </c>
       <c r="G88" t="n">
-        <v>277475.3139573521</v>
+        <v>-49327.70070000049</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K88" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3782,32 +3606,40 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>10.98</v>
+        <v>10.69</v>
       </c>
       <c r="C89" t="n">
-        <v>10.98</v>
+        <v>10.69</v>
       </c>
       <c r="D89" t="n">
-        <v>10.98</v>
+        <v>10.69</v>
       </c>
       <c r="E89" t="n">
-        <v>10.98</v>
+        <v>10.69</v>
       </c>
       <c r="F89" t="n">
-        <v>46</v>
+        <v>4567.6889</v>
       </c>
       <c r="G89" t="n">
-        <v>277429.3139573521</v>
+        <v>-53895.38960000049</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>10.77</v>
+      </c>
+      <c r="K89" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3818,32 +3650,40 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>10.99</v>
+        <v>10.68</v>
       </c>
       <c r="C90" t="n">
-        <v>11.07</v>
+        <v>10.68</v>
       </c>
       <c r="D90" t="n">
-        <v>11.07</v>
+        <v>10.68</v>
       </c>
       <c r="E90" t="n">
-        <v>10.99</v>
+        <v>10.68</v>
       </c>
       <c r="F90" t="n">
-        <v>96828.16310000001</v>
+        <v>12795</v>
       </c>
       <c r="G90" t="n">
-        <v>374257.4770573521</v>
+        <v>-66690.38960000049</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="K90" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3854,32 +3694,40 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>10.98</v>
+        <v>10.69</v>
       </c>
       <c r="C91" t="n">
-        <v>10.98</v>
+        <v>10.69</v>
       </c>
       <c r="D91" t="n">
-        <v>10.98</v>
+        <v>10.69</v>
       </c>
       <c r="E91" t="n">
-        <v>10.98</v>
+        <v>10.69</v>
       </c>
       <c r="F91" t="n">
-        <v>100</v>
+        <v>36000</v>
       </c>
       <c r="G91" t="n">
-        <v>374157.4770573521</v>
+        <v>-30690.38960000049</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="K91" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3890,32 +3738,40 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>10.99</v>
+        <v>10.68</v>
       </c>
       <c r="C92" t="n">
-        <v>10.99</v>
+        <v>10.68</v>
       </c>
       <c r="D92" t="n">
-        <v>10.99</v>
+        <v>10.68</v>
       </c>
       <c r="E92" t="n">
-        <v>10.99</v>
+        <v>10.68</v>
       </c>
       <c r="F92" t="n">
-        <v>1856.2332</v>
+        <v>275</v>
       </c>
       <c r="G92" t="n">
-        <v>376013.7102573521</v>
+        <v>-30965.38960000049</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="K92" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3926,32 +3782,40 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>11.07</v>
+        <v>10.68</v>
       </c>
       <c r="C93" t="n">
-        <v>11.07</v>
+        <v>10.67</v>
       </c>
       <c r="D93" t="n">
-        <v>11.07</v>
+        <v>10.68</v>
       </c>
       <c r="E93" t="n">
-        <v>11.07</v>
+        <v>10.67</v>
       </c>
       <c r="F93" t="n">
-        <v>2546</v>
+        <v>19184.1709</v>
       </c>
       <c r="G93" t="n">
-        <v>378559.7102573521</v>
+        <v>-50149.56050000049</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="K93" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3962,32 +3826,40 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>11.07</v>
+        <v>10.69</v>
       </c>
       <c r="C94" t="n">
-        <v>11.07</v>
+        <v>10.69</v>
       </c>
       <c r="D94" t="n">
-        <v>11.07</v>
+        <v>10.69</v>
       </c>
       <c r="E94" t="n">
-        <v>11.07</v>
+        <v>10.69</v>
       </c>
       <c r="F94" t="n">
-        <v>15125.6725</v>
+        <v>260000</v>
       </c>
       <c r="G94" t="n">
-        <v>378559.7102573521</v>
+        <v>209850.4394999995</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>10.67</v>
+      </c>
+      <c r="K94" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3998,32 +3870,40 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>11.2</v>
+        <v>10.69</v>
       </c>
       <c r="C95" t="n">
-        <v>11.2</v>
+        <v>10.69</v>
       </c>
       <c r="D95" t="n">
-        <v>11.2</v>
+        <v>10.69</v>
       </c>
       <c r="E95" t="n">
-        <v>11.2</v>
+        <v>10.69</v>
       </c>
       <c r="F95" t="n">
-        <v>46190.4524</v>
+        <v>120</v>
       </c>
       <c r="G95" t="n">
-        <v>424750.1626573521</v>
+        <v>209850.4394999995</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="K95" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4034,32 +3914,40 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>11.04</v>
+        <v>10.76</v>
       </c>
       <c r="C96" t="n">
-        <v>11.04</v>
+        <v>10.8</v>
       </c>
       <c r="D96" t="n">
-        <v>11.04</v>
+        <v>10.8</v>
       </c>
       <c r="E96" t="n">
-        <v>11.04</v>
+        <v>10.76</v>
       </c>
       <c r="F96" t="n">
-        <v>542.0997</v>
+        <v>260000</v>
       </c>
       <c r="G96" t="n">
-        <v>424208.0629573521</v>
+        <v>469850.4394999995</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="K96" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4070,32 +3958,40 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>11.04</v>
+        <v>10.9</v>
       </c>
       <c r="C97" t="n">
-        <v>11.17</v>
+        <v>10.8</v>
       </c>
       <c r="D97" t="n">
-        <v>11.17</v>
+        <v>10.9</v>
       </c>
       <c r="E97" t="n">
-        <v>11.04</v>
+        <v>10.8</v>
       </c>
       <c r="F97" t="n">
-        <v>23000</v>
+        <v>12737</v>
       </c>
       <c r="G97" t="n">
-        <v>447208.0629573521</v>
+        <v>469850.4394999995</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="K97" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4106,22 +4002,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>11.09</v>
+        <v>10.7</v>
       </c>
       <c r="C98" t="n">
-        <v>11.09</v>
+        <v>10.7</v>
       </c>
       <c r="D98" t="n">
-        <v>11.09</v>
+        <v>10.7</v>
       </c>
       <c r="E98" t="n">
-        <v>11.09</v>
+        <v>10.7</v>
       </c>
       <c r="F98" t="n">
-        <v>1039.9672</v>
+        <v>1856.2332</v>
       </c>
       <c r="G98" t="n">
-        <v>446168.0957573521</v>
+        <v>467994.2062999995</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4130,8 +4026,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4142,32 +4044,40 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>11.19</v>
+        <v>10.66</v>
       </c>
       <c r="C99" t="n">
-        <v>11.19</v>
+        <v>10.66</v>
       </c>
       <c r="D99" t="n">
-        <v>11.19</v>
+        <v>10.66</v>
       </c>
       <c r="E99" t="n">
-        <v>11.19</v>
+        <v>10.66</v>
       </c>
       <c r="F99" t="n">
-        <v>903</v>
+        <v>143.7668</v>
       </c>
       <c r="G99" t="n">
-        <v>447071.0957573521</v>
+        <v>467850.4394999995</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K99" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4178,32 +4088,40 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="C100" t="n">
-        <v>11</v>
+        <v>10.66</v>
       </c>
       <c r="D100" t="n">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="E100" t="n">
-        <v>11</v>
+        <v>10.66</v>
       </c>
       <c r="F100" t="n">
-        <v>20000</v>
+        <v>39919.4331</v>
       </c>
       <c r="G100" t="n">
-        <v>427071.0957573521</v>
+        <v>467850.4394999995</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>10.66</v>
+      </c>
+      <c r="K100" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4214,32 +4132,40 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>11.09</v>
+        <v>10.66</v>
       </c>
       <c r="C101" t="n">
-        <v>11.09</v>
+        <v>10.66</v>
       </c>
       <c r="D101" t="n">
-        <v>11.09</v>
+        <v>10.66</v>
       </c>
       <c r="E101" t="n">
-        <v>11.09</v>
+        <v>10.66</v>
       </c>
       <c r="F101" t="n">
-        <v>10025</v>
+        <v>10000</v>
       </c>
       <c r="G101" t="n">
-        <v>437096.0957573521</v>
+        <v>467850.4394999995</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>10.66</v>
+      </c>
+      <c r="K101" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4250,32 +4176,40 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>11.01</v>
+        <v>10.66</v>
       </c>
       <c r="C102" t="n">
-        <v>11.01</v>
+        <v>10.65</v>
       </c>
       <c r="D102" t="n">
-        <v>11.01</v>
+        <v>10.66</v>
       </c>
       <c r="E102" t="n">
-        <v>11.01</v>
+        <v>10.65</v>
       </c>
       <c r="F102" t="n">
-        <v>6959.5231</v>
+        <v>86933.1428</v>
       </c>
       <c r="G102" t="n">
-        <v>430136.5726573521</v>
+        <v>380917.2966999995</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>10.66</v>
+      </c>
+      <c r="K102" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4286,32 +4220,40 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>11.01</v>
+        <v>10.7</v>
       </c>
       <c r="C103" t="n">
-        <v>11.01</v>
+        <v>10.7</v>
       </c>
       <c r="D103" t="n">
-        <v>11.01</v>
+        <v>10.7</v>
       </c>
       <c r="E103" t="n">
-        <v>11.01</v>
+        <v>10.7</v>
       </c>
       <c r="F103" t="n">
-        <v>9000</v>
+        <v>47</v>
       </c>
       <c r="G103" t="n">
-        <v>430136.5726573521</v>
+        <v>380964.2966999995</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K103" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4322,32 +4264,40 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>11.09</v>
+        <v>10.76</v>
       </c>
       <c r="C104" t="n">
-        <v>11.1</v>
+        <v>10.76</v>
       </c>
       <c r="D104" t="n">
-        <v>11.1</v>
+        <v>10.76</v>
       </c>
       <c r="E104" t="n">
-        <v>11.09</v>
+        <v>10.76</v>
       </c>
       <c r="F104" t="n">
-        <v>57590</v>
+        <v>47</v>
       </c>
       <c r="G104" t="n">
-        <v>487726.5726573521</v>
+        <v>381011.2966999995</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K104" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4358,32 +4308,40 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>11.1</v>
+        <v>10.76</v>
       </c>
       <c r="C105" t="n">
-        <v>11.1</v>
+        <v>10.76</v>
       </c>
       <c r="D105" t="n">
-        <v>11.1</v>
+        <v>10.76</v>
       </c>
       <c r="E105" t="n">
-        <v>11.1</v>
+        <v>10.76</v>
       </c>
       <c r="F105" t="n">
-        <v>16475</v>
+        <v>2311.391</v>
       </c>
       <c r="G105" t="n">
-        <v>487726.5726573521</v>
+        <v>381011.2966999995</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="K105" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4394,32 +4352,40 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>11.1</v>
+        <v>10.76</v>
       </c>
       <c r="C106" t="n">
-        <v>11.1</v>
+        <v>10.76</v>
       </c>
       <c r="D106" t="n">
-        <v>11.1</v>
+        <v>10.76</v>
       </c>
       <c r="E106" t="n">
-        <v>11.1</v>
+        <v>10.76</v>
       </c>
       <c r="F106" t="n">
-        <v>6000</v>
+        <v>4988.3744</v>
       </c>
       <c r="G106" t="n">
-        <v>487726.5726573521</v>
+        <v>381011.2966999995</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="K106" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4430,32 +4396,40 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>11.1</v>
+        <v>10.67</v>
       </c>
       <c r="C107" t="n">
-        <v>11.38</v>
+        <v>10.67</v>
       </c>
       <c r="D107" t="n">
-        <v>11.38</v>
+        <v>10.67</v>
       </c>
       <c r="E107" t="n">
-        <v>11.1</v>
+        <v>10.67</v>
       </c>
       <c r="F107" t="n">
-        <v>31488</v>
+        <v>5741.326</v>
       </c>
       <c r="G107" t="n">
-        <v>519214.5726573521</v>
+        <v>375269.9706999995</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="K107" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4466,32 +4440,40 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>11.38</v>
+        <v>10.77</v>
       </c>
       <c r="C108" t="n">
-        <v>11.38</v>
+        <v>10.77</v>
       </c>
       <c r="D108" t="n">
-        <v>11.38</v>
+        <v>10.77</v>
       </c>
       <c r="E108" t="n">
-        <v>11.38</v>
+        <v>10.77</v>
       </c>
       <c r="F108" t="n">
-        <v>4211.8824</v>
+        <v>21349.8107</v>
       </c>
       <c r="G108" t="n">
-        <v>519214.5726573521</v>
+        <v>396619.7813999995</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>10.67</v>
+      </c>
+      <c r="K108" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4502,32 +4484,40 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>11.38</v>
+        <v>10.77</v>
       </c>
       <c r="C109" t="n">
-        <v>11.38</v>
+        <v>10.67</v>
       </c>
       <c r="D109" t="n">
-        <v>11.38</v>
+        <v>10.77</v>
       </c>
       <c r="E109" t="n">
-        <v>11.38</v>
+        <v>10.67</v>
       </c>
       <c r="F109" t="n">
-        <v>193753.19</v>
+        <v>48203.6755</v>
       </c>
       <c r="G109" t="n">
-        <v>519214.5726573521</v>
+        <v>348416.1058999995</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>10.77</v>
+      </c>
+      <c r="K109" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4538,22 +4528,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>11.37</v>
+        <v>10.79</v>
       </c>
       <c r="C110" t="n">
-        <v>11.22</v>
+        <v>10.79</v>
       </c>
       <c r="D110" t="n">
-        <v>11.37</v>
+        <v>10.79</v>
       </c>
       <c r="E110" t="n">
-        <v>11.22</v>
+        <v>10.79</v>
       </c>
       <c r="F110" t="n">
-        <v>22000</v>
+        <v>47</v>
       </c>
       <c r="G110" t="n">
-        <v>497214.5726573521</v>
+        <v>348463.1058999995</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4562,8 +4552,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4574,22 +4570,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>11.3</v>
+        <v>10.79</v>
       </c>
       <c r="C111" t="n">
-        <v>11.27</v>
+        <v>11.13</v>
       </c>
       <c r="D111" t="n">
-        <v>11.3</v>
+        <v>11.13</v>
       </c>
       <c r="E111" t="n">
-        <v>11.27</v>
+        <v>10.79</v>
       </c>
       <c r="F111" t="n">
-        <v>58600</v>
+        <v>10000</v>
       </c>
       <c r="G111" t="n">
-        <v>555814.5726573521</v>
+        <v>358463.1058999995</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4598,8 +4594,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4610,22 +4612,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>11.27</v>
+        <v>11.05</v>
       </c>
       <c r="C112" t="n">
-        <v>11.21</v>
+        <v>11.05</v>
       </c>
       <c r="D112" t="n">
-        <v>11.27</v>
+        <v>11.05</v>
       </c>
       <c r="E112" t="n">
-        <v>11.21</v>
+        <v>11.05</v>
       </c>
       <c r="F112" t="n">
-        <v>101692.0964</v>
+        <v>1692.4656</v>
       </c>
       <c r="G112" t="n">
-        <v>454122.4762573521</v>
+        <v>356770.6402999995</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4634,8 +4636,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4646,22 +4654,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>11.16</v>
+        <v>11.06</v>
       </c>
       <c r="C113" t="n">
         <v>11.14</v>
       </c>
       <c r="D113" t="n">
-        <v>11.16</v>
+        <v>11.14</v>
       </c>
       <c r="E113" t="n">
-        <v>11.14</v>
+        <v>11.06</v>
       </c>
       <c r="F113" t="n">
-        <v>13830.3958</v>
+        <v>1593</v>
       </c>
       <c r="G113" t="n">
-        <v>440292.0804573521</v>
+        <v>358363.6402999995</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4670,8 +4678,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4682,22 +4696,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>11.14</v>
+        <v>10.97</v>
       </c>
       <c r="C114" t="n">
-        <v>11.14</v>
+        <v>10.97</v>
       </c>
       <c r="D114" t="n">
-        <v>11.14</v>
+        <v>10.97</v>
       </c>
       <c r="E114" t="n">
-        <v>11.14</v>
+        <v>10.97</v>
       </c>
       <c r="F114" t="n">
-        <v>14519.6042</v>
+        <v>16000</v>
       </c>
       <c r="G114" t="n">
-        <v>440292.0804573521</v>
+        <v>342363.6402999995</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4706,8 +4720,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4718,22 +4738,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>11.14</v>
+        <v>10.97</v>
       </c>
       <c r="C115" t="n">
-        <v>11.14</v>
+        <v>10.97</v>
       </c>
       <c r="D115" t="n">
-        <v>11.14</v>
+        <v>10.97</v>
       </c>
       <c r="E115" t="n">
-        <v>11.14</v>
+        <v>10.97</v>
       </c>
       <c r="F115" t="n">
-        <v>85050</v>
+        <v>4000</v>
       </c>
       <c r="G115" t="n">
-        <v>440292.0804573521</v>
+        <v>342363.6402999995</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4742,8 +4762,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4754,22 +4780,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>11.2</v>
+        <v>11.14</v>
       </c>
       <c r="C116" t="n">
-        <v>11.2</v>
+        <v>11.26</v>
       </c>
       <c r="D116" t="n">
-        <v>11.2</v>
+        <v>11.26</v>
       </c>
       <c r="E116" t="n">
-        <v>11.2</v>
+        <v>11.14</v>
       </c>
       <c r="F116" t="n">
-        <v>925</v>
+        <v>43867.18779182948</v>
       </c>
       <c r="G116" t="n">
-        <v>441217.0804573521</v>
+        <v>386230.828091829</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4778,8 +4804,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4790,22 +4822,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>11.08</v>
+        <v>11.1</v>
       </c>
       <c r="C117" t="n">
-        <v>11.08</v>
+        <v>11.01</v>
       </c>
       <c r="D117" t="n">
-        <v>11.08</v>
+        <v>11.1</v>
       </c>
       <c r="E117" t="n">
-        <v>11.08</v>
+        <v>11.01</v>
       </c>
       <c r="F117" t="n">
-        <v>9556.2017</v>
+        <v>20000</v>
       </c>
       <c r="G117" t="n">
-        <v>431660.8787573521</v>
+        <v>366230.828091829</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4814,8 +4846,14 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4826,22 +4864,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>11.09</v>
+        <v>10.97</v>
       </c>
       <c r="C118" t="n">
-        <v>11.09</v>
+        <v>11.19</v>
       </c>
       <c r="D118" t="n">
-        <v>11.09</v>
+        <v>11.19</v>
       </c>
       <c r="E118" t="n">
-        <v>11.09</v>
+        <v>10.95</v>
       </c>
       <c r="F118" t="n">
-        <v>5000</v>
+        <v>282000</v>
       </c>
       <c r="G118" t="n">
-        <v>436660.8787573521</v>
+        <v>648230.828091829</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4850,8 +4888,14 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4862,22 +4906,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>11.07</v>
+        <v>11</v>
       </c>
       <c r="C119" t="n">
-        <v>11.06</v>
+        <v>10.99</v>
       </c>
       <c r="D119" t="n">
-        <v>11.07</v>
+        <v>11</v>
       </c>
       <c r="E119" t="n">
-        <v>11.06</v>
+        <v>10.99</v>
       </c>
       <c r="F119" t="n">
-        <v>272304.75</v>
+        <v>23368.6656</v>
       </c>
       <c r="G119" t="n">
-        <v>164356.1287573521</v>
+        <v>624862.162491829</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4886,8 +4930,14 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4898,22 +4948,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>11.06</v>
+        <v>10.93</v>
       </c>
       <c r="C120" t="n">
-        <v>11.06</v>
+        <v>10.93</v>
       </c>
       <c r="D120" t="n">
-        <v>11.06</v>
+        <v>10.93</v>
       </c>
       <c r="E120" t="n">
-        <v>11.06</v>
+        <v>10.93</v>
       </c>
       <c r="F120" t="n">
-        <v>3314</v>
+        <v>870.3495</v>
       </c>
       <c r="G120" t="n">
-        <v>164356.1287573521</v>
+        <v>623991.812991829</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4922,8 +4972,14 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4934,22 +4990,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>11.06</v>
+        <v>10.99</v>
       </c>
       <c r="C121" t="n">
-        <v>11.06</v>
+        <v>10.99</v>
       </c>
       <c r="D121" t="n">
-        <v>11.06</v>
+        <v>11</v>
       </c>
       <c r="E121" t="n">
-        <v>11.06</v>
+        <v>10.99</v>
       </c>
       <c r="F121" t="n">
-        <v>7605</v>
+        <v>2495</v>
       </c>
       <c r="G121" t="n">
-        <v>164356.1287573521</v>
+        <v>626486.812991829</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4958,8 +5014,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4970,22 +5032,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>11.06</v>
+        <v>10.93</v>
       </c>
       <c r="C122" t="n">
-        <v>11.06</v>
+        <v>10.93</v>
       </c>
       <c r="D122" t="n">
-        <v>11.06</v>
+        <v>10.93</v>
       </c>
       <c r="E122" t="n">
-        <v>11.06</v>
+        <v>10.93</v>
       </c>
       <c r="F122" t="n">
-        <v>1044</v>
+        <v>8008</v>
       </c>
       <c r="G122" t="n">
-        <v>164356.1287573521</v>
+        <v>618478.812991829</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4994,8 +5056,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5006,22 +5074,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>11.06</v>
+        <v>10.93</v>
       </c>
       <c r="C123" t="n">
-        <v>11.06</v>
+        <v>11</v>
       </c>
       <c r="D123" t="n">
-        <v>11.06</v>
+        <v>11</v>
       </c>
       <c r="E123" t="n">
-        <v>11.06</v>
+        <v>10.93</v>
       </c>
       <c r="F123" t="n">
-        <v>146498.3392</v>
+        <v>1406</v>
       </c>
       <c r="G123" t="n">
-        <v>164356.1287573521</v>
+        <v>619884.812991829</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5030,8 +5098,14 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5042,22 +5116,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>11.18</v>
+        <v>11</v>
       </c>
       <c r="C124" t="n">
-        <v>11.18</v>
+        <v>11.09</v>
       </c>
       <c r="D124" t="n">
-        <v>11.18</v>
+        <v>11.09</v>
       </c>
       <c r="E124" t="n">
-        <v>11.18</v>
+        <v>11</v>
       </c>
       <c r="F124" t="n">
-        <v>500</v>
+        <v>312733.8491</v>
       </c>
       <c r="G124" t="n">
-        <v>164856.1287573521</v>
+        <v>932618.662091829</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5066,8 +5140,14 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5078,22 +5158,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>11.18</v>
+        <v>11.17</v>
       </c>
       <c r="C125" t="n">
-        <v>11.18</v>
+        <v>11.17</v>
       </c>
       <c r="D125" t="n">
-        <v>11.18</v>
+        <v>11.17</v>
       </c>
       <c r="E125" t="n">
-        <v>11.18</v>
+        <v>11.17</v>
       </c>
       <c r="F125" t="n">
-        <v>30000</v>
+        <v>34247</v>
       </c>
       <c r="G125" t="n">
-        <v>164856.1287573521</v>
+        <v>966865.662091829</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5102,8 +5182,14 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5114,22 +5200,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>11.06</v>
+        <v>11.17</v>
       </c>
       <c r="C126" t="n">
-        <v>11.06</v>
+        <v>11.17</v>
       </c>
       <c r="D126" t="n">
-        <v>11.06</v>
+        <v>11.17</v>
       </c>
       <c r="E126" t="n">
-        <v>11.06</v>
+        <v>11.17</v>
       </c>
       <c r="F126" t="n">
-        <v>501.6608</v>
+        <v>50558.4231</v>
       </c>
       <c r="G126" t="n">
-        <v>164354.4679573521</v>
+        <v>966865.662091829</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5138,8 +5224,14 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5150,22 +5242,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>11.05</v>
+        <v>11.17</v>
       </c>
       <c r="C127" t="n">
-        <v>10.99</v>
+        <v>11.17</v>
       </c>
       <c r="D127" t="n">
-        <v>11.05</v>
+        <v>11.17</v>
       </c>
       <c r="E127" t="n">
-        <v>10.99</v>
+        <v>11.17</v>
       </c>
       <c r="F127" t="n">
-        <v>133404.8036</v>
+        <v>10044.3191</v>
       </c>
       <c r="G127" t="n">
-        <v>30949.6643573521</v>
+        <v>966865.662091829</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5174,8 +5266,14 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5186,22 +5284,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>10.99</v>
+        <v>11.11</v>
       </c>
       <c r="C128" t="n">
-        <v>10.99</v>
+        <v>11.1</v>
       </c>
       <c r="D128" t="n">
-        <v>10.99</v>
+        <v>11.11</v>
       </c>
       <c r="E128" t="n">
-        <v>10.99</v>
+        <v>11.1</v>
       </c>
       <c r="F128" t="n">
-        <v>541</v>
+        <v>30952.5304</v>
       </c>
       <c r="G128" t="n">
-        <v>30949.6643573521</v>
+        <v>935913.131691829</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5210,8 +5308,14 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5222,22 +5326,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>10.99</v>
+        <v>11.1</v>
       </c>
       <c r="C129" t="n">
-        <v>10.98</v>
+        <v>11.09</v>
       </c>
       <c r="D129" t="n">
-        <v>11.16</v>
+        <v>11.1</v>
       </c>
       <c r="E129" t="n">
-        <v>10.98</v>
+        <v>11.09</v>
       </c>
       <c r="F129" t="n">
-        <v>98882.36689999999</v>
+        <v>126957.3893</v>
       </c>
       <c r="G129" t="n">
-        <v>-67932.70254264789</v>
+        <v>808955.7423918289</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5246,8 +5350,14 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5258,22 +5368,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>10.98</v>
+        <v>11.08</v>
       </c>
       <c r="C130" t="n">
-        <v>10.98</v>
+        <v>11.08</v>
       </c>
       <c r="D130" t="n">
-        <v>10.98</v>
+        <v>11.08</v>
       </c>
       <c r="E130" t="n">
-        <v>10.98</v>
+        <v>11.08</v>
       </c>
       <c r="F130" t="n">
-        <v>3922</v>
+        <v>4000</v>
       </c>
       <c r="G130" t="n">
-        <v>-67932.70254264789</v>
+        <v>804955.7423918289</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5282,8 +5392,14 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5294,22 +5410,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>10.97</v>
+        <v>11.08</v>
       </c>
       <c r="C131" t="n">
-        <v>10.97</v>
+        <v>11.08</v>
       </c>
       <c r="D131" t="n">
-        <v>10.97</v>
+        <v>11.08</v>
       </c>
       <c r="E131" t="n">
-        <v>10.97</v>
+        <v>11.08</v>
       </c>
       <c r="F131" t="n">
-        <v>965.8089</v>
+        <v>4000</v>
       </c>
       <c r="G131" t="n">
-        <v>-68898.5114426479</v>
+        <v>804955.7423918289</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5318,8 +5434,14 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5330,22 +5452,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>10.97</v>
+        <v>11.08</v>
       </c>
       <c r="C132" t="n">
-        <v>10.97</v>
+        <v>11.11</v>
       </c>
       <c r="D132" t="n">
-        <v>10.97</v>
+        <v>11.11</v>
       </c>
       <c r="E132" t="n">
-        <v>10.97</v>
+        <v>11.08</v>
       </c>
       <c r="F132" t="n">
-        <v>33196.7362</v>
+        <v>9496</v>
       </c>
       <c r="G132" t="n">
-        <v>-68898.5114426479</v>
+        <v>814451.7423918289</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5354,8 +5476,14 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5366,22 +5494,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>10.96</v>
+        <v>11.11</v>
       </c>
       <c r="C133" t="n">
-        <v>10.96</v>
+        <v>11.29</v>
       </c>
       <c r="D133" t="n">
-        <v>10.96</v>
+        <v>11.29</v>
       </c>
       <c r="E133" t="n">
-        <v>10.96</v>
+        <v>11.11</v>
       </c>
       <c r="F133" t="n">
-        <v>21698.8804</v>
+        <v>11353</v>
       </c>
       <c r="G133" t="n">
-        <v>-90597.39184264789</v>
+        <v>825804.7423918289</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5390,8 +5518,14 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5402,22 +5536,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>10.96</v>
+        <v>11.29</v>
       </c>
       <c r="C134" t="n">
-        <v>10.96</v>
+        <v>11.29</v>
       </c>
       <c r="D134" t="n">
-        <v>10.96</v>
+        <v>11.29</v>
       </c>
       <c r="E134" t="n">
-        <v>10.96</v>
+        <v>11.29</v>
       </c>
       <c r="F134" t="n">
-        <v>2000</v>
+        <v>45867.6726</v>
       </c>
       <c r="G134" t="n">
-        <v>-90597.39184264789</v>
+        <v>825804.7423918289</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5426,8 +5560,14 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5438,22 +5578,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>10.95</v>
+        <v>11.3</v>
       </c>
       <c r="C135" t="n">
-        <v>10.95</v>
+        <v>11.3</v>
       </c>
       <c r="D135" t="n">
-        <v>10.95</v>
+        <v>11.3</v>
       </c>
       <c r="E135" t="n">
-        <v>10.95</v>
+        <v>11.3</v>
       </c>
       <c r="F135" t="n">
-        <v>21225.1064</v>
+        <v>5756.8565</v>
       </c>
       <c r="G135" t="n">
-        <v>-111822.4982426479</v>
+        <v>831561.5988918289</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5462,8 +5602,14 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5474,22 +5620,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>10.94</v>
+        <v>11.3</v>
       </c>
       <c r="C136" t="n">
-        <v>10.93</v>
+        <v>11.34</v>
       </c>
       <c r="D136" t="n">
-        <v>10.94</v>
+        <v>11.34</v>
       </c>
       <c r="E136" t="n">
-        <v>10.93</v>
+        <v>11.3</v>
       </c>
       <c r="F136" t="n">
-        <v>81329.70510000001</v>
+        <v>216626.2995733686</v>
       </c>
       <c r="G136" t="n">
-        <v>-193152.2033426479</v>
+        <v>1048187.898465198</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5498,8 +5644,14 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5510,22 +5662,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>10.93</v>
+        <v>11.34</v>
       </c>
       <c r="C137" t="n">
-        <v>10.93</v>
+        <v>11.34</v>
       </c>
       <c r="D137" t="n">
-        <v>10.93</v>
+        <v>11.34</v>
       </c>
       <c r="E137" t="n">
-        <v>10.93</v>
+        <v>11.34</v>
       </c>
       <c r="F137" t="n">
-        <v>5595.8438</v>
+        <v>4367.3145</v>
       </c>
       <c r="G137" t="n">
-        <v>-193152.2033426479</v>
+        <v>1048187.898465198</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5534,8 +5686,14 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5546,22 +5704,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>10.93</v>
+        <v>11.34</v>
       </c>
       <c r="C138" t="n">
-        <v>10.93</v>
+        <v>11.34</v>
       </c>
       <c r="D138" t="n">
-        <v>10.93</v>
+        <v>11.34</v>
       </c>
       <c r="E138" t="n">
-        <v>10.93</v>
+        <v>11.34</v>
       </c>
       <c r="F138" t="n">
-        <v>10000</v>
+        <v>542.0997</v>
       </c>
       <c r="G138" t="n">
-        <v>-193152.2033426479</v>
+        <v>1048187.898465198</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5570,8 +5728,14 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5582,64 +5746,72 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>10.93</v>
+        <v>11.34</v>
       </c>
       <c r="C139" t="n">
-        <v>10.93</v>
+        <v>11.66</v>
       </c>
       <c r="D139" t="n">
-        <v>10.93</v>
+        <v>11.66</v>
       </c>
       <c r="E139" t="n">
-        <v>10.93</v>
+        <v>11.34</v>
       </c>
       <c r="F139" t="n">
-        <v>20000</v>
+        <v>451593.239209393</v>
       </c>
       <c r="G139" t="n">
-        <v>-193152.2033426479</v>
+        <v>1499781.137674591</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+        <v>1.084719626168225</v>
+      </c>
+      <c r="N139" t="n">
+        <v>1.058106841611996</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>10.97</v>
+        <v>11.66</v>
       </c>
       <c r="C140" t="n">
-        <v>10.97</v>
+        <v>11.66</v>
       </c>
       <c r="D140" t="n">
-        <v>10.97</v>
+        <v>11.66</v>
       </c>
       <c r="E140" t="n">
-        <v>10.97</v>
+        <v>11.66</v>
       </c>
       <c r="F140" t="n">
-        <v>5595.8438</v>
+        <v>7334.3681</v>
       </c>
       <c r="G140" t="n">
-        <v>-187556.3595426479</v>
+        <v>1499781.137674591</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
@@ -5654,28 +5826,28 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>11</v>
+        <v>11.65</v>
       </c>
       <c r="C141" t="n">
-        <v>11</v>
+        <v>11.17</v>
       </c>
       <c r="D141" t="n">
-        <v>11</v>
+        <v>11.67</v>
       </c>
       <c r="E141" t="n">
-        <v>11</v>
+        <v>11.17</v>
       </c>
       <c r="F141" t="n">
-        <v>4211.8824</v>
+        <v>547546.5474172385</v>
       </c>
       <c r="G141" t="n">
-        <v>-183344.4771426479</v>
+        <v>952234.5902573521</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
@@ -5690,28 +5862,28 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>11.18</v>
+        <v>11.31</v>
       </c>
       <c r="C142" t="n">
-        <v>11.18</v>
+        <v>11.31</v>
       </c>
       <c r="D142" t="n">
-        <v>11.18</v>
+        <v>11.31</v>
       </c>
       <c r="E142" t="n">
-        <v>11.18</v>
+        <v>11.31</v>
       </c>
       <c r="F142" t="n">
-        <v>2000</v>
+        <v>6773.13</v>
       </c>
       <c r="G142" t="n">
-        <v>-181344.4771426479</v>
+        <v>959007.7202573521</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
@@ -5726,22 +5898,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>11.18</v>
+        <v>11.33</v>
       </c>
       <c r="C143" t="n">
-        <v>11.18</v>
+        <v>11.33</v>
       </c>
       <c r="D143" t="n">
-        <v>11.18</v>
+        <v>11.33</v>
       </c>
       <c r="E143" t="n">
-        <v>11.18</v>
+        <v>11.33</v>
       </c>
       <c r="F143" t="n">
-        <v>21105.8159</v>
+        <v>2839.2</v>
       </c>
       <c r="G143" t="n">
-        <v>-181344.4771426479</v>
+        <v>961846.9202573521</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5762,28 +5934,28 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>11.35</v>
+        <v>11.33</v>
       </c>
       <c r="C144" t="n">
-        <v>11.35</v>
+        <v>11.3</v>
       </c>
       <c r="D144" t="n">
-        <v>11.35</v>
+        <v>11.33</v>
       </c>
       <c r="E144" t="n">
-        <v>11.35</v>
+        <v>11.3</v>
       </c>
       <c r="F144" t="n">
-        <v>500</v>
+        <v>125743.8187</v>
       </c>
       <c r="G144" t="n">
-        <v>-180844.4771426479</v>
+        <v>836103.1015573521</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
@@ -5798,22 +5970,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>11.31</v>
+        <v>11.17</v>
       </c>
       <c r="C145" t="n">
-        <v>11.31</v>
+        <v>11.15</v>
       </c>
       <c r="D145" t="n">
-        <v>11.31</v>
+        <v>11.17</v>
       </c>
       <c r="E145" t="n">
-        <v>11.31</v>
+        <v>11.15</v>
       </c>
       <c r="F145" t="n">
-        <v>884.1732979664014</v>
+        <v>39279.4247</v>
       </c>
       <c r="G145" t="n">
-        <v>-181728.6504406143</v>
+        <v>796823.6768573521</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5834,22 +6006,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>11.31</v>
+        <v>11.2</v>
       </c>
       <c r="C146" t="n">
-        <v>11.36</v>
+        <v>11.2</v>
       </c>
       <c r="D146" t="n">
-        <v>11.36</v>
+        <v>11.2</v>
       </c>
       <c r="E146" t="n">
-        <v>11.31</v>
+        <v>11.2</v>
       </c>
       <c r="F146" t="n">
-        <v>174484.0381</v>
+        <v>374.845</v>
       </c>
       <c r="G146" t="n">
-        <v>-7244.612340614287</v>
+        <v>797198.5218573521</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5870,22 +6042,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>11.36</v>
+        <v>11.2</v>
       </c>
       <c r="C147" t="n">
-        <v>11.36</v>
+        <v>11.05</v>
       </c>
       <c r="D147" t="n">
-        <v>11.36</v>
+        <v>11.2</v>
       </c>
       <c r="E147" t="n">
-        <v>11.36</v>
+        <v>11.05</v>
       </c>
       <c r="F147" t="n">
-        <v>76.20050000000001</v>
+        <v>451593.2392</v>
       </c>
       <c r="G147" t="n">
-        <v>-7244.612340614287</v>
+        <v>345605.2826573521</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5906,22 +6078,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>11.25</v>
+        <v>11.08</v>
       </c>
       <c r="C148" t="n">
-        <v>11.25</v>
+        <v>11.08</v>
       </c>
       <c r="D148" t="n">
-        <v>11.25</v>
+        <v>11.08</v>
       </c>
       <c r="E148" t="n">
-        <v>11.25</v>
+        <v>11.08</v>
       </c>
       <c r="F148" t="n">
-        <v>11515.5964</v>
+        <v>207.3319</v>
       </c>
       <c r="G148" t="n">
-        <v>-18760.20874061429</v>
+        <v>345812.6145573521</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5942,22 +6114,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>11.26</v>
+        <v>11.06</v>
       </c>
       <c r="C149" t="n">
-        <v>11.26</v>
+        <v>11.06</v>
       </c>
       <c r="D149" t="n">
-        <v>11.26</v>
+        <v>11.06</v>
       </c>
       <c r="E149" t="n">
-        <v>11.26</v>
+        <v>11.06</v>
       </c>
       <c r="F149" t="n">
-        <v>24000</v>
+        <v>22231.8861</v>
       </c>
       <c r="G149" t="n">
-        <v>5239.791259385711</v>
+        <v>323580.7284573521</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5978,22 +6150,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>11.26</v>
+        <v>11.06</v>
       </c>
       <c r="C150" t="n">
-        <v>11.25</v>
+        <v>11.06</v>
       </c>
       <c r="D150" t="n">
-        <v>11.26</v>
+        <v>11.06</v>
       </c>
       <c r="E150" t="n">
-        <v>11.25</v>
+        <v>11.06</v>
       </c>
       <c r="F150" t="n">
-        <v>260000</v>
+        <v>22863.2918</v>
       </c>
       <c r="G150" t="n">
-        <v>-254760.2087406143</v>
+        <v>323580.7284573521</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6014,22 +6186,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>11.34</v>
+        <v>11.05</v>
       </c>
       <c r="C151" t="n">
-        <v>11.34</v>
+        <v>11.05</v>
       </c>
       <c r="D151" t="n">
-        <v>11.34</v>
+        <v>11.05</v>
       </c>
       <c r="E151" t="n">
-        <v>11.34</v>
+        <v>11.05</v>
       </c>
       <c r="F151" t="n">
-        <v>2000</v>
+        <v>9404.998</v>
       </c>
       <c r="G151" t="n">
-        <v>-252760.2087406143</v>
+        <v>314175.7304573521</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6050,22 +6222,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>11.34</v>
+        <v>11.03</v>
       </c>
       <c r="C152" t="n">
-        <v>11.34</v>
+        <v>11.02</v>
       </c>
       <c r="D152" t="n">
-        <v>11.34</v>
+        <v>11.07</v>
       </c>
       <c r="E152" t="n">
-        <v>11.34</v>
+        <v>11.02</v>
       </c>
       <c r="F152" t="n">
-        <v>3903.4635</v>
+        <v>12383.6184</v>
       </c>
       <c r="G152" t="n">
-        <v>-252760.2087406143</v>
+        <v>301792.1120573521</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6086,22 +6258,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>11.34</v>
+        <v>11.07</v>
       </c>
       <c r="C153" t="n">
-        <v>11.34</v>
+        <v>11.1</v>
       </c>
       <c r="D153" t="n">
-        <v>11.34</v>
+        <v>11.1</v>
       </c>
       <c r="E153" t="n">
-        <v>11.34</v>
+        <v>11.07</v>
       </c>
       <c r="F153" t="n">
-        <v>162716.4097</v>
+        <v>4000</v>
       </c>
       <c r="G153" t="n">
-        <v>-252760.2087406143</v>
+        <v>305792.1120573521</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6122,22 +6294,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>11.34</v>
+        <v>11.03</v>
       </c>
       <c r="C154" t="n">
-        <v>11.34</v>
+        <v>11.1</v>
       </c>
       <c r="D154" t="n">
-        <v>11.34</v>
+        <v>11.1</v>
       </c>
       <c r="E154" t="n">
-        <v>11.34</v>
+        <v>11.03</v>
       </c>
       <c r="F154" t="n">
-        <v>130000</v>
+        <v>6367.3145</v>
       </c>
       <c r="G154" t="n">
-        <v>-252760.2087406143</v>
+        <v>305792.1120573521</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6158,22 +6330,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>11.35</v>
+        <v>11.02</v>
       </c>
       <c r="C155" t="n">
-        <v>11.35</v>
+        <v>11</v>
       </c>
       <c r="D155" t="n">
-        <v>11.35</v>
+        <v>11.02</v>
       </c>
       <c r="E155" t="n">
-        <v>11.35</v>
+        <v>11</v>
       </c>
       <c r="F155" t="n">
-        <v>10095.3249</v>
+        <v>39345.9416</v>
       </c>
       <c r="G155" t="n">
-        <v>-242664.8838406143</v>
+        <v>266446.1704573521</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6189,6 +6361,2716 @@
       </c>
       <c r="N155" t="inlineStr"/>
     </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>11</v>
+      </c>
+      <c r="C156" t="n">
+        <v>11</v>
+      </c>
+      <c r="D156" t="n">
+        <v>11</v>
+      </c>
+      <c r="E156" t="n">
+        <v>11</v>
+      </c>
+      <c r="F156" t="n">
+        <v>10861.567</v>
+      </c>
+      <c r="G156" t="n">
+        <v>266446.1704573521</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="C157" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="D157" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="E157" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="F157" t="n">
+        <v>5756.8565</v>
+      </c>
+      <c r="G157" t="n">
+        <v>260689.3139573521</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>11</v>
+      </c>
+      <c r="C158" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="D158" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="E158" t="n">
+        <v>11</v>
+      </c>
+      <c r="F158" t="n">
+        <v>16786</v>
+      </c>
+      <c r="G158" t="n">
+        <v>277475.3139573521</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="C159" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="D159" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="E159" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1201</v>
+      </c>
+      <c r="G159" t="n">
+        <v>277475.3139573521</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="C160" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="D160" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="E160" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="F160" t="n">
+        <v>46</v>
+      </c>
+      <c r="G160" t="n">
+        <v>277429.3139573521</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="C161" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="D161" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="E161" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="F161" t="n">
+        <v>96828.16310000001</v>
+      </c>
+      <c r="G161" t="n">
+        <v>374257.4770573521</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="C162" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="D162" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="E162" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="F162" t="n">
+        <v>100</v>
+      </c>
+      <c r="G162" t="n">
+        <v>374157.4770573521</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="C163" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="D163" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="E163" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1856.2332</v>
+      </c>
+      <c r="G163" t="n">
+        <v>376013.7102573521</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="C164" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="D164" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="E164" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="F164" t="n">
+        <v>2546</v>
+      </c>
+      <c r="G164" t="n">
+        <v>378559.7102573521</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="C165" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="D165" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="E165" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="F165" t="n">
+        <v>15125.6725</v>
+      </c>
+      <c r="G165" t="n">
+        <v>378559.7102573521</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="C166" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="D166" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="E166" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F166" t="n">
+        <v>46190.4524</v>
+      </c>
+      <c r="G166" t="n">
+        <v>424750.1626573521</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>11.04</v>
+      </c>
+      <c r="C167" t="n">
+        <v>11.04</v>
+      </c>
+      <c r="D167" t="n">
+        <v>11.04</v>
+      </c>
+      <c r="E167" t="n">
+        <v>11.04</v>
+      </c>
+      <c r="F167" t="n">
+        <v>542.0997</v>
+      </c>
+      <c r="G167" t="n">
+        <v>424208.0629573521</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>11.04</v>
+      </c>
+      <c r="C168" t="n">
+        <v>11.17</v>
+      </c>
+      <c r="D168" t="n">
+        <v>11.17</v>
+      </c>
+      <c r="E168" t="n">
+        <v>11.04</v>
+      </c>
+      <c r="F168" t="n">
+        <v>23000</v>
+      </c>
+      <c r="G168" t="n">
+        <v>447208.0629573521</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="C169" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="D169" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="E169" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="F169" t="n">
+        <v>1039.9672</v>
+      </c>
+      <c r="G169" t="n">
+        <v>446168.0957573521</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="C170" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="D170" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="E170" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="F170" t="n">
+        <v>903</v>
+      </c>
+      <c r="G170" t="n">
+        <v>447071.0957573521</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>11</v>
+      </c>
+      <c r="C171" t="n">
+        <v>11</v>
+      </c>
+      <c r="D171" t="n">
+        <v>11</v>
+      </c>
+      <c r="E171" t="n">
+        <v>11</v>
+      </c>
+      <c r="F171" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G171" t="n">
+        <v>427071.0957573521</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="C172" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="D172" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="E172" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="F172" t="n">
+        <v>10025</v>
+      </c>
+      <c r="G172" t="n">
+        <v>437096.0957573521</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="C173" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="D173" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="E173" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="F173" t="n">
+        <v>6959.5231</v>
+      </c>
+      <c r="G173" t="n">
+        <v>430136.5726573521</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="C174" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="D174" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="E174" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="F174" t="n">
+        <v>9000</v>
+      </c>
+      <c r="G174" t="n">
+        <v>430136.5726573521</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="C175" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="D175" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E175" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="F175" t="n">
+        <v>57590</v>
+      </c>
+      <c r="G175" t="n">
+        <v>487726.5726573521</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="C176" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="D176" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E176" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="F176" t="n">
+        <v>16475</v>
+      </c>
+      <c r="G176" t="n">
+        <v>487726.5726573521</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="C177" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="D177" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E177" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="F177" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G177" t="n">
+        <v>487726.5726573521</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="C178" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="D178" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="E178" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="F178" t="n">
+        <v>31488</v>
+      </c>
+      <c r="G178" t="n">
+        <v>519214.5726573521</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="C179" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="D179" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="E179" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="F179" t="n">
+        <v>4211.8824</v>
+      </c>
+      <c r="G179" t="n">
+        <v>519214.5726573521</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="C180" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="D180" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="E180" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="F180" t="n">
+        <v>193753.19</v>
+      </c>
+      <c r="G180" t="n">
+        <v>519214.5726573521</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>11.37</v>
+      </c>
+      <c r="C181" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="D181" t="n">
+        <v>11.37</v>
+      </c>
+      <c r="E181" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="F181" t="n">
+        <v>22000</v>
+      </c>
+      <c r="G181" t="n">
+        <v>497214.5726573521</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C182" t="n">
+        <v>11.27</v>
+      </c>
+      <c r="D182" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E182" t="n">
+        <v>11.27</v>
+      </c>
+      <c r="F182" t="n">
+        <v>58600</v>
+      </c>
+      <c r="G182" t="n">
+        <v>555814.5726573521</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>11.27</v>
+      </c>
+      <c r="C183" t="n">
+        <v>11.21</v>
+      </c>
+      <c r="D183" t="n">
+        <v>11.27</v>
+      </c>
+      <c r="E183" t="n">
+        <v>11.21</v>
+      </c>
+      <c r="F183" t="n">
+        <v>101692.0964</v>
+      </c>
+      <c r="G183" t="n">
+        <v>454122.4762573521</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>11.16</v>
+      </c>
+      <c r="C184" t="n">
+        <v>11.14</v>
+      </c>
+      <c r="D184" t="n">
+        <v>11.16</v>
+      </c>
+      <c r="E184" t="n">
+        <v>11.14</v>
+      </c>
+      <c r="F184" t="n">
+        <v>13830.3958</v>
+      </c>
+      <c r="G184" t="n">
+        <v>440292.0804573521</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>11.14</v>
+      </c>
+      <c r="C185" t="n">
+        <v>11.14</v>
+      </c>
+      <c r="D185" t="n">
+        <v>11.14</v>
+      </c>
+      <c r="E185" t="n">
+        <v>11.14</v>
+      </c>
+      <c r="F185" t="n">
+        <v>14519.6042</v>
+      </c>
+      <c r="G185" t="n">
+        <v>440292.0804573521</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>11.14</v>
+      </c>
+      <c r="C186" t="n">
+        <v>11.14</v>
+      </c>
+      <c r="D186" t="n">
+        <v>11.14</v>
+      </c>
+      <c r="E186" t="n">
+        <v>11.14</v>
+      </c>
+      <c r="F186" t="n">
+        <v>85050</v>
+      </c>
+      <c r="G186" t="n">
+        <v>440292.0804573521</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="C187" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="D187" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="E187" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F187" t="n">
+        <v>925</v>
+      </c>
+      <c r="G187" t="n">
+        <v>441217.0804573521</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>11.08</v>
+      </c>
+      <c r="C188" t="n">
+        <v>11.08</v>
+      </c>
+      <c r="D188" t="n">
+        <v>11.08</v>
+      </c>
+      <c r="E188" t="n">
+        <v>11.08</v>
+      </c>
+      <c r="F188" t="n">
+        <v>9556.2017</v>
+      </c>
+      <c r="G188" t="n">
+        <v>431660.8787573521</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="C189" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="D189" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="E189" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="F189" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G189" t="n">
+        <v>436660.8787573521</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="C190" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="D190" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="E190" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="F190" t="n">
+        <v>272304.75</v>
+      </c>
+      <c r="G190" t="n">
+        <v>164356.1287573521</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="C191" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="D191" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="E191" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="F191" t="n">
+        <v>3314</v>
+      </c>
+      <c r="G191" t="n">
+        <v>164356.1287573521</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="C192" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="D192" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="E192" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="F192" t="n">
+        <v>7605</v>
+      </c>
+      <c r="G192" t="n">
+        <v>164356.1287573521</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="C193" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="D193" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="E193" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="F193" t="n">
+        <v>1044</v>
+      </c>
+      <c r="G193" t="n">
+        <v>164356.1287573521</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="C194" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="D194" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="E194" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="F194" t="n">
+        <v>146498.3392</v>
+      </c>
+      <c r="G194" t="n">
+        <v>164356.1287573521</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>11.18</v>
+      </c>
+      <c r="C195" t="n">
+        <v>11.18</v>
+      </c>
+      <c r="D195" t="n">
+        <v>11.18</v>
+      </c>
+      <c r="E195" t="n">
+        <v>11.18</v>
+      </c>
+      <c r="F195" t="n">
+        <v>500</v>
+      </c>
+      <c r="G195" t="n">
+        <v>164856.1287573521</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>11.18</v>
+      </c>
+      <c r="C196" t="n">
+        <v>11.18</v>
+      </c>
+      <c r="D196" t="n">
+        <v>11.18</v>
+      </c>
+      <c r="E196" t="n">
+        <v>11.18</v>
+      </c>
+      <c r="F196" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G196" t="n">
+        <v>164856.1287573521</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="C197" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="D197" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="E197" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="F197" t="n">
+        <v>501.6608</v>
+      </c>
+      <c r="G197" t="n">
+        <v>164354.4679573521</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>11.05</v>
+      </c>
+      <c r="C198" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="D198" t="n">
+        <v>11.05</v>
+      </c>
+      <c r="E198" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="F198" t="n">
+        <v>133404.8036</v>
+      </c>
+      <c r="G198" t="n">
+        <v>30949.6643573521</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="C199" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="D199" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="E199" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="F199" t="n">
+        <v>541</v>
+      </c>
+      <c r="G199" t="n">
+        <v>30949.6643573521</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="C200" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="D200" t="n">
+        <v>11.16</v>
+      </c>
+      <c r="E200" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="F200" t="n">
+        <v>98882.36689999999</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-67932.70254264789</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="C201" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="D201" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="E201" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="F201" t="n">
+        <v>3922</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-67932.70254264789</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="C202" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="D202" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="E202" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="F202" t="n">
+        <v>965.8089</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-68898.5114426479</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="C203" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="D203" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="E203" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="F203" t="n">
+        <v>33196.7362</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-68898.5114426479</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="C204" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="D204" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="E204" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="F204" t="n">
+        <v>21698.8804</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-90597.39184264789</v>
+      </c>
+      <c r="H204" t="n">
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="K204" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="C205" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="D205" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="E205" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="F205" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-90597.39184264789</v>
+      </c>
+      <c r="H205" t="n">
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="K205" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="C206" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="D206" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="E206" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="F206" t="n">
+        <v>21225.1064</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-111822.4982426479</v>
+      </c>
+      <c r="H206" t="n">
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="K206" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="C207" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="D207" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="E207" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="F207" t="n">
+        <v>81329.70510000001</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-193152.2033426479</v>
+      </c>
+      <c r="H207" t="n">
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="K207" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="C208" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="D208" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="E208" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="F208" t="n">
+        <v>5595.8438</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-193152.2033426479</v>
+      </c>
+      <c r="H208" t="n">
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K208" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="C209" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="D209" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="E209" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="F209" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-193152.2033426479</v>
+      </c>
+      <c r="H209" t="n">
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K209" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="C210" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="D210" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="E210" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="F210" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-193152.2033426479</v>
+      </c>
+      <c r="H210" t="n">
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K210" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="C211" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="D211" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="E211" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="F211" t="n">
+        <v>5595.8438</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-187556.3595426479</v>
+      </c>
+      <c r="H211" t="n">
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="K211" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>11</v>
+      </c>
+      <c r="C212" t="n">
+        <v>11</v>
+      </c>
+      <c r="D212" t="n">
+        <v>11</v>
+      </c>
+      <c r="E212" t="n">
+        <v>11</v>
+      </c>
+      <c r="F212" t="n">
+        <v>4211.8824</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-183344.4771426479</v>
+      </c>
+      <c r="H212" t="n">
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="K212" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>11.18</v>
+      </c>
+      <c r="C213" t="n">
+        <v>11.18</v>
+      </c>
+      <c r="D213" t="n">
+        <v>11.18</v>
+      </c>
+      <c r="E213" t="n">
+        <v>11.18</v>
+      </c>
+      <c r="F213" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-181344.4771426479</v>
+      </c>
+      <c r="H213" t="n">
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="n">
+        <v>11</v>
+      </c>
+      <c r="K213" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>11.18</v>
+      </c>
+      <c r="C214" t="n">
+        <v>11.18</v>
+      </c>
+      <c r="D214" t="n">
+        <v>11.18</v>
+      </c>
+      <c r="E214" t="n">
+        <v>11.18</v>
+      </c>
+      <c r="F214" t="n">
+        <v>21105.8159</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-181344.4771426479</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="C215" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="D215" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="E215" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="F215" t="n">
+        <v>500</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-180844.4771426479</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="C216" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="D216" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="E216" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="F216" t="n">
+        <v>884.1732979664014</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-181728.6504406143</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="C217" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="D217" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="E217" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="F217" t="n">
+        <v>174484.0381</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-7244.612340614287</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="C218" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="D218" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="E218" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="F218" t="n">
+        <v>76.20050000000001</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-7244.612340614287</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="C219" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="D219" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="E219" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="F219" t="n">
+        <v>11515.5964</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-18760.20874061429</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="C220" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="D220" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="E220" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="F220" t="n">
+        <v>24000</v>
+      </c>
+      <c r="G220" t="n">
+        <v>5239.791259385711</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="C221" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="D221" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="E221" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="F221" t="n">
+        <v>260000</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-254760.2087406143</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="C222" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="D222" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="E222" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="F222" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-252760.2087406143</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="C223" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="D223" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="E223" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="F223" t="n">
+        <v>3903.4635</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-252760.2087406143</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="C224" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="D224" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="E224" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="F224" t="n">
+        <v>162716.4097</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-252760.2087406143</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="C225" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="D225" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="E225" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="F225" t="n">
+        <v>130000</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-252760.2087406143</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="C226" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="D226" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="E226" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="F226" t="n">
+        <v>10095.3249</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-242664.8838406143</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-25 BackTest OGO.xlsx
+++ b/BackTest/2020-01-25 BackTest OGO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N226"/>
+  <dimension ref="A1:M226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +550,15 @@
         <v>981198.7468</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>10.85</v>
-      </c>
-      <c r="K5" t="n">
-        <v>10.85</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -606,22 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>10.85</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -648,22 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>10.85</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -690,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -726,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -762,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -798,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -834,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -870,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -906,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -942,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -978,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1014,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1050,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1086,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1122,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1158,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1194,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1230,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1266,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1302,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1336,18 +1243,15 @@
         <v>986275.2956</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1374,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1408,18 +1309,15 @@
         <v>1006214.5187</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1444,18 +1342,15 @@
         <v>1006281.1886</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1480,18 +1375,15 @@
         <v>1001281.1886</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1516,18 +1408,15 @@
         <v>1001281.1886</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1552,18 +1441,15 @@
         <v>1001281.1886</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1590,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1624,18 +1507,15 @@
         <v>957738.8725999999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1660,18 +1540,15 @@
         <v>957840.0725999998</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1696,18 +1573,15 @@
         <v>957840.0725999998</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1732,18 +1606,15 @@
         <v>957840.0725999998</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1768,18 +1639,15 @@
         <v>957840.0725999998</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1804,18 +1672,15 @@
         <v>957840.0725999998</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1840,18 +1705,15 @@
         <v>945871.0825999998</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1876,18 +1738,15 @@
         <v>1132046.8282</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1912,18 +1771,15 @@
         <v>1132046.8282</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1948,18 +1804,15 @@
         <v>1132000.8282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1984,18 +1837,15 @@
         <v>1184590.6832</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2020,18 +1870,15 @@
         <v>1091417.6832</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2056,18 +1903,15 @@
         <v>1091417.6832</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2092,18 +1936,15 @@
         <v>1091180.6832</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2130,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2166,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2202,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2238,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2274,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2310,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2346,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2382,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2418,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2454,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2490,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2526,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2562,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2598,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2634,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2670,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2706,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2742,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2778,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2814,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2850,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2886,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2922,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2958,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2994,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3030,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3066,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3102,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3138,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3174,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3210,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3246,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3282,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3318,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3354,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3390,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3426,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3462,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3496,22 +3223,15 @@
         <v>-72935.89880000049</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K86" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3536,26 +3256,15 @@
         <v>-72935.89880000049</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K87" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3580,26 +3289,15 @@
         <v>-49327.70070000049</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K88" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3624,26 +3322,15 @@
         <v>-53895.38960000049</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="n">
-        <v>10.77</v>
-      </c>
-      <c r="K89" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3668,26 +3355,15 @@
         <v>-66690.38960000049</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>10.69</v>
-      </c>
-      <c r="K90" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3712,26 +3388,15 @@
         <v>-30690.38960000049</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="K91" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3756,26 +3421,15 @@
         <v>-30965.38960000049</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="n">
-        <v>10.69</v>
-      </c>
-      <c r="K92" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3800,26 +3454,15 @@
         <v>-50149.56050000049</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="K93" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3844,26 +3487,15 @@
         <v>209850.4394999995</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="K94" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3888,26 +3520,15 @@
         <v>209850.4394999995</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="n">
-        <v>10.69</v>
-      </c>
-      <c r="K95" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3932,26 +3553,15 @@
         <v>469850.4394999995</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>10.69</v>
-      </c>
-      <c r="K96" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3976,26 +3586,15 @@
         <v>469850.4394999995</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="K97" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4022,22 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4062,26 +3652,19 @@
         <v>467850.4394999995</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>10.7</v>
       </c>
       <c r="J99" t="n">
         <v>10.7</v>
       </c>
-      <c r="K99" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4106,26 +3689,23 @@
         <v>467850.4394999995</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>10.66</v>
       </c>
       <c r="J100" t="n">
-        <v>10.66</v>
-      </c>
-      <c r="K100" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+        <v>10.7</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4150,26 +3730,23 @@
         <v>467850.4394999995</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>10.66</v>
       </c>
       <c r="J101" t="n">
-        <v>10.66</v>
-      </c>
-      <c r="K101" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+        <v>10.7</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4194,26 +3771,23 @@
         <v>380917.2966999995</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>10.66</v>
       </c>
       <c r="J102" t="n">
-        <v>10.66</v>
-      </c>
-      <c r="K102" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+        <v>10.7</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4238,26 +3812,23 @@
         <v>380964.2966999995</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>10.65</v>
       </c>
       <c r="J103" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K103" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+        <v>10.7</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4282,26 +3853,21 @@
         <v>381011.2966999995</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
         <v>10.7</v>
       </c>
-      <c r="K104" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4326,26 +3892,21 @@
         <v>381011.2966999995</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>10.76</v>
-      </c>
-      <c r="K105" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+        <v>10.7</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4370,26 +3931,21 @@
         <v>381011.2966999995</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>10.76</v>
-      </c>
-      <c r="K106" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+        <v>10.7</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4414,26 +3970,23 @@
         <v>375269.9706999995</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>10.76</v>
       </c>
       <c r="J107" t="n">
-        <v>10.76</v>
-      </c>
-      <c r="K107" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+        <v>10.7</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4458,26 +4011,23 @@
         <v>396619.7813999995</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>10.67</v>
       </c>
       <c r="J108" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="K108" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+        <v>10.7</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4502,26 +4052,21 @@
         <v>348416.1058999995</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>10.77</v>
-      </c>
-      <c r="K109" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+        <v>10.7</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4548,22 +4093,19 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4590,22 +4132,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4632,22 +4171,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4674,22 +4210,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4716,22 +4249,19 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4758,22 +4288,19 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4800,22 +4327,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4842,22 +4366,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4884,22 +4405,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4926,22 +4444,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4968,22 +4483,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5010,22 +4522,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5052,22 +4561,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5094,22 +4600,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5136,22 +4639,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5178,22 +4678,19 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5220,22 +4717,19 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5262,22 +4756,19 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5304,22 +4795,19 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5346,22 +4834,19 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5388,22 +4873,19 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5430,22 +4912,19 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5472,22 +4951,19 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5514,22 +4990,19 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5556,22 +5029,19 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5598,22 +5068,19 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5640,22 +5107,19 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5682,22 +5146,19 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5724,22 +5185,19 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5766,24 +5224,19 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>1</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1.084719626168225</v>
-      </c>
-      <c r="N139" t="n">
-        <v>1.058106841611996</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5810,16 +5263,19 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>1</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5846,16 +5302,19 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>1</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5882,16 +5341,19 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>1</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5918,16 +5380,19 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5954,16 +5419,19 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>1</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5990,16 +5458,19 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6026,16 +5497,19 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6062,16 +5536,19 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6098,16 +5575,19 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6134,16 +5614,19 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6170,16 +5653,19 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6206,16 +5692,19 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6242,16 +5731,19 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6278,16 +5770,19 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6314,16 +5809,19 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6350,16 +5848,19 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6386,16 +5887,19 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6422,16 +5926,19 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6458,16 +5965,19 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6494,16 +6004,19 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6530,16 +6043,19 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6566,16 +6082,19 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6602,16 +6121,19 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6638,16 +6160,19 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6674,16 +6199,19 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6710,16 +6238,19 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6746,16 +6277,19 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6782,16 +6316,19 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6818,16 +6355,19 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6854,16 +6394,19 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6890,16 +6433,19 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6926,16 +6472,19 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6962,16 +6511,19 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6998,16 +6550,19 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7034,16 +6589,19 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7070,16 +6628,19 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7106,16 +6667,19 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7142,16 +6706,19 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7178,16 +6745,19 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7214,16 +6784,19 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7250,16 +6823,19 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7286,16 +6862,19 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7322,16 +6901,19 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7358,16 +6940,19 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7394,16 +6979,19 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7430,16 +7018,19 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7466,16 +7057,19 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7502,16 +7096,19 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7538,16 +7135,19 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7574,16 +7174,19 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7610,16 +7213,19 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7646,16 +7252,19 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7682,16 +7291,19 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7718,16 +7330,19 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7754,16 +7369,19 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7790,16 +7408,19 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7826,16 +7447,19 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7862,16 +7486,19 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7898,16 +7525,19 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7934,16 +7564,19 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7970,16 +7603,19 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8006,16 +7642,19 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8042,16 +7681,19 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8078,16 +7720,19 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8112,22 +7757,21 @@
         <v>-90597.39184264789</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="K204" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+        <v>10.7</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8152,26 +7796,21 @@
         <v>-90597.39184264789</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="K205" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+        <v>10.7</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8196,26 +7835,21 @@
         <v>-111822.4982426479</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>10.96</v>
-      </c>
-      <c r="K206" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+        <v>10.7</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8240,26 +7874,21 @@
         <v>-193152.2033426479</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="K207" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+        <v>10.7</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8286,24 +7915,19 @@
       <c r="H208" t="n">
         <v>1</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K208" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+        <v>10.7</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8328,26 +7952,21 @@
         <v>-193152.2033426479</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K209" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+        <v>10.7</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8372,26 +7991,21 @@
         <v>-193152.2033426479</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K210" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+        <v>10.7</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8416,26 +8030,21 @@
         <v>-187556.3595426479</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K211" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+        <v>10.7</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8460,26 +8069,21 @@
         <v>-183344.4771426479</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="K212" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+        <v>10.7</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8504,26 +8108,21 @@
         <v>-181344.4771426479</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>11</v>
-      </c>
-      <c r="K213" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+        <v>10.7</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8550,22 +8149,19 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8590,24 +8186,21 @@
         <v>-180844.4771426479</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8632,24 +8225,21 @@
         <v>-181728.6504406143</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8674,24 +8264,21 @@
         <v>-7244.612340614287</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8716,24 +8303,21 @@
         <v>-7244.612340614287</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8758,24 +8342,21 @@
         <v>-18760.20874061429</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8800,24 +8381,21 @@
         <v>5239.791259385711</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8844,22 +8422,19 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8884,24 +8459,21 @@
         <v>-252760.2087406143</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8926,24 +8498,21 @@
         <v>-252760.2087406143</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8968,24 +8537,21 @@
         <v>-252760.2087406143</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9012,22 +8578,19 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9054,24 +8617,21 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest OGO.xlsx
+++ b/BackTest/2020-01-25 BackTest OGO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,10 +484,14 @@
         <v>1006198.7468</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="J3" t="n">
+        <v>11.01</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>979198.7468</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="J4" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>981198.7468</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>10.85</v>
+      </c>
+      <c r="J5" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +603,19 @@
         <v>999198.7468</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="J6" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +644,19 @@
         <v>999151.7468</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>11.02</v>
+      </c>
+      <c r="J7" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -652,8 +688,14 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -685,8 +727,14 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -718,8 +766,14 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +802,19 @@
         <v>932400.0113</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>10.81</v>
+      </c>
+      <c r="J11" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -784,8 +846,14 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -817,8 +885,14 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -850,8 +924,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -883,8 +963,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -916,8 +1002,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -949,8 +1041,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -982,8 +1080,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1015,8 +1119,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1158,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1081,8 +1197,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1114,8 +1236,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,13 +1272,19 @@
         <v>986208.5186999999</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>1.005899182561308</v>
       </c>
       <c r="M23" t="inlineStr"/>
     </row>
@@ -1177,7 +1311,7 @@
         <v>986208.5186999999</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1344,7 @@
         <v>986275.2956</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1377,7 @@
         <v>986275.2956</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1410,7 @@
         <v>1006112.3187</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1443,7 @@
         <v>1006214.5187</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1476,7 @@
         <v>1006281.1886</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1509,7 @@
         <v>1001281.1886</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1542,7 @@
         <v>1001281.1886</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1575,7 @@
         <v>1001281.1886</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1507,7 +1641,7 @@
         <v>957738.8725999999</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1674,7 @@
         <v>957840.0725999998</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1707,7 @@
         <v>957840.0725999998</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1740,7 @@
         <v>957840.0725999998</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1773,7 @@
         <v>957840.0725999998</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1806,7 @@
         <v>957840.0725999998</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1839,7 @@
         <v>945871.0825999998</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1872,7 @@
         <v>1132046.8282</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1905,7 @@
         <v>1132046.8282</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1938,7 @@
         <v>1132000.8282</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1971,7 @@
         <v>1184590.6832</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +2004,7 @@
         <v>1091417.6832</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +2037,7 @@
         <v>1091417.6832</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +2070,7 @@
         <v>1091180.6832</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +2103,7 @@
         <v>1076735.5418</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2136,7 @@
         <v>932872.7461999997</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2169,7 @@
         <v>932872.7461999997</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2202,7 @@
         <v>932918.7461999997</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2235,7 @@
         <v>932872.7462999996</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2268,7 @@
         <v>969413.7463999996</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2301,7 @@
         <v>969458.7463999996</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2334,7 @@
         <v>919901.8136999996</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2367,7 @@
         <v>919854.9248999996</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2400,7 @@
         <v>920842.9248999996</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2433,7 @@
         <v>920842.9248999996</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2466,7 @@
         <v>927328.9248999996</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2499,7 @@
         <v>927328.9248999996</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2532,7 @@
         <v>935328.9248999996</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2565,7 @@
         <v>947335.9248999996</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2598,7 @@
         <v>947335.9248999996</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2631,7 @@
         <v>966090.1278999996</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2664,7 @@
         <v>966090.1278999996</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2697,7 @@
         <v>966090.1278999996</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2730,7 @@
         <v>771323.1527999996</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2763,7 @@
         <v>615663.0966999996</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2796,7 @@
         <v>623299.3166999996</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2829,7 @@
         <v>597709.3169999996</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2862,7 @@
         <v>597609.1598999996</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2895,7 @@
         <v>584109.1598999996</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2928,7 @@
         <v>584109.1598999996</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2961,7 @@
         <v>624109.1598999996</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2994,7 @@
         <v>624109.1598999996</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +3027,7 @@
         <v>624155.1598999996</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +3060,7 @@
         <v>624155.1598999996</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +3093,7 @@
         <v>619115.0198999996</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +3126,7 @@
         <v>545827.0898999996</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3159,7 @@
         <v>545827.0898999996</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3192,7 @@
         <v>255394.8588999995</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3225,7 @@
         <v>-56565.17080000049</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3258,7 @@
         <v>-52565.17080000049</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3291,7 @@
         <v>-72935.89880000049</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3324,7 @@
         <v>-72935.89880000049</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3652,14 +3786,10 @@
         <v>467850.4394999995</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="J99" t="n">
-        <v>10.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
@@ -3689,19 +3819,11 @@
         <v>467850.4394999995</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
-      </c>
-      <c r="I100" t="n">
-        <v>10.66</v>
-      </c>
-      <c r="J100" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3730,19 +3852,11 @@
         <v>467850.4394999995</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
-      </c>
-      <c r="I101" t="n">
-        <v>10.66</v>
-      </c>
-      <c r="J101" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3771,19 +3885,11 @@
         <v>380917.2966999995</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" t="n">
-        <v>10.66</v>
-      </c>
-      <c r="J102" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3812,19 +3918,11 @@
         <v>380964.2966999995</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
-      </c>
-      <c r="I103" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="J103" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3856,14 +3954,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3895,14 +3987,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3934,14 +4020,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3970,19 +4050,11 @@
         <v>375269.9706999995</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
-      </c>
-      <c r="I107" t="n">
-        <v>10.76</v>
-      </c>
-      <c r="J107" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4011,19 +4083,11 @@
         <v>396619.7813999995</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
-      </c>
-      <c r="I108" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="J108" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4055,14 +4119,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4094,14 +4152,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4133,14 +4185,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4172,14 +4218,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4211,14 +4251,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4250,14 +4284,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4289,14 +4317,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4328,14 +4350,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4367,14 +4383,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4406,14 +4416,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4445,14 +4449,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4484,14 +4482,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4523,14 +4515,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4562,14 +4548,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4601,14 +4581,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4640,14 +4614,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4679,14 +4647,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4718,14 +4680,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4757,14 +4713,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4796,14 +4746,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4835,14 +4779,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4874,14 +4812,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4913,14 +4845,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4952,14 +4878,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4991,14 +4911,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5030,14 +4944,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5069,14 +4977,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5108,14 +5010,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5147,14 +5043,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5186,14 +5076,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5225,14 +5109,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5264,14 +5142,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5303,14 +5175,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5342,14 +5208,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5378,17 +5238,11 @@
         <v>961846.9202573521</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5417,17 +5271,11 @@
         <v>836103.1015573521</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5459,14 +5307,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5498,14 +5340,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5537,14 +5373,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5573,17 +5403,11 @@
         <v>345812.6145573521</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5612,17 +5436,11 @@
         <v>323580.7284573521</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5654,14 +5472,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5690,17 +5502,11 @@
         <v>314175.7304573521</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5729,17 +5535,11 @@
         <v>301792.1120573521</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5768,17 +5568,11 @@
         <v>305792.1120573521</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5807,17 +5601,11 @@
         <v>305792.1120573521</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5846,17 +5634,11 @@
         <v>266446.1704573521</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5888,14 +5670,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5927,14 +5703,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5966,14 +5736,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6002,17 +5766,11 @@
         <v>277475.3139573521</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6041,17 +5799,11 @@
         <v>277429.3139573521</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6080,17 +5832,11 @@
         <v>374257.4770573521</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6119,17 +5865,11 @@
         <v>374157.4770573521</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6158,17 +5898,11 @@
         <v>376013.7102573521</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6200,14 +5934,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6236,17 +5964,11 @@
         <v>378559.7102573521</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6275,17 +5997,11 @@
         <v>424750.1626573521</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6314,17 +6030,11 @@
         <v>424208.0629573521</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6353,17 +6063,11 @@
         <v>447208.0629573521</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6392,17 +6096,11 @@
         <v>446168.0957573521</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6434,14 +6132,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6473,14 +6165,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6512,14 +6198,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6551,14 +6231,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6590,14 +6264,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6629,14 +6297,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6668,14 +6330,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6707,14 +6363,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6746,14 +6396,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6785,14 +6429,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6824,14 +6462,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6860,17 +6492,11 @@
         <v>497214.5726573521</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6899,17 +6525,11 @@
         <v>555814.5726573521</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6938,17 +6558,11 @@
         <v>454122.4762573521</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6977,17 +6591,11 @@
         <v>440292.0804573521</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7016,17 +6624,11 @@
         <v>440292.0804573521</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7055,17 +6657,11 @@
         <v>440292.0804573521</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7094,17 +6690,11 @@
         <v>441217.0804573521</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7133,17 +6723,11 @@
         <v>431660.8787573521</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7175,14 +6759,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7214,14 +6792,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7253,14 +6825,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7292,14 +6858,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7331,14 +6891,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7370,14 +6924,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7409,14 +6957,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7448,14 +6990,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7487,14 +7023,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7526,14 +7056,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7565,14 +7089,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7604,14 +7122,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7643,14 +7155,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7682,14 +7188,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7721,14 +7221,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7760,14 +7254,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7799,14 +7287,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7838,14 +7320,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7877,14 +7353,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7913,17 +7383,11 @@
         <v>-193152.2033426479</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7952,17 +7416,15 @@
         <v>-193152.2033426479</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>10.93</v>
+      </c>
       <c r="J209" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>10.93</v>
+      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7995,11 +7457,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>10.7</v>
+        <v>10.93</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L210" t="n">
@@ -8034,11 +7496,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>10.7</v>
+        <v>10.93</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L211" t="n">
@@ -8072,14 +7534,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8111,14 +7567,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8150,14 +7600,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8186,17 +7630,11 @@
         <v>-180844.4771426479</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8225,17 +7663,11 @@
         <v>-181728.6504406143</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8264,17 +7696,11 @@
         <v>-7244.612340614287</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8303,17 +7729,11 @@
         <v>-7244.612340614287</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8342,17 +7762,11 @@
         <v>-18760.20874061429</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8381,17 +7795,11 @@
         <v>5239.791259385711</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8423,14 +7831,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8459,17 +7861,11 @@
         <v>-252760.2087406143</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8498,17 +7894,11 @@
         <v>-252760.2087406143</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8537,17 +7927,11 @@
         <v>-252760.2087406143</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8579,14 +7963,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8618,20 +7996,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
       <c r="M226" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest OGO.xlsx
+++ b/BackTest/2020-01-25 BackTest OGO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>1006198.7468</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>1006198.7468</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="J3" t="n">
-        <v>11.01</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>979198.7468</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="J4" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>981198.7468</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>10.85</v>
-      </c>
-      <c r="J5" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,19 +583,11 @@
         <v>999198.7468</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="J6" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -644,19 +616,11 @@
         <v>999151.7468</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>11.02</v>
-      </c>
-      <c r="J7" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -685,17 +649,11 @@
         <v>999292.7468</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -727,14 +685,8 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -766,14 +718,8 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -802,19 +748,11 @@
         <v>932400.0113</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>10.81</v>
-      </c>
-      <c r="J11" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -846,14 +784,8 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -885,14 +817,8 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -924,14 +850,8 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -960,17 +880,11 @@
         <v>964594.6812</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -999,17 +913,11 @@
         <v>986043.3191</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1038,17 +946,11 @@
         <v>986043.3191</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1077,17 +979,11 @@
         <v>986043.3191</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1116,17 +1012,11 @@
         <v>986043.3191</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1155,17 +1045,11 @@
         <v>986043.3191</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1197,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1236,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1272,19 +1144,13 @@
         <v>986208.5186999999</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
-        <v>1.005899182561308</v>
+        <v>1</v>
       </c>
       <c r="M23" t="inlineStr"/>
     </row>
@@ -1311,7 +1177,7 @@
         <v>986208.5186999999</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1344,7 +1210,7 @@
         <v>986275.2956</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1377,7 +1243,7 @@
         <v>986275.2956</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1410,7 +1276,7 @@
         <v>1006112.3187</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1443,7 +1309,7 @@
         <v>1006214.5187</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1674,7 +1540,7 @@
         <v>957840.0725999998</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1707,7 +1573,7 @@
         <v>957840.0725999998</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1740,7 +1606,7 @@
         <v>957840.0725999998</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1773,7 +1639,7 @@
         <v>957840.0725999998</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1806,7 +1672,7 @@
         <v>957840.0725999998</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1839,7 +1705,7 @@
         <v>945871.0825999998</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1872,7 +1738,7 @@
         <v>1132046.8282</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1905,7 +1771,7 @@
         <v>1132046.8282</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1938,7 +1804,7 @@
         <v>1132000.8282</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1971,7 +1837,7 @@
         <v>1184590.6832</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2004,7 +1870,7 @@
         <v>1091417.6832</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2037,7 +1903,7 @@
         <v>1091417.6832</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2070,7 +1936,7 @@
         <v>1091180.6832</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2103,7 +1969,7 @@
         <v>1076735.5418</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2136,7 +2002,7 @@
         <v>932872.7461999997</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2169,7 +2035,7 @@
         <v>932872.7461999997</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2202,7 +2068,7 @@
         <v>932918.7461999997</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2235,7 +2101,7 @@
         <v>932872.7462999996</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2268,7 +2134,7 @@
         <v>969413.7463999996</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2301,7 +2167,7 @@
         <v>969458.7463999996</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2334,7 +2200,7 @@
         <v>919901.8136999996</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2367,7 +2233,7 @@
         <v>919854.9248999996</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2400,7 +2266,7 @@
         <v>920842.9248999996</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2433,7 +2299,7 @@
         <v>920842.9248999996</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2466,7 +2332,7 @@
         <v>927328.9248999996</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2499,7 +2365,7 @@
         <v>927328.9248999996</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2532,7 +2398,7 @@
         <v>935328.9248999996</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2565,7 +2431,7 @@
         <v>947335.9248999996</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2598,7 +2464,7 @@
         <v>947335.9248999996</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2631,7 +2497,7 @@
         <v>966090.1278999996</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2664,7 +2530,7 @@
         <v>966090.1278999996</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2697,7 +2563,7 @@
         <v>966090.1278999996</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2730,7 +2596,7 @@
         <v>771323.1527999996</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2763,7 +2629,7 @@
         <v>615663.0966999996</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2796,7 +2662,7 @@
         <v>623299.3166999996</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2829,7 +2695,7 @@
         <v>597709.3169999996</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2862,7 +2728,7 @@
         <v>597609.1598999996</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2895,7 +2761,7 @@
         <v>584109.1598999996</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2928,7 +2794,7 @@
         <v>584109.1598999996</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2961,7 +2827,7 @@
         <v>624109.1598999996</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2994,7 +2860,7 @@
         <v>624109.1598999996</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3027,7 +2893,7 @@
         <v>624155.1598999996</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3060,7 +2926,7 @@
         <v>624155.1598999996</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3093,7 +2959,7 @@
         <v>619115.0198999996</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3126,7 +2992,7 @@
         <v>545827.0898999996</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3159,7 +3025,7 @@
         <v>545827.0898999996</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3192,7 +3058,7 @@
         <v>255394.8588999995</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3225,7 +3091,7 @@
         <v>-56565.17080000049</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3258,7 +3124,7 @@
         <v>-52565.17080000049</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3291,7 +3157,7 @@
         <v>-72935.89880000049</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3324,7 +3190,7 @@
         <v>-72935.89880000049</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3357,10 +3223,14 @@
         <v>-72935.89880000049</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="J86" t="n">
+        <v>10.7</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
@@ -3390,11 +3260,19 @@
         <v>-72935.89880000049</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="J87" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3423,11 +3301,19 @@
         <v>-49327.70070000049</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="J88" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3456,11 +3342,19 @@
         <v>-53895.38960000049</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>10.77</v>
+      </c>
+      <c r="J89" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3492,8 +3386,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3522,11 +3422,19 @@
         <v>-30690.38960000049</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="J91" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3555,11 +3463,19 @@
         <v>-30965.38960000049</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="J92" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3588,11 +3504,19 @@
         <v>-50149.56050000049</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="J93" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3621,11 +3545,19 @@
         <v>209850.4394999995</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>10.67</v>
+      </c>
+      <c r="J94" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3654,11 +3586,19 @@
         <v>209850.4394999995</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="J95" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3690,8 +3630,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3723,8 +3669,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3756,8 +3708,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3789,8 +3747,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3822,8 +3786,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3855,8 +3825,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3885,11 +3861,19 @@
         <v>380917.2966999995</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>10.66</v>
+      </c>
+      <c r="J102" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3918,11 +3902,19 @@
         <v>380964.2966999995</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="J103" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3951,11 +3943,19 @@
         <v>381011.2966999995</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="J104" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3987,8 +3987,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4020,8 +4026,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4053,8 +4065,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4086,8 +4104,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4119,8 +4143,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4149,11 +4179,19 @@
         <v>348463.1058999995</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>10.67</v>
+      </c>
+      <c r="J110" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4182,11 +4220,19 @@
         <v>358463.1058999995</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="J111" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4218,8 +4264,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4251,8 +4303,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4284,8 +4342,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4317,8 +4381,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4350,8 +4420,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4383,8 +4459,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4416,8 +4498,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4449,8 +4537,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4482,8 +4576,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4515,8 +4615,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4548,8 +4654,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4581,8 +4693,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4614,8 +4732,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4647,8 +4771,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4680,8 +4810,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4713,8 +4849,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4746,8 +4888,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4779,8 +4927,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4812,8 +4966,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4845,8 +5005,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4878,8 +5044,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4911,8 +5083,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4944,8 +5122,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4977,8 +5161,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5010,8 +5200,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5043,8 +5239,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5076,8 +5278,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5109,8 +5317,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5142,8 +5356,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5175,8 +5395,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5208,8 +5434,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5238,11 +5470,17 @@
         <v>961846.9202573521</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5271,11 +5509,17 @@
         <v>836103.1015573521</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5307,8 +5551,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5340,8 +5590,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5373,8 +5629,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5406,10 +5668,16 @@
         <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L148" t="n">
-        <v>1</v>
+        <v>1.030514018691589</v>
       </c>
       <c r="M148" t="inlineStr"/>
     </row>
@@ -5436,7 +5704,7 @@
         <v>323580.7284573521</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5469,7 +5737,7 @@
         <v>323580.7284573521</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5502,7 +5770,7 @@
         <v>314175.7304573521</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5535,7 +5803,7 @@
         <v>301792.1120573521</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5568,7 +5836,7 @@
         <v>305792.1120573521</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5634,7 +5902,7 @@
         <v>266446.1704573521</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5766,7 +6034,7 @@
         <v>277475.3139573521</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5799,7 +6067,7 @@
         <v>277429.3139573521</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5832,7 +6100,7 @@
         <v>374257.4770573521</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5865,7 +6133,7 @@
         <v>374157.4770573521</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5898,7 +6166,7 @@
         <v>376013.7102573521</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5964,7 +6232,7 @@
         <v>378559.7102573521</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5997,7 +6265,7 @@
         <v>424750.1626573521</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6030,7 +6298,7 @@
         <v>424208.0629573521</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6063,7 +6331,7 @@
         <v>447208.0629573521</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6096,7 +6364,7 @@
         <v>446168.0957573521</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6129,7 +6397,7 @@
         <v>447071.0957573521</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6162,7 +6430,7 @@
         <v>427071.0957573521</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6492,7 +6760,7 @@
         <v>497214.5726573521</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6525,7 +6793,7 @@
         <v>555814.5726573521</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6558,7 +6826,7 @@
         <v>454122.4762573521</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6591,7 +6859,7 @@
         <v>440292.0804573521</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6624,7 +6892,7 @@
         <v>440292.0804573521</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6657,7 +6925,7 @@
         <v>440292.0804573521</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6690,7 +6958,7 @@
         <v>441217.0804573521</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6723,7 +6991,7 @@
         <v>431660.8787573521</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7416,14 +7684,10 @@
         <v>-193152.2033426479</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="J209" t="n">
-        <v>10.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
@@ -7456,14 +7720,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7495,14 +7753,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8004,6 +8256,6 @@
       <c r="M226" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest OGO.xlsx
+++ b/BackTest/2020-01-25 BackTest OGO.xlsx
@@ -451,7 +451,7 @@
         <v>1006198.7468</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>1006198.7468</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>979198.7468</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>981198.7468</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>999198.7468</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>999151.7468</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>999292.7468</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>964594.6812</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>986043.3191</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>986043.3191</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>986043.3191</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>986043.3191</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>986043.3191</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>947335.9248999996</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>966090.1278999996</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>966090.1278999996</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>966090.1278999996</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>771323.1527999996</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -3223,14 +3223,10 @@
         <v>-72935.89880000049</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="J86" t="n">
-        <v>10.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
@@ -3260,897 +3256,765 @@
         <v>-72935.89880000049</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="C88" t="n">
+        <v>10.77</v>
+      </c>
+      <c r="D88" t="n">
+        <v>10.77</v>
+      </c>
+      <c r="E88" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="F88" t="n">
+        <v>23608.1981</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-49327.70070000049</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="C89" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="D89" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="E89" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="F89" t="n">
+        <v>4567.6889</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-53895.38960000049</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="C90" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="D90" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="E90" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="F90" t="n">
+        <v>12795</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-66690.38960000049</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="C91" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="D91" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="E91" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="F91" t="n">
+        <v>36000</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-30690.38960000049</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="C92" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="D92" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="E92" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="F92" t="n">
+        <v>275</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-30965.38960000049</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="C93" t="n">
+        <v>10.67</v>
+      </c>
+      <c r="D93" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="E93" t="n">
+        <v>10.67</v>
+      </c>
+      <c r="F93" t="n">
+        <v>19184.1709</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-50149.56050000049</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="C94" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="D94" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="E94" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="F94" t="n">
+        <v>260000</v>
+      </c>
+      <c r="G94" t="n">
+        <v>209850.4394999995</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="C95" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="D95" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="E95" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="F95" t="n">
+        <v>120</v>
+      </c>
+      <c r="G95" t="n">
+        <v>209850.4394999995</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="C96" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D96" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E96" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="F96" t="n">
+        <v>260000</v>
+      </c>
+      <c r="G96" t="n">
+        <v>469850.4394999995</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C97" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D97" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E97" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F97" t="n">
+        <v>12737</v>
+      </c>
+      <c r="G97" t="n">
+        <v>469850.4394999995</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
         <v>10.7</v>
       </c>
-      <c r="J87" t="n">
+      <c r="C98" t="n">
         <v>10.7</v>
       </c>
-      <c r="K87" t="inlineStr">
+      <c r="D98" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="E98" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1856.2332</v>
+      </c>
+      <c r="G98" t="n">
+        <v>467994.2062999995</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>10.66</v>
+      </c>
+      <c r="C99" t="n">
+        <v>10.66</v>
+      </c>
+      <c r="D99" t="n">
+        <v>10.66</v>
+      </c>
+      <c r="E99" t="n">
+        <v>10.66</v>
+      </c>
+      <c r="F99" t="n">
+        <v>143.7668</v>
+      </c>
+      <c r="G99" t="n">
+        <v>467850.4394999995</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="C100" t="n">
+        <v>10.66</v>
+      </c>
+      <c r="D100" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="E100" t="n">
+        <v>10.66</v>
+      </c>
+      <c r="F100" t="n">
+        <v>39919.4331</v>
+      </c>
+      <c r="G100" t="n">
+        <v>467850.4394999995</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>10.66</v>
+      </c>
+      <c r="C101" t="n">
+        <v>10.66</v>
+      </c>
+      <c r="D101" t="n">
+        <v>10.66</v>
+      </c>
+      <c r="E101" t="n">
+        <v>10.66</v>
+      </c>
+      <c r="F101" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G101" t="n">
+        <v>467850.4394999995</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>10.66</v>
+      </c>
+      <c r="C102" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="D102" t="n">
+        <v>10.66</v>
+      </c>
+      <c r="E102" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="F102" t="n">
+        <v>86933.1428</v>
+      </c>
+      <c r="G102" t="n">
+        <v>380917.2966999995</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="C103" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="D103" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="E103" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="F103" t="n">
+        <v>47</v>
+      </c>
+      <c r="G103" t="n">
+        <v>380964.2966999995</v>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="J103" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="C104" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D104" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="E104" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="F104" t="n">
+        <v>47</v>
+      </c>
+      <c r="G104" t="n">
+        <v>381011.2966999995</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K104" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>10.69</v>
-      </c>
-      <c r="C88" t="n">
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="C105" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D105" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="E105" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="F105" t="n">
+        <v>2311.391</v>
+      </c>
+      <c r="G105" t="n">
+        <v>381011.2966999995</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="C106" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D106" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="E106" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="F106" t="n">
+        <v>4988.3744</v>
+      </c>
+      <c r="G106" t="n">
+        <v>381011.2966999995</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>10.67</v>
+      </c>
+      <c r="C107" t="n">
+        <v>10.67</v>
+      </c>
+      <c r="D107" t="n">
+        <v>10.67</v>
+      </c>
+      <c r="E107" t="n">
+        <v>10.67</v>
+      </c>
+      <c r="F107" t="n">
+        <v>5741.326</v>
+      </c>
+      <c r="G107" t="n">
+        <v>375269.9706999995</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
         <v>10.77</v>
       </c>
-      <c r="D88" t="n">
+      <c r="C108" t="n">
         <v>10.77</v>
       </c>
-      <c r="E88" t="n">
-        <v>10.69</v>
-      </c>
-      <c r="F88" t="n">
-        <v>23608.1981</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-49327.70070000049</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="J88" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K88" t="inlineStr">
+      <c r="D108" t="n">
+        <v>10.77</v>
+      </c>
+      <c r="E108" t="n">
+        <v>10.77</v>
+      </c>
+      <c r="F108" t="n">
+        <v>21349.8107</v>
+      </c>
+      <c r="G108" t="n">
+        <v>396619.7813999995</v>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>10.67</v>
+      </c>
+      <c r="J108" t="n">
+        <v>10.67</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>10.77</v>
+      </c>
+      <c r="C109" t="n">
+        <v>10.67</v>
+      </c>
+      <c r="D109" t="n">
+        <v>10.77</v>
+      </c>
+      <c r="E109" t="n">
+        <v>10.67</v>
+      </c>
+      <c r="F109" t="n">
+        <v>48203.6755</v>
+      </c>
+      <c r="G109" t="n">
+        <v>348416.1058999995</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>10.77</v>
+      </c>
+      <c r="J109" t="n">
+        <v>10.67</v>
+      </c>
+      <c r="K109" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>10.69</v>
-      </c>
-      <c r="C89" t="n">
-        <v>10.69</v>
-      </c>
-      <c r="D89" t="n">
-        <v>10.69</v>
-      </c>
-      <c r="E89" t="n">
-        <v>10.69</v>
-      </c>
-      <c r="F89" t="n">
-        <v>4567.6889</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-53895.38960000049</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>10.77</v>
-      </c>
-      <c r="J89" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="C90" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="D90" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="E90" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="F90" t="n">
-        <v>12795</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-66690.38960000049</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>10.69</v>
-      </c>
-      <c r="C91" t="n">
-        <v>10.69</v>
-      </c>
-      <c r="D91" t="n">
-        <v>10.69</v>
-      </c>
-      <c r="E91" t="n">
-        <v>10.69</v>
-      </c>
-      <c r="F91" t="n">
-        <v>36000</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-30690.38960000049</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="J91" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="C92" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="D92" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="E92" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="F92" t="n">
-        <v>275</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-30965.38960000049</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>10.69</v>
-      </c>
-      <c r="J92" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="C93" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="D93" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="E93" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="F93" t="n">
-        <v>19184.1709</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-50149.56050000049</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="J93" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>10.69</v>
-      </c>
-      <c r="C94" t="n">
-        <v>10.69</v>
-      </c>
-      <c r="D94" t="n">
-        <v>10.69</v>
-      </c>
-      <c r="E94" t="n">
-        <v>10.69</v>
-      </c>
-      <c r="F94" t="n">
-        <v>260000</v>
-      </c>
-      <c r="G94" t="n">
-        <v>209850.4394999995</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="J94" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>10.69</v>
-      </c>
-      <c r="C95" t="n">
-        <v>10.69</v>
-      </c>
-      <c r="D95" t="n">
-        <v>10.69</v>
-      </c>
-      <c r="E95" t="n">
-        <v>10.69</v>
-      </c>
-      <c r="F95" t="n">
-        <v>120</v>
-      </c>
-      <c r="G95" t="n">
-        <v>209850.4394999995</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>10.69</v>
-      </c>
-      <c r="J95" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>10.76</v>
-      </c>
-      <c r="C96" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="D96" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="E96" t="n">
-        <v>10.76</v>
-      </c>
-      <c r="F96" t="n">
-        <v>260000</v>
-      </c>
-      <c r="G96" t="n">
-        <v>469850.4394999995</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C97" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="D97" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E97" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F97" t="n">
-        <v>12737</v>
-      </c>
-      <c r="G97" t="n">
-        <v>469850.4394999995</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="C98" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="D98" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="E98" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="F98" t="n">
-        <v>1856.2332</v>
-      </c>
-      <c r="G98" t="n">
-        <v>467994.2062999995</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>10.66</v>
-      </c>
-      <c r="C99" t="n">
-        <v>10.66</v>
-      </c>
-      <c r="D99" t="n">
-        <v>10.66</v>
-      </c>
-      <c r="E99" t="n">
-        <v>10.66</v>
-      </c>
-      <c r="F99" t="n">
-        <v>143.7668</v>
-      </c>
-      <c r="G99" t="n">
-        <v>467850.4394999995</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="C100" t="n">
-        <v>10.66</v>
-      </c>
-      <c r="D100" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="E100" t="n">
-        <v>10.66</v>
-      </c>
-      <c r="F100" t="n">
-        <v>39919.4331</v>
-      </c>
-      <c r="G100" t="n">
-        <v>467850.4394999995</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>10.66</v>
-      </c>
-      <c r="C101" t="n">
-        <v>10.66</v>
-      </c>
-      <c r="D101" t="n">
-        <v>10.66</v>
-      </c>
-      <c r="E101" t="n">
-        <v>10.66</v>
-      </c>
-      <c r="F101" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G101" t="n">
-        <v>467850.4394999995</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>10.66</v>
-      </c>
-      <c r="C102" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="D102" t="n">
-        <v>10.66</v>
-      </c>
-      <c r="E102" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="F102" t="n">
-        <v>86933.1428</v>
-      </c>
-      <c r="G102" t="n">
-        <v>380917.2966999995</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>10.66</v>
-      </c>
-      <c r="J102" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="C103" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="D103" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="E103" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="F103" t="n">
-        <v>47</v>
-      </c>
-      <c r="G103" t="n">
-        <v>380964.2966999995</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="J103" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>10.76</v>
-      </c>
-      <c r="C104" t="n">
-        <v>10.76</v>
-      </c>
-      <c r="D104" t="n">
-        <v>10.76</v>
-      </c>
-      <c r="E104" t="n">
-        <v>10.76</v>
-      </c>
-      <c r="F104" t="n">
-        <v>47</v>
-      </c>
-      <c r="G104" t="n">
-        <v>381011.2966999995</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="J104" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>10.76</v>
-      </c>
-      <c r="C105" t="n">
-        <v>10.76</v>
-      </c>
-      <c r="D105" t="n">
-        <v>10.76</v>
-      </c>
-      <c r="E105" t="n">
-        <v>10.76</v>
-      </c>
-      <c r="F105" t="n">
-        <v>2311.391</v>
-      </c>
-      <c r="G105" t="n">
-        <v>381011.2966999995</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>10.76</v>
-      </c>
-      <c r="C106" t="n">
-        <v>10.76</v>
-      </c>
-      <c r="D106" t="n">
-        <v>10.76</v>
-      </c>
-      <c r="E106" t="n">
-        <v>10.76</v>
-      </c>
-      <c r="F106" t="n">
-        <v>4988.3744</v>
-      </c>
-      <c r="G106" t="n">
-        <v>381011.2966999995</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="C107" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="D107" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="E107" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="F107" t="n">
-        <v>5741.326</v>
-      </c>
-      <c r="G107" t="n">
-        <v>375269.9706999995</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>10.77</v>
-      </c>
-      <c r="C108" t="n">
-        <v>10.77</v>
-      </c>
-      <c r="D108" t="n">
-        <v>10.77</v>
-      </c>
-      <c r="E108" t="n">
-        <v>10.77</v>
-      </c>
-      <c r="F108" t="n">
-        <v>21349.8107</v>
-      </c>
-      <c r="G108" t="n">
-        <v>396619.7813999995</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>10.77</v>
-      </c>
-      <c r="C109" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="D109" t="n">
-        <v>10.77</v>
-      </c>
-      <c r="E109" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="F109" t="n">
-        <v>48203.6755</v>
-      </c>
-      <c r="G109" t="n">
-        <v>348416.1058999995</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4185,7 +4049,7 @@
         <v>10.67</v>
       </c>
       <c r="J110" t="n">
-        <v>10.7</v>
+        <v>10.67</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4226,7 +4090,7 @@
         <v>10.79</v>
       </c>
       <c r="J111" t="n">
-        <v>10.7</v>
+        <v>10.67</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4261,11 +4125,13 @@
         <v>356770.6402999995</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>11.13</v>
+      </c>
       <c r="J112" t="n">
-        <v>10.7</v>
+        <v>10.67</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4304,7 +4170,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>10.7</v>
+        <v>10.67</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4343,7 +4209,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>10.7</v>
+        <v>10.67</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4382,7 +4248,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>10.7</v>
+        <v>10.67</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4421,7 +4287,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>10.7</v>
+        <v>10.67</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4460,7 +4326,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>10.7</v>
+        <v>10.67</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4499,7 +4365,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>10.7</v>
+        <v>10.67</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4538,7 +4404,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>10.7</v>
+        <v>10.67</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4577,7 +4443,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>10.7</v>
+        <v>10.67</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4616,7 +4482,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>10.7</v>
+        <v>10.67</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4655,7 +4521,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>10.7</v>
+        <v>10.67</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4694,7 +4560,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>10.7</v>
+        <v>10.67</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4733,7 +4599,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>10.7</v>
+        <v>10.67</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -4772,7 +4638,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>10.7</v>
+        <v>10.67</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -4811,7 +4677,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>10.7</v>
+        <v>10.67</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -4850,7 +4716,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>10.7</v>
+        <v>10.67</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -4889,7 +4755,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>10.7</v>
+        <v>10.67</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -4928,7 +4794,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>10.7</v>
+        <v>10.67</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -4967,7 +4833,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>10.7</v>
+        <v>10.67</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5006,7 +4872,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>10.7</v>
+        <v>10.67</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5045,7 +4911,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>10.7</v>
+        <v>10.67</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5084,7 +4950,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>10.7</v>
+        <v>10.67</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5123,7 +4989,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>10.7</v>
+        <v>10.67</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5162,7 +5028,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>10.7</v>
+        <v>10.67</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5201,7 +5067,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>10.7</v>
+        <v>10.67</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5240,7 +5106,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>10.7</v>
+        <v>10.67</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5279,7 +5145,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>10.7</v>
+        <v>10.67</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5318,7 +5184,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>10.7</v>
+        <v>10.67</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5353,21 +5219,23 @@
         <v>1499781.137674591</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>10.7</v>
+        <v>10.67</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>1.087783505154639</v>
+      </c>
+      <c r="M140" t="n">
+        <v>1.060093896713615</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5392,17 +5260,11 @@
         <v>952234.5902573521</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5431,17 +5293,11 @@
         <v>959007.7202573521</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5470,17 +5326,11 @@
         <v>961846.9202573521</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5512,14 +5362,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5551,14 +5395,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5590,14 +5428,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5629,14 +5461,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5665,19 +5491,13 @@
         <v>345812.6145573521</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
-        <v>1.030514018691589</v>
+        <v>1</v>
       </c>
       <c r="M148" t="inlineStr"/>
     </row>
@@ -5737,7 +5557,7 @@
         <v>323580.7284573521</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5869,7 +5689,7 @@
         <v>305792.1120573521</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6397,7 +6217,7 @@
         <v>447071.0957573521</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6430,7 +6250,7 @@
         <v>427071.0957573521</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -7387,11 +7207,17 @@
         <v>-67932.70254264789</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>10.99</v>
+      </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7424,7 +7250,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7453,11 +7283,17 @@
         <v>-68898.5114426479</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>10.98</v>
+      </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7486,11 +7322,17 @@
         <v>-68898.5114426479</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>10.97</v>
+      </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7519,11 +7361,17 @@
         <v>-90597.39184264789</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>10.97</v>
+      </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7552,11 +7400,17 @@
         <v>-90597.39184264789</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>10.96</v>
+      </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7585,11 +7439,17 @@
         <v>-111822.4982426479</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>10.96</v>
+      </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7618,11 +7478,17 @@
         <v>-193152.2033426479</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>10.95</v>
+      </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7651,11 +7517,17 @@
         <v>-193152.2033426479</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>10.93</v>
+      </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7684,11 +7556,17 @@
         <v>-193152.2033426479</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>10.93</v>
+      </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7717,11 +7595,17 @@
         <v>-193152.2033426479</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>10.93</v>
+      </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7750,11 +7634,17 @@
         <v>-187556.3595426479</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>10.93</v>
+      </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7783,11 +7673,17 @@
         <v>-183344.4771426479</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>10.97</v>
+      </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7816,11 +7712,17 @@
         <v>-181344.4771426479</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>11</v>
+      </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7849,11 +7751,17 @@
         <v>-181344.4771426479</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>11.18</v>
+      </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7882,11 +7790,17 @@
         <v>-180844.4771426479</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>11.18</v>
+      </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7915,11 +7829,17 @@
         <v>-181728.6504406143</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>11.35</v>
+      </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7952,7 +7872,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7985,7 +7909,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8018,7 +7946,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8051,7 +7983,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8084,7 +8020,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8117,7 +8057,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8150,7 +8094,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8183,7 +8131,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8212,11 +8164,17 @@
         <v>-252760.2087406143</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>11.34</v>
+      </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8245,11 +8203,17 @@
         <v>-242664.8838406143</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>11.34</v>
+      </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-25 BackTest OGO.xlsx
+++ b/BackTest/2020-01-25 BackTest OGO.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M226"/>
+  <dimension ref="A1:L226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>35028.044</v>
       </c>
       <c r="G2" t="n">
-        <v>1006198.7468</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>102.6699</v>
       </c>
       <c r="G3" t="n">
-        <v>1006198.7468</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>27000</v>
       </c>
       <c r="G4" t="n">
-        <v>979198.7468</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>2000</v>
       </c>
       <c r="G5" t="n">
-        <v>981198.7468</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>18000</v>
       </c>
       <c r="G6" t="n">
-        <v>999198.7468</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>47</v>
       </c>
       <c r="G7" t="n">
-        <v>999151.7468</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>141</v>
       </c>
       <c r="G8" t="n">
-        <v>999292.7468</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>94.09999999999999</v>
       </c>
       <c r="G9" t="n">
-        <v>999292.7468</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>12795</v>
       </c>
       <c r="G10" t="n">
-        <v>986497.7468</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>54097.7355</v>
       </c>
       <c r="G11" t="n">
-        <v>932400.0113</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>100</v>
       </c>
       <c r="G12" t="n">
-        <v>932500.0113</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>30000</v>
       </c>
       <c r="G13" t="n">
-        <v>962500.0113</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>10541</v>
       </c>
       <c r="G14" t="n">
-        <v>962500.0113</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>2094.6699</v>
       </c>
       <c r="G15" t="n">
-        <v>964594.6812</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>21448.6379</v>
       </c>
       <c r="G16" t="n">
-        <v>986043.3191</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>110.2188</v>
       </c>
       <c r="G17" t="n">
-        <v>986043.3191</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>8415.118</v>
       </c>
       <c r="G18" t="n">
-        <v>986043.3191</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>25590</v>
       </c>
       <c r="G19" t="n">
-        <v>986043.3191</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>2367.4229</v>
       </c>
       <c r="G20" t="n">
-        <v>986043.3191</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>10427.5771</v>
       </c>
       <c r="G21" t="n">
-        <v>986043.3191</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>110.0998</v>
       </c>
       <c r="G22" t="n">
-        <v>986153.4188999999</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>55.0998</v>
       </c>
       <c r="G23" t="n">
-        <v>986208.5186999999</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>7334.3971</v>
       </c>
       <c r="G24" t="n">
-        <v>986208.5186999999</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>66.7769</v>
       </c>
       <c r="G25" t="n">
-        <v>986275.2956</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>100.2</v>
       </c>
       <c r="G26" t="n">
-        <v>986275.2956</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>19837.0231</v>
       </c>
       <c r="G27" t="n">
-        <v>1006112.3187</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>102.2</v>
       </c>
       <c r="G28" t="n">
-        <v>1006214.5187</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>66.6699</v>
       </c>
       <c r="G29" t="n">
-        <v>1006281.1886</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>5000</v>
       </c>
       <c r="G30" t="n">
-        <v>1001281.1886</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>60.9</v>
       </c>
       <c r="G31" t="n">
-        <v>1001281.1886</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>1453.5038</v>
       </c>
       <c r="G32" t="n">
-        <v>1001281.1886</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>100.2</v>
       </c>
       <c r="G33" t="n">
-        <v>1001281.1886</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>43542.316</v>
       </c>
       <c r="G34" t="n">
-        <v>957738.8725999999</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>101.2</v>
       </c>
       <c r="G35" t="n">
-        <v>957840.0725999998</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>4176</v>
       </c>
       <c r="G36" t="n">
-        <v>957840.0725999998</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>10000</v>
       </c>
       <c r="G37" t="n">
-        <v>957840.0725999998</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>4354</v>
       </c>
       <c r="G38" t="n">
-        <v>957840.0725999998</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>50444.4645</v>
       </c>
       <c r="G39" t="n">
-        <v>957840.0725999998</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>11968.99</v>
       </c>
       <c r="G40" t="n">
-        <v>945871.0825999998</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>186175.7456</v>
       </c>
       <c r="G41" t="n">
-        <v>1132046.8282</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>939</v>
       </c>
       <c r="G42" t="n">
-        <v>1132046.8282</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>46</v>
       </c>
       <c r="G43" t="n">
-        <v>1132000.8282</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>52589.855</v>
       </c>
       <c r="G44" t="n">
-        <v>1184590.6832</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>93173</v>
       </c>
       <c r="G45" t="n">
-        <v>1091417.6832</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>4000</v>
       </c>
       <c r="G46" t="n">
-        <v>1091417.6832</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>237</v>
       </c>
       <c r="G47" t="n">
-        <v>1091180.6832</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>14445.1414</v>
       </c>
       <c r="G48" t="n">
-        <v>1076735.5418</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>143862.7956</v>
       </c>
       <c r="G49" t="n">
-        <v>932872.7461999997</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>900.1316</v>
       </c>
       <c r="G50" t="n">
-        <v>932872.7461999997</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>46</v>
       </c>
       <c r="G51" t="n">
-        <v>932918.7461999997</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>45.9999</v>
       </c>
       <c r="G52" t="n">
-        <v>932872.7462999996</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>36541.0001</v>
       </c>
       <c r="G53" t="n">
-        <v>969413.7463999996</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>45</v>
       </c>
       <c r="G54" t="n">
-        <v>969458.7463999996</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>49556.9327</v>
       </c>
       <c r="G55" t="n">
-        <v>919901.8136999996</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>46.8888</v>
       </c>
       <c r="G56" t="n">
-        <v>919854.9248999996</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>988</v>
       </c>
       <c r="G57" t="n">
-        <v>920842.9248999996</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>12871.1213</v>
       </c>
       <c r="G58" t="n">
-        <v>920842.9248999996</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>6486</v>
       </c>
       <c r="G59" t="n">
-        <v>927328.9248999996</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>8017.3125</v>
       </c>
       <c r="G60" t="n">
-        <v>927328.9248999996</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>8000</v>
       </c>
       <c r="G61" t="n">
-        <v>935328.9248999996</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>12007</v>
       </c>
       <c r="G62" t="n">
-        <v>947335.9248999996</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>60820.638</v>
       </c>
       <c r="G63" t="n">
-        <v>947335.9248999996</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>18754.203</v>
       </c>
       <c r="G64" t="n">
-        <v>966090.1278999996</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>57059.2922</v>
       </c>
       <c r="G65" t="n">
-        <v>966090.1278999996</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>106089.0452</v>
       </c>
       <c r="G66" t="n">
-        <v>966090.1278999996</v>
-      </c>
-      <c r="H66" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>194766.9751</v>
       </c>
       <c r="G67" t="n">
-        <v>771323.1527999996</v>
-      </c>
-      <c r="H67" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>155660.0561</v>
       </c>
       <c r="G68" t="n">
-        <v>615663.0966999996</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>7636.22</v>
       </c>
       <c r="G69" t="n">
-        <v>623299.3166999996</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>25589.9997</v>
       </c>
       <c r="G70" t="n">
-        <v>597709.3169999996</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>100.1571</v>
       </c>
       <c r="G71" t="n">
-        <v>597609.1598999996</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>13500</v>
       </c>
       <c r="G72" t="n">
-        <v>584109.1598999996</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>4475.0844</v>
       </c>
       <c r="G73" t="n">
-        <v>584109.1598999996</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>40000</v>
       </c>
       <c r="G74" t="n">
-        <v>624109.1598999996</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>134952.2936</v>
       </c>
       <c r="G75" t="n">
-        <v>624109.1598999996</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>46</v>
       </c>
       <c r="G76" t="n">
-        <v>624155.1598999996</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>10608.681</v>
       </c>
       <c r="G77" t="n">
-        <v>624155.1598999996</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>5040.14</v>
       </c>
       <c r="G78" t="n">
-        <v>619115.0198999996</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>73287.92999999999</v>
       </c>
       <c r="G79" t="n">
-        <v>545827.0898999996</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>115024.7461</v>
       </c>
       <c r="G80" t="n">
-        <v>545827.0898999996</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>290432.231</v>
       </c>
       <c r="G81" t="n">
-        <v>255394.8588999995</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>311960.0297</v>
       </c>
       <c r="G82" t="n">
-        <v>-56565.17080000049</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>4000</v>
       </c>
       <c r="G83" t="n">
-        <v>-52565.17080000049</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>20370.728</v>
       </c>
       <c r="G84" t="n">
-        <v>-72935.89880000049</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>1219</v>
       </c>
       <c r="G85" t="n">
-        <v>-72935.89880000049</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>1652</v>
       </c>
       <c r="G86" t="n">
-        <v>-72935.89880000049</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>221</v>
       </c>
       <c r="G87" t="n">
-        <v>-72935.89880000049</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>23608.1981</v>
       </c>
       <c r="G88" t="n">
-        <v>-49327.70070000049</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>4567.6889</v>
       </c>
       <c r="G89" t="n">
-        <v>-53895.38960000049</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>12795</v>
       </c>
       <c r="G90" t="n">
-        <v>-66690.38960000049</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,19 @@
         <v>36000</v>
       </c>
       <c r="G91" t="n">
-        <v>-30690.38960000049</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>10.68</v>
+      </c>
+      <c r="I91" t="n">
+        <v>10.68</v>
+      </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3147,23 @@
         <v>275</v>
       </c>
       <c r="G92" t="n">
-        <v>-30965.38960000049</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>10.69</v>
+      </c>
+      <c r="I92" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3185,23 @@
         <v>19184.1709</v>
       </c>
       <c r="G93" t="n">
-        <v>-50149.56050000049</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>10.68</v>
+      </c>
+      <c r="I93" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3223,23 @@
         <v>260000</v>
       </c>
       <c r="G94" t="n">
-        <v>209850.4394999995</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>10.67</v>
+      </c>
+      <c r="I94" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3261,23 @@
         <v>120</v>
       </c>
       <c r="G95" t="n">
-        <v>209850.4394999995</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>10.69</v>
+      </c>
+      <c r="I95" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3299,23 @@
         <v>260000</v>
       </c>
       <c r="G96" t="n">
-        <v>469850.4394999995</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>10.69</v>
+      </c>
+      <c r="I96" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3337,23 @@
         <v>12737</v>
       </c>
       <c r="G97" t="n">
-        <v>469850.4394999995</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>10.8</v>
+      </c>
+      <c r="I97" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3375,23 @@
         <v>1856.2332</v>
       </c>
       <c r="G98" t="n">
-        <v>467994.2062999995</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>10.8</v>
+      </c>
+      <c r="I98" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3413,23 @@
         <v>143.7668</v>
       </c>
       <c r="G99" t="n">
-        <v>467850.4394999995</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>10.7</v>
+      </c>
+      <c r="I99" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3451,23 @@
         <v>39919.4331</v>
       </c>
       <c r="G100" t="n">
-        <v>467850.4394999995</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>10.66</v>
+      </c>
+      <c r="I100" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3489,23 @@
         <v>10000</v>
       </c>
       <c r="G101" t="n">
-        <v>467850.4394999995</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>10.66</v>
+      </c>
+      <c r="I101" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3527,23 @@
         <v>86933.1428</v>
       </c>
       <c r="G102" t="n">
-        <v>380917.2966999995</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>10.66</v>
+      </c>
+      <c r="I102" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,22 +3565,23 @@
         <v>47</v>
       </c>
       <c r="G103" t="n">
-        <v>380964.2966999995</v>
+        <v>1</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>10.65</v>
       </c>
       <c r="I103" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="J103" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>10.68</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3818,24 +3603,23 @@
         <v>47</v>
       </c>
       <c r="G104" t="n">
-        <v>381011.2966999995</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K104" t="inlineStr">
+        <v>10.7</v>
+      </c>
+      <c r="I104" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="J104" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3857,24 +3641,23 @@
         <v>2311.391</v>
       </c>
       <c r="G105" t="n">
-        <v>381011.2966999995</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="K105" t="inlineStr">
+        <v>10.76</v>
+      </c>
+      <c r="I105" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="J105" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3896,18 +3679,23 @@
         <v>4988.3744</v>
       </c>
       <c r="G106" t="n">
-        <v>381011.2966999995</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>10.76</v>
+      </c>
+      <c r="I106" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3929,18 +3717,23 @@
         <v>5741.326</v>
       </c>
       <c r="G107" t="n">
-        <v>375269.9706999995</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>10.76</v>
+      </c>
+      <c r="I107" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3962,22 +3755,23 @@
         <v>21349.8107</v>
       </c>
       <c r="G108" t="n">
-        <v>396619.7813999995</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>10.67</v>
       </c>
       <c r="I108" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="J108" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>10.68</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3999,26 +3793,23 @@
         <v>48203.6755</v>
       </c>
       <c r="G109" t="n">
-        <v>348416.1058999995</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>10.77</v>
       </c>
       <c r="I109" t="n">
-        <v>10.77</v>
-      </c>
-      <c r="J109" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="K109" t="inlineStr">
+        <v>10.68</v>
+      </c>
+      <c r="J109" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4040,26 +3831,23 @@
         <v>47</v>
       </c>
       <c r="G110" t="n">
-        <v>348463.1058999995</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>10.67</v>
       </c>
       <c r="I110" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="J110" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="K110" t="inlineStr">
+        <v>10.68</v>
+      </c>
+      <c r="J110" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4081,26 +3869,23 @@
         <v>10000</v>
       </c>
       <c r="G111" t="n">
-        <v>358463.1058999995</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>10.79</v>
       </c>
       <c r="I111" t="n">
-        <v>10.79</v>
-      </c>
-      <c r="J111" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="K111" t="inlineStr">
+        <v>10.68</v>
+      </c>
+      <c r="J111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4122,26 +3907,21 @@
         <v>1692.4656</v>
       </c>
       <c r="G112" t="n">
-        <v>356770.6402999995</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="n">
-        <v>11.13</v>
-      </c>
-      <c r="J112" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="K112" t="inlineStr">
+        <v>10.68</v>
+      </c>
+      <c r="J112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4163,24 +3943,21 @@
         <v>1593</v>
       </c>
       <c r="G113" t="n">
-        <v>358363.6402999995</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="K113" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="J113" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4202,24 +3979,21 @@
         <v>16000</v>
       </c>
       <c r="G114" t="n">
-        <v>342363.6402999995</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="K114" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="J114" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4241,24 +4015,21 @@
         <v>4000</v>
       </c>
       <c r="G115" t="n">
-        <v>342363.6402999995</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="K115" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="J115" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4280,24 +4051,21 @@
         <v>43867.18779182948</v>
       </c>
       <c r="G116" t="n">
-        <v>386230.828091829</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="K116" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="J116" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4319,24 +4087,21 @@
         <v>20000</v>
       </c>
       <c r="G117" t="n">
-        <v>366230.828091829</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="K117" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="J117" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4358,24 +4123,21 @@
         <v>282000</v>
       </c>
       <c r="G118" t="n">
-        <v>648230.828091829</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="K118" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="J118" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4397,24 +4159,21 @@
         <v>23368.6656</v>
       </c>
       <c r="G119" t="n">
-        <v>624862.162491829</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="K119" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="J119" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4436,24 +4195,21 @@
         <v>870.3495</v>
       </c>
       <c r="G120" t="n">
-        <v>623991.812991829</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="K120" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="J120" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4475,24 +4231,21 @@
         <v>2495</v>
       </c>
       <c r="G121" t="n">
-        <v>626486.812991829</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="K121" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="J121" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4514,24 +4267,21 @@
         <v>8008</v>
       </c>
       <c r="G122" t="n">
-        <v>618478.812991829</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="K122" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="J122" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4553,24 +4303,21 @@
         <v>1406</v>
       </c>
       <c r="G123" t="n">
-        <v>619884.812991829</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="K123" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="J123" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4592,24 +4339,21 @@
         <v>312733.8491</v>
       </c>
       <c r="G124" t="n">
-        <v>932618.662091829</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="K124" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="J124" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4631,24 +4375,21 @@
         <v>34247</v>
       </c>
       <c r="G125" t="n">
-        <v>966865.662091829</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="K125" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="J125" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4670,24 +4411,21 @@
         <v>50558.4231</v>
       </c>
       <c r="G126" t="n">
-        <v>966865.662091829</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="K126" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="J126" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4709,24 +4447,21 @@
         <v>10044.3191</v>
       </c>
       <c r="G127" t="n">
-        <v>966865.662091829</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="K127" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="J127" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4748,24 +4483,21 @@
         <v>30952.5304</v>
       </c>
       <c r="G128" t="n">
-        <v>935913.131691829</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="K128" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="J128" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4787,24 +4519,21 @@
         <v>126957.3893</v>
       </c>
       <c r="G129" t="n">
-        <v>808955.7423918289</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="K129" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="J129" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4826,24 +4555,21 @@
         <v>4000</v>
       </c>
       <c r="G130" t="n">
-        <v>804955.7423918289</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="K130" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="J130" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4865,24 +4591,21 @@
         <v>4000</v>
       </c>
       <c r="G131" t="n">
-        <v>804955.7423918289</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="K131" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="J131" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4904,24 +4627,21 @@
         <v>9496</v>
       </c>
       <c r="G132" t="n">
-        <v>814451.7423918289</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="K132" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="J132" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4943,24 +4663,21 @@
         <v>11353</v>
       </c>
       <c r="G133" t="n">
-        <v>825804.7423918289</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="K133" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="J133" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4982,24 +4699,21 @@
         <v>45867.6726</v>
       </c>
       <c r="G134" t="n">
-        <v>825804.7423918289</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="K134" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="J134" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5021,24 +4735,21 @@
         <v>5756.8565</v>
       </c>
       <c r="G135" t="n">
-        <v>831561.5988918289</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="K135" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="J135" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5060,24 +4771,21 @@
         <v>216626.2995733686</v>
       </c>
       <c r="G136" t="n">
-        <v>1048187.898465198</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="K136" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="J136" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5099,24 +4807,21 @@
         <v>4367.3145</v>
       </c>
       <c r="G137" t="n">
-        <v>1048187.898465198</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="K137" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="J137" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5138,24 +4843,21 @@
         <v>542.0997</v>
       </c>
       <c r="G138" t="n">
-        <v>1048187.898465198</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="K138" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="J138" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5177,24 +4879,21 @@
         <v>451593.239209393</v>
       </c>
       <c r="G139" t="n">
-        <v>1499781.137674591</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="K139" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="J139" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5216,25 +4915,22 @@
         <v>7334.3681</v>
       </c>
       <c r="G140" t="n">
-        <v>1499781.137674591</v>
-      </c>
-      <c r="H140" t="n">
         <v>2</v>
       </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="K140" t="inlineStr">
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="J140" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
+      <c r="K140" t="n">
+        <v>1.086760299625468</v>
+      </c>
       <c r="L140" t="n">
-        <v>1.087783505154639</v>
-      </c>
-      <c r="M140" t="n">
-        <v>1.060093896713615</v>
+        <v>1.058106841611996</v>
       </c>
     </row>
     <row r="141">
@@ -5257,18 +4953,15 @@
         <v>547546.5474172385</v>
       </c>
       <c r="G141" t="n">
-        <v>952234.5902573521</v>
-      </c>
-      <c r="H141" t="n">
         <v>2</v>
       </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5290,18 +4983,15 @@
         <v>6773.13</v>
       </c>
       <c r="G142" t="n">
-        <v>959007.7202573521</v>
-      </c>
-      <c r="H142" t="n">
         <v>2</v>
       </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5323,18 +5013,15 @@
         <v>2839.2</v>
       </c>
       <c r="G143" t="n">
-        <v>961846.9202573521</v>
-      </c>
-      <c r="H143" t="n">
         <v>2</v>
       </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5356,18 +5043,15 @@
         <v>125743.8187</v>
       </c>
       <c r="G144" t="n">
-        <v>836103.1015573521</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5389,18 +5073,15 @@
         <v>39279.4247</v>
       </c>
       <c r="G145" t="n">
-        <v>796823.6768573521</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5422,18 +5103,15 @@
         <v>374.845</v>
       </c>
       <c r="G146" t="n">
-        <v>797198.5218573521</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5455,18 +5133,15 @@
         <v>451593.2392</v>
       </c>
       <c r="G147" t="n">
-        <v>345605.2826573521</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5488,18 +5163,15 @@
         <v>207.3319</v>
       </c>
       <c r="G148" t="n">
-        <v>345812.6145573521</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5521,18 +5193,15 @@
         <v>22231.8861</v>
       </c>
       <c r="G149" t="n">
-        <v>323580.7284573521</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5554,18 +5223,15 @@
         <v>22863.2918</v>
       </c>
       <c r="G150" t="n">
-        <v>323580.7284573521</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5587,18 +5253,15 @@
         <v>9404.998</v>
       </c>
       <c r="G151" t="n">
-        <v>314175.7304573521</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5620,18 +5283,15 @@
         <v>12383.6184</v>
       </c>
       <c r="G152" t="n">
-        <v>301792.1120573521</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5653,18 +5313,15 @@
         <v>4000</v>
       </c>
       <c r="G153" t="n">
-        <v>305792.1120573521</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5686,18 +5343,15 @@
         <v>6367.3145</v>
       </c>
       <c r="G154" t="n">
-        <v>305792.1120573521</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5719,18 +5373,15 @@
         <v>39345.9416</v>
       </c>
       <c r="G155" t="n">
-        <v>266446.1704573521</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5752,18 +5403,15 @@
         <v>10861.567</v>
       </c>
       <c r="G156" t="n">
-        <v>266446.1704573521</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5785,18 +5433,15 @@
         <v>5756.8565</v>
       </c>
       <c r="G157" t="n">
-        <v>260689.3139573521</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5818,18 +5463,15 @@
         <v>16786</v>
       </c>
       <c r="G158" t="n">
-        <v>277475.3139573521</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5851,18 +5493,15 @@
         <v>1201</v>
       </c>
       <c r="G159" t="n">
-        <v>277475.3139573521</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5884,18 +5523,15 @@
         <v>46</v>
       </c>
       <c r="G160" t="n">
-        <v>277429.3139573521</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5917,18 +5553,15 @@
         <v>96828.16310000001</v>
       </c>
       <c r="G161" t="n">
-        <v>374257.4770573521</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5950,18 +5583,15 @@
         <v>100</v>
       </c>
       <c r="G162" t="n">
-        <v>374157.4770573521</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5983,18 +5613,15 @@
         <v>1856.2332</v>
       </c>
       <c r="G163" t="n">
-        <v>376013.7102573521</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6016,18 +5643,15 @@
         <v>2546</v>
       </c>
       <c r="G164" t="n">
-        <v>378559.7102573521</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6049,18 +5673,15 @@
         <v>15125.6725</v>
       </c>
       <c r="G165" t="n">
-        <v>378559.7102573521</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6082,18 +5703,15 @@
         <v>46190.4524</v>
       </c>
       <c r="G166" t="n">
-        <v>424750.1626573521</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6115,18 +5733,15 @@
         <v>542.0997</v>
       </c>
       <c r="G167" t="n">
-        <v>424208.0629573521</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6148,18 +5763,15 @@
         <v>23000</v>
       </c>
       <c r="G168" t="n">
-        <v>447208.0629573521</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6181,18 +5793,15 @@
         <v>1039.9672</v>
       </c>
       <c r="G169" t="n">
-        <v>446168.0957573521</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6214,18 +5823,15 @@
         <v>903</v>
       </c>
       <c r="G170" t="n">
-        <v>447071.0957573521</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6247,18 +5853,15 @@
         <v>20000</v>
       </c>
       <c r="G171" t="n">
-        <v>427071.0957573521</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6280,18 +5883,15 @@
         <v>10025</v>
       </c>
       <c r="G172" t="n">
-        <v>437096.0957573521</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6313,18 +5913,15 @@
         <v>6959.5231</v>
       </c>
       <c r="G173" t="n">
-        <v>430136.5726573521</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6346,18 +5943,15 @@
         <v>9000</v>
       </c>
       <c r="G174" t="n">
-        <v>430136.5726573521</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6379,18 +5973,15 @@
         <v>57590</v>
       </c>
       <c r="G175" t="n">
-        <v>487726.5726573521</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6412,18 +6003,15 @@
         <v>16475</v>
       </c>
       <c r="G176" t="n">
-        <v>487726.5726573521</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6445,18 +6033,15 @@
         <v>6000</v>
       </c>
       <c r="G177" t="n">
-        <v>487726.5726573521</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6478,18 +6063,15 @@
         <v>31488</v>
       </c>
       <c r="G178" t="n">
-        <v>519214.5726573521</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6511,18 +6093,15 @@
         <v>4211.8824</v>
       </c>
       <c r="G179" t="n">
-        <v>519214.5726573521</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6544,18 +6123,15 @@
         <v>193753.19</v>
       </c>
       <c r="G180" t="n">
-        <v>519214.5726573521</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6577,18 +6153,15 @@
         <v>22000</v>
       </c>
       <c r="G181" t="n">
-        <v>497214.5726573521</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6610,18 +6183,15 @@
         <v>58600</v>
       </c>
       <c r="G182" t="n">
-        <v>555814.5726573521</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6643,18 +6213,15 @@
         <v>101692.0964</v>
       </c>
       <c r="G183" t="n">
-        <v>454122.4762573521</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6676,18 +6243,15 @@
         <v>13830.3958</v>
       </c>
       <c r="G184" t="n">
-        <v>440292.0804573521</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6709,18 +6273,15 @@
         <v>14519.6042</v>
       </c>
       <c r="G185" t="n">
-        <v>440292.0804573521</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6742,18 +6303,15 @@
         <v>85050</v>
       </c>
       <c r="G186" t="n">
-        <v>440292.0804573521</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6775,18 +6333,15 @@
         <v>925</v>
       </c>
       <c r="G187" t="n">
-        <v>441217.0804573521</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6808,18 +6363,15 @@
         <v>9556.2017</v>
       </c>
       <c r="G188" t="n">
-        <v>431660.8787573521</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6841,18 +6393,15 @@
         <v>5000</v>
       </c>
       <c r="G189" t="n">
-        <v>436660.8787573521</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6874,18 +6423,15 @@
         <v>272304.75</v>
       </c>
       <c r="G190" t="n">
-        <v>164356.1287573521</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6907,18 +6453,15 @@
         <v>3314</v>
       </c>
       <c r="G191" t="n">
-        <v>164356.1287573521</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6940,18 +6483,15 @@
         <v>7605</v>
       </c>
       <c r="G192" t="n">
-        <v>164356.1287573521</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6973,18 +6513,15 @@
         <v>1044</v>
       </c>
       <c r="G193" t="n">
-        <v>164356.1287573521</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7006,18 +6543,15 @@
         <v>146498.3392</v>
       </c>
       <c r="G194" t="n">
-        <v>164356.1287573521</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7039,18 +6573,15 @@
         <v>500</v>
       </c>
       <c r="G195" t="n">
-        <v>164856.1287573521</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7072,18 +6603,15 @@
         <v>30000</v>
       </c>
       <c r="G196" t="n">
-        <v>164856.1287573521</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7105,18 +6633,15 @@
         <v>501.6608</v>
       </c>
       <c r="G197" t="n">
-        <v>164354.4679573521</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7138,18 +6663,15 @@
         <v>133404.8036</v>
       </c>
       <c r="G198" t="n">
-        <v>30949.6643573521</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7171,18 +6693,15 @@
         <v>541</v>
       </c>
       <c r="G199" t="n">
-        <v>30949.6643573521</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7204,24 +6723,15 @@
         <v>98882.36689999999</v>
       </c>
       <c r="G200" t="n">
-        <v>-67932.70254264789</v>
-      </c>
-      <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>10.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7243,22 +6753,15 @@
         <v>3922</v>
       </c>
       <c r="G201" t="n">
-        <v>-67932.70254264789</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7280,24 +6783,15 @@
         <v>965.8089</v>
       </c>
       <c r="G202" t="n">
-        <v>-68898.5114426479</v>
-      </c>
-      <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>10.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7319,24 +6813,15 @@
         <v>33196.7362</v>
       </c>
       <c r="G203" t="n">
-        <v>-68898.5114426479</v>
-      </c>
-      <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>10.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7358,24 +6843,15 @@
         <v>21698.8804</v>
       </c>
       <c r="G204" t="n">
-        <v>-90597.39184264789</v>
-      </c>
-      <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>10.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7397,24 +6873,15 @@
         <v>2000</v>
       </c>
       <c r="G205" t="n">
-        <v>-90597.39184264789</v>
-      </c>
-      <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>10.96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7436,24 +6903,15 @@
         <v>21225.1064</v>
       </c>
       <c r="G206" t="n">
-        <v>-111822.4982426479</v>
-      </c>
-      <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>10.96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7475,24 +6933,15 @@
         <v>81329.70510000001</v>
       </c>
       <c r="G207" t="n">
-        <v>-193152.2033426479</v>
-      </c>
-      <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>10.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7514,24 +6963,15 @@
         <v>5595.8438</v>
       </c>
       <c r="G208" t="n">
-        <v>-193152.2033426479</v>
-      </c>
-      <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>10.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7553,24 +6993,15 @@
         <v>10000</v>
       </c>
       <c r="G209" t="n">
-        <v>-193152.2033426479</v>
-      </c>
-      <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>10.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7592,24 +7023,15 @@
         <v>20000</v>
       </c>
       <c r="G210" t="n">
-        <v>-193152.2033426479</v>
-      </c>
-      <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>10.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7631,24 +7053,15 @@
         <v>5595.8438</v>
       </c>
       <c r="G211" t="n">
-        <v>-187556.3595426479</v>
-      </c>
-      <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>10.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7670,24 +7083,15 @@
         <v>4211.8824</v>
       </c>
       <c r="G212" t="n">
-        <v>-183344.4771426479</v>
-      </c>
-      <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>10.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7709,24 +7113,15 @@
         <v>2000</v>
       </c>
       <c r="G213" t="n">
-        <v>-181344.4771426479</v>
-      </c>
-      <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7748,24 +7143,15 @@
         <v>21105.8159</v>
       </c>
       <c r="G214" t="n">
-        <v>-181344.4771426479</v>
-      </c>
-      <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>11.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7787,24 +7173,15 @@
         <v>500</v>
       </c>
       <c r="G215" t="n">
-        <v>-180844.4771426479</v>
-      </c>
-      <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>11.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7826,24 +7203,15 @@
         <v>884.1732979664014</v>
       </c>
       <c r="G216" t="n">
-        <v>-181728.6504406143</v>
-      </c>
-      <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>11.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7865,22 +7233,15 @@
         <v>174484.0381</v>
       </c>
       <c r="G217" t="n">
-        <v>-7244.612340614287</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7902,22 +7263,15 @@
         <v>76.20050000000001</v>
       </c>
       <c r="G218" t="n">
-        <v>-7244.612340614287</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7939,22 +7293,15 @@
         <v>11515.5964</v>
       </c>
       <c r="G219" t="n">
-        <v>-18760.20874061429</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7976,22 +7323,15 @@
         <v>24000</v>
       </c>
       <c r="G220" t="n">
-        <v>5239.791259385711</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8013,22 +7353,15 @@
         <v>260000</v>
       </c>
       <c r="G221" t="n">
-        <v>-254760.2087406143</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8050,22 +7383,15 @@
         <v>2000</v>
       </c>
       <c r="G222" t="n">
-        <v>-252760.2087406143</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8087,22 +7413,15 @@
         <v>3903.4635</v>
       </c>
       <c r="G223" t="n">
-        <v>-252760.2087406143</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8124,22 +7443,15 @@
         <v>162716.4097</v>
       </c>
       <c r="G224" t="n">
-        <v>-252760.2087406143</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8161,24 +7473,15 @@
         <v>130000</v>
       </c>
       <c r="G225" t="n">
-        <v>-252760.2087406143</v>
-      </c>
-      <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>11.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8200,24 +7503,15 @@
         <v>10095.3249</v>
       </c>
       <c r="G226" t="n">
-        <v>-242664.8838406143</v>
-      </c>
-      <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>11.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
